--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5294D7D9-741E-4A8F-82B4-70BACBBB2FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1107009B-E55A-416E-B79E-BF39084BDEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15345" xr2:uid="{77457E1E-5BA7-4596-88BB-5A4DC9A1A351}"/>
+    <workbookView xWindow="5070" yWindow="720" windowWidth="32790" windowHeight="20880" activeTab="1" xr2:uid="{77457E1E-5BA7-4596-88BB-5A4DC9A1A351}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={774D2F1E-BB2E-4780-A52B-4E03D3C621F7}</author>
+  </authors>
+  <commentList>
+    <comment ref="T25" authorId="0" shapeId="0" xr:uid="{774D2F1E-BB2E-4780-A52B-4E03D3C621F7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    +7.5-8.0% FXN</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
@@ -214,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -233,6 +251,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -307,16 +331,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>27878</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63596</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>41817</xdr:rowOff>
+      <xdr:rowOff>29911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>27878</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>18586</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63596</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -331,8 +355,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11351012" y="41817"/>
-          <a:ext cx="0" cy="5018049"/>
+          <a:off x="11969846" y="29911"/>
+          <a:ext cx="0" cy="6804276"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -356,6 +380,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{F638F1B7-E2AF-467F-B83C-DE23294646CE}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -653,11 +683,19 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="T25" dT="2023-05-11T02:04:41.45" personId="{F638F1B7-E2AF-467F-B83C-DE23294646CE}" id="{774D2F1E-BB2E-4780-A52B-4E03D3C621F7}">
+    <text>+7.5-8.0% FXN</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E478C1F2-1B95-4A2D-94EF-7F01AC3D39CD}">
   <dimension ref="L2:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -728,14 +766,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A4DD04-3742-4652-B3CF-AD5D3283DE29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A4DD04-3742-4652-B3CF-AD5D3283DE29}">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M39" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q39" sqref="Q39"/>
+      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -831,8 +869,12 @@
       <c r="Q3" s="11">
         <v>336973</v>
       </c>
-      <c r="R3" s="11"/>
-      <c r="S3" s="1"/>
+      <c r="R3" s="11">
+        <v>357378</v>
+      </c>
+      <c r="S3" s="11">
+        <v>354508</v>
+      </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -877,7 +919,9 @@
       <c r="N6" s="8">
         <v>6918</v>
       </c>
-      <c r="O6" s="8"/>
+      <c r="O6" s="8">
+        <v>6483</v>
+      </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8">
         <v>6846</v>
@@ -885,6 +929,9 @@
       <c r="R6" s="8">
         <v>7383</v>
       </c>
+      <c r="S6" s="8">
+        <v>7040</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
@@ -896,11 +943,17 @@
       <c r="N7" s="4">
         <v>2952</v>
       </c>
+      <c r="O7" s="4">
+        <v>2817</v>
+      </c>
       <c r="Q7" s="4">
         <v>2988</v>
       </c>
       <c r="R7" s="4">
         <v>3324</v>
+      </c>
+      <c r="S7" s="4">
+        <v>3283</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -913,11 +966,17 @@
       <c r="N8" s="4">
         <v>350</v>
       </c>
+      <c r="O8" s="4">
+        <v>369</v>
+      </c>
       <c r="Q8" s="4">
         <v>367</v>
       </c>
       <c r="R8" s="4">
         <v>388</v>
+      </c>
+      <c r="S8" s="1">
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -932,6 +991,10 @@
         <f>N6-N7-N8</f>
         <v>3616</v>
       </c>
+      <c r="O9" s="4">
+        <f>O6-O7-O8</f>
+        <v>3297</v>
+      </c>
       <c r="Q9" s="4">
         <f>Q6-Q7-Q8</f>
         <v>3491</v>
@@ -940,6 +1003,10 @@
         <f>R6-R7-R8</f>
         <v>3671</v>
       </c>
+      <c r="S9" s="4">
+        <f>S6-S7-S8</f>
+        <v>3315</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -951,11 +1018,17 @@
       <c r="N10" s="4">
         <v>532</v>
       </c>
+      <c r="O10" s="4">
+        <v>534</v>
+      </c>
       <c r="Q10" s="4">
         <v>509</v>
       </c>
       <c r="R10" s="4">
         <v>541</v>
+      </c>
+      <c r="S10" s="4">
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -968,11 +1041,17 @@
       <c r="N11" s="4">
         <v>666</v>
       </c>
+      <c r="O11" s="4">
+        <v>594</v>
+      </c>
       <c r="Q11" s="4">
         <v>544</v>
       </c>
       <c r="R11" s="4">
         <v>524</v>
+      </c>
+      <c r="S11" s="4">
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -985,11 +1064,17 @@
       <c r="N12" s="4">
         <v>796</v>
       </c>
+      <c r="O12" s="4">
+        <v>815</v>
+      </c>
       <c r="Q12" s="4">
         <v>801</v>
       </c>
       <c r="R12" s="4">
         <v>822</v>
+      </c>
+      <c r="S12" s="4">
+        <v>721</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -1002,11 +1087,17 @@
       <c r="N13" s="4">
         <v>570</v>
       </c>
+      <c r="O13" s="4">
+        <v>607</v>
+      </c>
       <c r="Q13" s="4">
         <v>463</v>
       </c>
       <c r="R13" s="4">
         <v>515</v>
+      </c>
+      <c r="S13" s="4">
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -1021,6 +1112,10 @@
         <f>SUM(N10:N13)</f>
         <v>2564</v>
       </c>
+      <c r="O14" s="4">
+        <f>SUM(O10:O13)</f>
+        <v>2550</v>
+      </c>
       <c r="Q14" s="4">
         <f>SUM(Q10:Q13)</f>
         <v>2317</v>
@@ -1029,6 +1124,10 @@
         <f>SUM(R10:R13)</f>
         <v>2402</v>
       </c>
+      <c r="S14" s="4">
+        <f>SUM(S10:S13)</f>
+        <v>2152</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
@@ -1042,6 +1141,10 @@
         <f>N9-N14</f>
         <v>1052</v>
       </c>
+      <c r="O15" s="4">
+        <f>O9-O14</f>
+        <v>747</v>
+      </c>
       <c r="Q15" s="4">
         <f>Q9-Q14</f>
         <v>1174</v>
@@ -1050,6 +1153,10 @@
         <f>R9-R14</f>
         <v>1269</v>
       </c>
+      <c r="S15" s="4">
+        <f>S9-S14</f>
+        <v>1163</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
@@ -1061,14 +1168,20 @@
       <c r="N16" s="1">
         <v>-344</v>
       </c>
+      <c r="O16" s="4">
+        <v>-82</v>
+      </c>
       <c r="Q16" s="4">
         <v>460</v>
       </c>
       <c r="R16" s="4">
         <v>-134</v>
       </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>42</v>
       </c>
@@ -1080,6 +1193,10 @@
         <f>N15+N16</f>
         <v>708</v>
       </c>
+      <c r="O17" s="4">
+        <f>O15+O16</f>
+        <v>665</v>
+      </c>
       <c r="Q17" s="4">
         <f>Q15+Q16</f>
         <v>1634</v>
@@ -1088,8 +1205,12 @@
         <f>R15+R16</f>
         <v>1135</v>
       </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="4">
+        <f>S15+S16</f>
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>41</v>
       </c>
@@ -1099,14 +1220,20 @@
       <c r="N18">
         <v>0</v>
       </c>
+      <c r="O18">
+        <v>120</v>
+      </c>
       <c r="Q18">
         <v>248</v>
       </c>
       <c r="R18">
         <v>189</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S18">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>40</v>
       </c>
@@ -1118,6 +1245,10 @@
         <f>N17-N18</f>
         <v>708</v>
       </c>
+      <c r="O19" s="4">
+        <f>O17-O18</f>
+        <v>545</v>
+      </c>
       <c r="Q19" s="4">
         <f>Q17-Q18</f>
         <v>1386</v>
@@ -1126,8 +1257,12 @@
         <f>R17-R18</f>
         <v>946</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="4">
+        <f>S17-S18</f>
+        <v>959</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -1139,6 +1274,10 @@
         <f>N19/N21</f>
         <v>0.59847844463229083</v>
       </c>
+      <c r="O20" s="5">
+        <f>O19/O21</f>
+        <v>0.46501706484641636</v>
+      </c>
       <c r="Q20" s="5">
         <f>Q19/Q21</f>
         <v>1.1979256698357823</v>
@@ -1147,8 +1286,12 @@
         <f>R19/R21</f>
         <v>0.82692307692307687</v>
       </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="5">
+        <f>S19/S21</f>
+        <v>0.84567901234567899</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -1158,14 +1301,20 @@
       <c r="N21" s="4">
         <v>1183</v>
       </c>
+      <c r="O21" s="4">
+        <v>1172</v>
+      </c>
       <c r="Q21" s="4">
         <v>1157</v>
       </c>
       <c r="R21" s="4">
         <v>1144</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S21" s="4">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>28</v>
       </c>
@@ -1189,8 +1338,12 @@
         <f>R6/N6-1</f>
         <v>6.7215958369470918E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="10">
+        <f>S6/O6-1</f>
+        <v>8.5917013728212144E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>29</v>
       </c>
@@ -1202,6 +1355,10 @@
         <f>N9/N6</f>
         <v>0.52269442035270308</v>
       </c>
+      <c r="O26" s="3">
+        <f>O9/O6</f>
+        <v>0.5085608514576585</v>
+      </c>
       <c r="Q26" s="3">
         <f>Q9/Q6</f>
         <v>0.50993280747881975</v>
@@ -1210,8 +1367,12 @@
         <f>R9/R6</f>
         <v>0.49722335094135173</v>
       </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <f>S9/S6</f>
+        <v>0.47088068181818182</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>43</v>
       </c>
@@ -1223,6 +1384,10 @@
         <f>N15/N6</f>
         <v>0.15206707140792136</v>
       </c>
+      <c r="O27" s="9">
+        <f>O15/O6</f>
+        <v>0.11522443313280889</v>
+      </c>
       <c r="Q27" s="9">
         <f>Q15/Q6</f>
         <v>0.17148699970785861</v>
@@ -1231,8 +1396,12 @@
         <f>R15/R6</f>
         <v>0.1718813490451036</v>
       </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="9">
+        <f>S15/S6</f>
+        <v>0.16519886363636363</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>44</v>
       </c>
@@ -1244,6 +1413,10 @@
         <f>N18/N17</f>
         <v>0</v>
       </c>
+      <c r="O28" s="3">
+        <f>O18/O17</f>
+        <v>0.18045112781954886</v>
+      </c>
       <c r="Q28" s="3">
         <f>Q18/Q17</f>
         <v>0.15177478580171358</v>
@@ -1252,8 +1425,12 @@
         <f>R18/R17</f>
         <v>0.16651982378854627</v>
       </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <f>S18/S17</f>
+        <v>0.22536348949919224</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>53</v>
       </c>
@@ -1261,8 +1438,12 @@
         <f>R32-R45</f>
         <v>5469</v>
       </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="4">
+        <f>S32-S45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>3</v>
       </c>
@@ -1391,5 +1572,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1107009B-E55A-416E-B79E-BF39084BDEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69BA967-BD50-431C-9AFB-1E1BFBB65DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="720" windowWidth="32790" windowHeight="20880" activeTab="1" xr2:uid="{77457E1E-5BA7-4596-88BB-5A4DC9A1A351}"/>
+    <workbookView xWindow="-51465" yWindow="1320" windowWidth="25050" windowHeight="18015" xr2:uid="{77457E1E-5BA7-4596-88BB-5A4DC9A1A351}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author>tc={774D2F1E-BB2E-4780-A52B-4E03D3C621F7}</author>
   </authors>
   <commentList>
-    <comment ref="T25" authorId="0" shapeId="0" xr:uid="{774D2F1E-BB2E-4780-A52B-4E03D3C621F7}">
+    <comment ref="T29" authorId="0" shapeId="0" xr:uid="{774D2F1E-BB2E-4780-A52B-4E03D3C621F7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
   <si>
     <t>Price</t>
   </si>
@@ -226,13 +226,115 @@
   </si>
   <si>
     <t>TPV</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>TPV y/y</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>Credit Losses</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Strategic</t>
+  </si>
+  <si>
+    <t>Discount on Investments</t>
+  </si>
+  <si>
+    <t>Loan Adjustments</t>
+  </si>
+  <si>
+    <t>Originations</t>
+  </si>
+  <si>
+    <t>Repayments</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Funds Receivable</t>
+  </si>
+  <si>
+    <t>Collateral</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Issuance</t>
+  </si>
+  <si>
+    <t>Buyback</t>
+  </si>
+  <si>
+    <t>Tax Withholdings</t>
+  </si>
+  <si>
+    <t>Financing Arragements</t>
+  </si>
+  <si>
+    <t>Customer Funds</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>Tranasction Revenue</t>
+  </si>
+  <si>
+    <t>VAS Revenue</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>L+SE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -251,12 +353,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -331,16 +427,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>63596</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>39783</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>29911</xdr:rowOff>
+      <xdr:rowOff>29910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>63596</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>39783</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -355,8 +451,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11969846" y="29911"/>
-          <a:ext cx="0" cy="6804276"/>
+          <a:off x="14982127" y="29910"/>
+          <a:ext cx="0" cy="14924340"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -389,9 +485,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -429,7 +525,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -535,7 +631,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -677,7 +773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,7 +781,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="T25" dT="2023-05-11T02:04:41.45" personId="{F638F1B7-E2AF-467F-B83C-DE23294646CE}" id="{774D2F1E-BB2E-4780-A52B-4E03D3C621F7}">
+  <threadedComment ref="T29" dT="2023-05-11T02:04:41.45" personId="{F638F1B7-E2AF-467F-B83C-DE23294646CE}" id="{774D2F1E-BB2E-4780-A52B-4E03D3C621F7}">
     <text>+7.5-8.0% FXN</text>
   </threadedComment>
 </ThreadedComments>
@@ -695,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E478C1F2-1B95-4A2D-94EF-7F01AC3D39CD}">
   <dimension ref="L2:N7"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -714,10 +810,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="4">
-        <v>1144</v>
+        <v>1047</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="12:14" x14ac:dyDescent="0.2">
@@ -726,7 +822,7 @@
       </c>
       <c r="M4" s="4">
         <f>M2*M3</f>
-        <v>82150.64</v>
+        <v>75185.070000000007</v>
       </c>
     </row>
     <row r="5" spans="12:14" x14ac:dyDescent="0.2">
@@ -734,10 +830,10 @@
         <v>3</v>
       </c>
       <c r="M5" s="4">
-        <v>15886</v>
+        <v>18269</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="12:14" x14ac:dyDescent="0.2">
@@ -745,10 +841,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="4">
-        <v>10417</v>
+        <v>9727</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="12:14" x14ac:dyDescent="0.2">
@@ -757,7 +853,7 @@
       </c>
       <c r="M7" s="4">
         <f>M4-M5+M6</f>
-        <v>76681.64</v>
+        <v>66643.070000000007</v>
       </c>
     </row>
   </sheetData>
@@ -767,13 +863,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A4DD04-3742-4652-B3CF-AD5D3283DE29}">
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:BA88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomRight" activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -783,12 +879,12 @@
     <col min="3" max="14" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -849,11 +945,124 @@
       <c r="V2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="W2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2">
+        <v>2020</v>
+      </c>
+      <c r="AF2">
+        <f>+AE2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" ref="AG2:BA2" si="0">+AF2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="AL2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="AM2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="AN2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="AO2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AP2">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="AQ2">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AR2">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AS2">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="AT2">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="AU2">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="AV2">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="AW2">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="AX2">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="AY2">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="AZ2">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="BA2">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="11">
         <v>309910</v>
       </c>
@@ -875,695 +1084,1622 @@
       <c r="S3" s="11">
         <v>354508</v>
       </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="T3" s="4">
+        <v>376538</v>
+      </c>
+      <c r="U3" s="11">
+        <v>387701</v>
+      </c>
+      <c r="V3" s="11">
+        <v>409832</v>
+      </c>
+      <c r="X3" s="4">
+        <v>416814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+    </row>
+    <row r="5" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11">
+        <v>431</v>
+      </c>
+      <c r="U5" s="11">
+        <v>428</v>
+      </c>
+      <c r="V5" s="11">
+        <v>426</v>
+      </c>
+      <c r="W5" s="4">
+        <v>427</v>
+      </c>
+      <c r="X5" s="4">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11">
+        <v>6074</v>
+      </c>
+      <c r="U6" s="11">
+        <v>6275</v>
+      </c>
+      <c r="V6" s="11">
+        <v>6798</v>
+      </c>
+      <c r="W6" s="4">
+        <v>6505</v>
+      </c>
+      <c r="X6" s="4">
+        <v>6580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11">
+        <v>6556</v>
+      </c>
+      <c r="U8" s="11">
+        <v>6654</v>
+      </c>
+      <c r="V8" s="11">
+        <v>7283</v>
+      </c>
+      <c r="W8" s="4">
+        <v>7034</v>
+      </c>
+      <c r="X8" s="4">
+        <v>7153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11">
+        <v>731</v>
+      </c>
+      <c r="U9" s="11">
+        <v>764</v>
+      </c>
+      <c r="V9" s="11">
+        <v>743</v>
+      </c>
+      <c r="W9" s="11">
+        <v>665</v>
+      </c>
+      <c r="X9" s="11">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="12">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12">
         <v>6182</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N10" s="8">
         <v>6918</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O10" s="8">
         <v>6483</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8">
+      <c r="Q10" s="8">
         <v>6846</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R10" s="8">
         <v>7383</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S10" s="8">
         <v>7040</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="T10" s="8">
+        <f>+T8+T9</f>
+        <v>7287</v>
+      </c>
+      <c r="U10" s="8">
+        <f>+U8+U9</f>
+        <v>7418</v>
+      </c>
+      <c r="V10" s="8">
+        <f>+V8+V9</f>
+        <v>8026</v>
+      </c>
+      <c r="W10" s="8">
+        <f>+W8+W9</f>
+        <v>7699</v>
+      </c>
+      <c r="X10" s="8">
+        <f>+X8+X9</f>
+        <v>7885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M11" s="4">
         <v>2564</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N11" s="4">
         <v>2952</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O11" s="4">
         <v>2817</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q11" s="4">
         <v>2988</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R11" s="4">
         <v>3324</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S11" s="4">
         <v>3283</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="T11" s="4">
+        <v>3541</v>
+      </c>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4">
+        <v>3917</v>
+      </c>
+      <c r="X11" s="4">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M12" s="4">
         <v>268</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N12" s="4">
         <v>350</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O12" s="4">
         <v>369</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q12" s="4">
         <v>367</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R12" s="4">
         <v>388</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S12" s="1">
         <v>442</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="T12" s="4">
+        <v>398</v>
+      </c>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4">
+        <v>321</v>
+      </c>
+      <c r="X12" s="4">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="4">
-        <f>M6-M7-M8</f>
+      <c r="M13" s="4">
+        <f>M10-M11-M12</f>
         <v>3350</v>
       </c>
-      <c r="N9" s="4">
-        <f>N6-N7-N8</f>
+      <c r="N13" s="4">
+        <f>N10-N11-N12</f>
         <v>3616</v>
       </c>
-      <c r="O9" s="4">
-        <f>O6-O7-O8</f>
+      <c r="O13" s="4">
+        <f>O10-O11-O12</f>
         <v>3297</v>
       </c>
-      <c r="Q9" s="4">
-        <f>Q6-Q7-Q8</f>
+      <c r="Q13" s="4">
+        <f>Q10-Q11-Q12</f>
         <v>3491</v>
       </c>
-      <c r="R9" s="4">
-        <f>R6-R7-R8</f>
+      <c r="R13" s="4">
+        <f>R10-R11-R12</f>
         <v>3671</v>
       </c>
-      <c r="S9" s="4">
-        <f>S6-S7-S8</f>
+      <c r="S13" s="4">
+        <f>S10-S11-S12</f>
         <v>3315</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="T13" s="4">
+        <f t="shared" ref="T13:W13" si="1">+T10-T11-T12</f>
+        <v>3348</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="1"/>
+        <v>7418</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="1"/>
+        <v>8026</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" si="1"/>
+        <v>3461</v>
+      </c>
+      <c r="X13" s="4">
+        <f>+X10-X11-X12</f>
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M14" s="4">
         <v>504</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N14" s="4">
         <v>532</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O14" s="4">
         <v>534</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q14" s="4">
         <v>509</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R14" s="4">
         <v>541</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S14" s="4">
         <v>488</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="T14" s="4">
+        <v>492</v>
+      </c>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4">
+        <v>454</v>
+      </c>
+      <c r="X14" s="4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M15" s="4">
         <v>549</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N15" s="4">
         <v>666</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O15" s="4">
         <v>594</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q15" s="4">
         <v>544</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R15" s="4">
         <v>524</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S15" s="4">
         <v>436</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="T15" s="4">
+        <v>465</v>
+      </c>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4">
+        <v>421</v>
+      </c>
+      <c r="X15" s="4">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M16" s="4">
         <v>755</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N16" s="4">
         <v>796</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O16" s="4">
         <v>815</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q16" s="4">
         <v>801</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R16" s="4">
         <v>822</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S16" s="4">
         <v>721</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="T16" s="4">
+        <v>743</v>
+      </c>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4">
+        <v>742</v>
+      </c>
+      <c r="X16" s="4">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M17" s="4">
         <v>498</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N17" s="4">
         <v>570</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O17" s="4">
         <v>607</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q17" s="4">
         <v>463</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R17" s="4">
         <v>515</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S17" s="4">
         <v>507</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="T17" s="4">
+        <v>491</v>
+      </c>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4">
+        <v>464</v>
+      </c>
+      <c r="X17" s="4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="4">
-        <f>SUM(M10:M13)</f>
+      <c r="M18" s="4">
+        <f>SUM(M14:M17)</f>
         <v>2306</v>
       </c>
-      <c r="N14" s="4">
-        <f>SUM(N10:N13)</f>
+      <c r="N18" s="4">
+        <f>SUM(N14:N17)</f>
         <v>2564</v>
       </c>
-      <c r="O14" s="4">
-        <f>SUM(O10:O13)</f>
+      <c r="O18" s="4">
+        <f>SUM(O14:O17)</f>
         <v>2550</v>
       </c>
-      <c r="Q14" s="4">
-        <f>SUM(Q10:Q13)</f>
+      <c r="Q18" s="4">
+        <f>SUM(Q14:Q17)</f>
         <v>2317</v>
       </c>
-      <c r="R14" s="4">
-        <f>SUM(R10:R13)</f>
+      <c r="R18" s="4">
+        <f>SUM(R14:R17)</f>
         <v>2402</v>
       </c>
-      <c r="S14" s="4">
-        <f>SUM(S10:S13)</f>
+      <c r="S18" s="4">
+        <f>SUM(S14:S17)</f>
         <v>2152</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="T18" s="4">
+        <f t="shared" ref="T18:X18" si="2">SUM(T14:T17)</f>
+        <v>2191</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" si="2"/>
+        <v>2081</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="2"/>
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="4">
-        <f>M9-M14</f>
+      <c r="M19" s="4">
+        <f>M13-M18</f>
         <v>1044</v>
       </c>
-      <c r="N15" s="4">
-        <f>N9-N14</f>
+      <c r="N19" s="4">
+        <f>N13-N18</f>
         <v>1052</v>
       </c>
-      <c r="O15" s="4">
-        <f>O9-O14</f>
+      <c r="O19" s="4">
+        <f>O13-O18</f>
         <v>747</v>
       </c>
-      <c r="Q15" s="4">
-        <f>Q9-Q14</f>
+      <c r="Q19" s="4">
+        <f>Q13-Q18</f>
         <v>1174</v>
       </c>
-      <c r="R15" s="4">
-        <f>R9-R14</f>
+      <c r="R19" s="4">
+        <f>R13-R18</f>
         <v>1269</v>
       </c>
-      <c r="S15" s="4">
-        <f>S9-S14</f>
+      <c r="S19" s="4">
+        <f>S13-S18</f>
         <v>1163</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="T19" s="4">
+        <f t="shared" ref="T19:X19" si="3">T13-T18</f>
+        <v>1157</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="3"/>
+        <v>7418</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="3"/>
+        <v>8026</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="3"/>
+        <v>1380</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="3"/>
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M20" s="1">
         <v>122</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N20" s="1">
         <v>-344</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O20" s="4">
         <v>-82</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q20" s="4">
         <v>460</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R20" s="4">
         <v>-134</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S20" s="4">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="T20" s="4">
+        <v>170</v>
+      </c>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4">
+        <v>41</v>
+      </c>
+      <c r="X20" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="4">
-        <f>M15+M16</f>
+      <c r="M21" s="4">
+        <f>M19+M20</f>
         <v>1166</v>
       </c>
-      <c r="N17" s="4">
-        <f>N15+N16</f>
+      <c r="N21" s="4">
+        <f>N19+N20</f>
         <v>708</v>
       </c>
-      <c r="O17" s="4">
-        <f>O15+O16</f>
+      <c r="O21" s="4">
+        <f>O19+O20</f>
         <v>665</v>
       </c>
-      <c r="Q17" s="4">
-        <f>Q15+Q16</f>
+      <c r="Q21" s="4">
+        <f>Q19+Q20</f>
         <v>1634</v>
       </c>
-      <c r="R17" s="4">
-        <f>R15+R16</f>
+      <c r="R21" s="4">
+        <f>R19+R20</f>
         <v>1135</v>
       </c>
-      <c r="S17" s="4">
-        <f>S15+S16</f>
+      <c r="S21" s="4">
+        <f>S19+S20</f>
         <v>1238</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+      <c r="T21" s="4">
+        <f t="shared" ref="T21:W21" si="4">+T19+T20</f>
+        <v>1327</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="4"/>
+        <v>7418</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="4"/>
+        <v>8026</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="4"/>
+        <v>1421</v>
+      </c>
+      <c r="X21" s="4">
+        <f>+X19+X20</f>
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="M18">
+      <c r="M22">
         <v>78</v>
       </c>
-      <c r="N18">
+      <c r="N22">
         <v>0</v>
       </c>
-      <c r="O18">
+      <c r="O22">
         <v>120</v>
       </c>
-      <c r="Q18">
+      <c r="Q22">
         <v>248</v>
       </c>
-      <c r="R18">
+      <c r="R22">
         <v>189</v>
       </c>
-      <c r="S18">
+      <c r="S22">
         <v>279</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="T22" s="4">
+        <v>274</v>
+      </c>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4">
+        <v>321</v>
+      </c>
+      <c r="X22" s="4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="4">
-        <f>M17-M18</f>
+      <c r="M23" s="4">
+        <f>M21-M22</f>
         <v>1088</v>
       </c>
-      <c r="N19" s="4">
-        <f>N17-N18</f>
+      <c r="N23" s="4">
+        <f>N21-N22</f>
         <v>708</v>
       </c>
-      <c r="O19" s="4">
-        <f>O17-O18</f>
+      <c r="O23" s="4">
+        <f>O21-O22</f>
         <v>545</v>
       </c>
-      <c r="Q19" s="4">
-        <f>Q17-Q18</f>
+      <c r="Q23" s="4">
+        <f>Q21-Q22</f>
         <v>1386</v>
       </c>
-      <c r="R19" s="4">
-        <f>R17-R18</f>
+      <c r="R23" s="4">
+        <f>R21-R22</f>
         <v>946</v>
       </c>
-      <c r="S19" s="4">
-        <f>S17-S18</f>
+      <c r="S23" s="4">
+        <f>S21-S22</f>
         <v>959</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+      <c r="T23" s="4">
+        <f t="shared" ref="T23:W23" si="5">+T21-T22</f>
+        <v>1053</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="5"/>
+        <v>7418</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="5"/>
+        <v>8026</v>
+      </c>
+      <c r="W23" s="4">
+        <f t="shared" si="5"/>
+        <v>1100</v>
+      </c>
+      <c r="X23" s="4">
+        <f>+X21-X22</f>
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="5">
-        <f>M19/M21</f>
+      <c r="M24" s="5">
+        <f>M23/M25</f>
         <v>0.91659646166807074</v>
       </c>
-      <c r="N20" s="5">
-        <f>N19/N21</f>
+      <c r="N24" s="5">
+        <f>N23/N25</f>
         <v>0.59847844463229083</v>
       </c>
-      <c r="O20" s="5">
-        <f>O19/O21</f>
+      <c r="O24" s="5">
+        <f>O23/O25</f>
         <v>0.46501706484641636</v>
       </c>
-      <c r="Q20" s="5">
-        <f>Q19/Q21</f>
+      <c r="Q24" s="5">
+        <f>Q23/Q25</f>
         <v>1.1979256698357823</v>
       </c>
-      <c r="R20" s="5">
-        <f>R19/R21</f>
+      <c r="R24" s="5">
+        <f>R23/R25</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="S20" s="5">
-        <f>S19/S21</f>
+      <c r="S24" s="5">
+        <f>S23/S25</f>
         <v>0.84567901234567899</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="T24" s="5">
+        <f t="shared" ref="T24:W24" si="6">T23/T25</f>
+        <v>0.94524236983842014</v>
+      </c>
+      <c r="U24" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24" s="5">
+        <f t="shared" si="6"/>
+        <v>1.0261194029850746</v>
+      </c>
+      <c r="X24" s="5">
+        <f>X23/X25</f>
+        <v>1.1852913085004775</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M25" s="4">
         <v>1187</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N25" s="4">
         <v>1183</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O25" s="4">
         <v>1172</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q25" s="4">
         <v>1157</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R25" s="4">
         <v>1144</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S25" s="4">
         <v>1134</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="6" t="s">
+      <c r="T25" s="4">
+        <v>1114</v>
+      </c>
+      <c r="W25" s="4">
+        <v>1072</v>
+      </c>
+      <c r="X25" s="4">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="Q25" s="10">
-        <f>Q6/M6-1</f>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="Q29" s="10">
+        <f>Q10/M10-1</f>
         <v>0.10740860562924626</v>
       </c>
-      <c r="R25" s="10">
-        <f>R6/N6-1</f>
+      <c r="R29" s="10">
+        <f>R10/N10-1</f>
         <v>6.7215958369470918E-2</v>
       </c>
-      <c r="S25" s="10">
-        <f>S6/O6-1</f>
+      <c r="S29" s="10">
+        <f>S10/O10-1</f>
         <v>8.5917013728212144E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="T29" s="10" t="e">
+        <f>T10/P10-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" s="10">
+        <f t="shared" ref="U29:W29" si="7">+U10/Q10-1</f>
+        <v>8.3552439380660148E-2</v>
+      </c>
+      <c r="V29" s="10">
+        <f t="shared" si="7"/>
+        <v>8.7091968034674228E-2</v>
+      </c>
+      <c r="W29" s="10">
+        <f t="shared" si="7"/>
+        <v>9.3607954545454453E-2</v>
+      </c>
+      <c r="X29" s="10">
+        <f>+X10/T10-1</f>
+        <v>8.2063949499108002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="Q30" s="10">
+        <f t="shared" ref="Q30:W30" si="8">+Q3/M3-1</f>
+        <v>8.7325352521699928E-2</v>
+      </c>
+      <c r="R30" s="10">
+        <f t="shared" si="8"/>
+        <v>5.2566783494831126E-2</v>
+      </c>
+      <c r="S30" s="10">
+        <f t="shared" si="8"/>
+        <v>9.7612553060396845E-2</v>
+      </c>
+      <c r="T30" s="10">
+        <f t="shared" si="8"/>
+        <v>0.10814588967924399</v>
+      </c>
+      <c r="U30" s="10">
+        <f t="shared" si="8"/>
+        <v>0.15054025099933832</v>
+      </c>
+      <c r="V30" s="10">
+        <f t="shared" si="8"/>
+        <v>0.14677456362730767</v>
+      </c>
+      <c r="W30" s="10">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="X30" s="10">
+        <f>+X3/T3-1</f>
+        <v>0.10696397176380601</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="M26" s="3">
-        <f>M9/M6</f>
+      <c r="M31" s="3">
+        <f>M13/M10</f>
         <v>0.54189582659333546</v>
       </c>
-      <c r="N26" s="3">
-        <f>N9/N6</f>
+      <c r="N31" s="3">
+        <f>N13/N10</f>
         <v>0.52269442035270308</v>
       </c>
-      <c r="O26" s="3">
-        <f>O9/O6</f>
+      <c r="O31" s="3">
+        <f>O13/O10</f>
         <v>0.5085608514576585</v>
       </c>
-      <c r="Q26" s="3">
-        <f>Q9/Q6</f>
+      <c r="Q31" s="3">
+        <f>Q13/Q10</f>
         <v>0.50993280747881975</v>
       </c>
-      <c r="R26" s="3">
-        <f>R9/R6</f>
+      <c r="R31" s="3">
+        <f>R13/R10</f>
         <v>0.49722335094135173</v>
       </c>
-      <c r="S26" s="3">
-        <f>S9/S6</f>
+      <c r="S31" s="3">
+        <f>S13/S10</f>
         <v>0.47088068181818182</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>43</v>
       </c>
-      <c r="M27" s="9">
-        <f>M15/M6</f>
+      <c r="M32" s="9">
+        <f>M19/M10</f>
         <v>0.16887738595923649</v>
       </c>
-      <c r="N27" s="9">
-        <f>N15/N6</f>
+      <c r="N32" s="9">
+        <f>N19/N10</f>
         <v>0.15206707140792136</v>
       </c>
-      <c r="O27" s="9">
-        <f>O15/O6</f>
+      <c r="O32" s="9">
+        <f>O19/O10</f>
         <v>0.11522443313280889</v>
       </c>
-      <c r="Q27" s="9">
-        <f>Q15/Q6</f>
+      <c r="Q32" s="9">
+        <f>Q19/Q10</f>
         <v>0.17148699970785861</v>
       </c>
-      <c r="R27" s="9">
-        <f>R15/R6</f>
+      <c r="R32" s="9">
+        <f>R19/R10</f>
         <v>0.1718813490451036</v>
       </c>
-      <c r="S27" s="9">
-        <f>S15/S6</f>
+      <c r="S32" s="9">
+        <f>S19/S10</f>
         <v>0.16519886363636363</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>44</v>
       </c>
-      <c r="M28" s="3">
-        <f>M18/M17</f>
+      <c r="M33" s="3">
+        <f>M22/M21</f>
         <v>6.6895368782161235E-2</v>
       </c>
-      <c r="N28" s="3">
-        <f>N18/N17</f>
+      <c r="N33" s="3">
+        <f>N22/N21</f>
         <v>0</v>
       </c>
-      <c r="O28" s="3">
-        <f>O18/O17</f>
+      <c r="O33" s="3">
+        <f>O22/O21</f>
         <v>0.18045112781954886</v>
       </c>
-      <c r="Q28" s="3">
-        <f>Q18/Q17</f>
+      <c r="Q33" s="3">
+        <f>Q22/Q21</f>
         <v>0.15177478580171358</v>
       </c>
-      <c r="R28" s="3">
-        <f>R18/R17</f>
+      <c r="R33" s="3">
+        <f>R22/R21</f>
         <v>0.16651982378854627</v>
       </c>
-      <c r="S28" s="3">
-        <f>S18/S17</f>
+      <c r="S33" s="3">
+        <f>S22/S21</f>
         <v>0.22536348949919224</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>53</v>
       </c>
-      <c r="R31" s="4">
-        <f>R32-R45</f>
+      <c r="R35" s="4">
+        <f>R36-R49</f>
         <v>5469</v>
       </c>
-      <c r="S31" s="4">
-        <f>S32-S45</f>
+      <c r="S35" s="4">
+        <f>S36-S49</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="X35" s="4">
+        <f>X36-X49</f>
+        <v>8542</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="4">
+      <c r="R36" s="4">
         <f>7776+3092+5018</f>
         <v>15886</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+      <c r="X36" s="4">
+        <f>7701+5915+4653</f>
+        <v>18269</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>46</v>
       </c>
-      <c r="R33" s="4">
+      <c r="R37" s="4">
         <v>963</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+      <c r="X37" s="4">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>47</v>
       </c>
-      <c r="R34" s="4">
+      <c r="R38" s="4">
         <v>7431</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+      <c r="X38" s="4">
+        <f>369+5319</f>
+        <v>5688</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>48</v>
       </c>
-      <c r="R35" s="4">
+      <c r="R39" s="4">
         <v>36357</v>
       </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+      <c r="X39" s="4">
+        <v>38727</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>49</v>
       </c>
-      <c r="R36" s="4">
+      <c r="R40" s="4">
         <v>1898</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+      <c r="X40" s="4">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>50</v>
       </c>
-      <c r="R37" s="4">
+      <c r="R41" s="4">
         <v>1730</v>
       </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+      <c r="X41" s="4">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>51</v>
       </c>
-      <c r="R38" s="4">
+      <c r="R42" s="4">
         <f>11209+788</f>
         <v>11997</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+      <c r="X42" s="4">
+        <f>10816+403</f>
+        <v>11219</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>52</v>
       </c>
-      <c r="R39" s="4">
+      <c r="R43" s="4">
         <v>2455</v>
       </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+      <c r="X43" s="4">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>45</v>
       </c>
-      <c r="R40" s="4">
-        <f>SUM(R32:R39)</f>
+      <c r="R44" s="4">
+        <f>SUM(R36:R43)</f>
         <v>78717</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+      <c r="X44" s="4">
+        <f>SUM(X36:X43)</f>
+        <v>84016</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>54</v>
       </c>
-      <c r="R42" s="4">
+      <c r="R46" s="4">
         <f>126+4055</f>
         <v>4181</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+      <c r="X46" s="4">
+        <f>133+8853</f>
+        <v>8986</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>48</v>
       </c>
-      <c r="R43" s="4">
+      <c r="R47" s="4">
         <v>40107</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+      <c r="X47" s="4">
+        <v>41727</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>41</v>
       </c>
-      <c r="R44" s="4">
+      <c r="R48" s="4">
         <f>813+2925</f>
         <v>3738</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+      <c r="X48" s="4">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="4">
+      <c r="R49" s="4">
         <v>10417</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+      <c r="X49" s="4">
+        <v>9727</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>55</v>
       </c>
-      <c r="R46" s="4">
+      <c r="R50" s="4">
         <v>20274</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="R47" s="4">
-        <f>SUM(R42:R46)</f>
+      <c r="X50" s="4">
+        <v>20622</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="R51" s="4">
+        <f>SUM(R46:R50)</f>
         <v>78717</v>
+      </c>
+      <c r="X51" s="4">
+        <f>SUM(X46:X50)</f>
+        <v>84016</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="W53" s="4">
+        <f>+W23</f>
+        <v>1100</v>
+      </c>
+      <c r="X53" s="4">
+        <f>+X23</f>
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="W54" s="4">
+        <v>888</v>
+      </c>
+      <c r="X54" s="4">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="W55" s="4">
+        <v>321</v>
+      </c>
+      <c r="X55" s="4">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="W56" s="4">
+        <v>265</v>
+      </c>
+      <c r="X56" s="4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="W57" s="4">
+        <v>365</v>
+      </c>
+      <c r="X57" s="4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="W58" s="4">
+        <v>52</v>
+      </c>
+      <c r="X58" s="4">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="W59" s="4">
+        <v>49</v>
+      </c>
+      <c r="X59" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="W60" s="4">
+        <v>-75</v>
+      </c>
+      <c r="X60" s="4">
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="W61" s="4">
+        <v>37</v>
+      </c>
+      <c r="X61" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="W62" s="4">
+        <v>13</v>
+      </c>
+      <c r="X62" s="4">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="W63" s="4">
+        <v>-5345</v>
+      </c>
+      <c r="X63" s="4">
+        <v>-5720</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+      <c r="W64" s="4">
+        <v>5232</v>
+      </c>
+      <c r="X64" s="4">
+        <v>5943</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="W65" s="4">
+        <v>-39</v>
+      </c>
+      <c r="X65" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>54</v>
+      </c>
+      <c r="W66" s="4">
+        <v>-22</v>
+      </c>
+      <c r="X66" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>52</v>
+      </c>
+      <c r="W67" s="4">
+        <v>176</v>
+      </c>
+      <c r="X67" s="4">
+        <v>-687</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="W68" s="4">
+        <f>SUM(W54:W67)</f>
+        <v>1917</v>
+      </c>
+      <c r="X68" s="4">
+        <f>SUM(X54:X67)</f>
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+      <c r="W70" s="4">
+        <v>-154</v>
+      </c>
+      <c r="X70" s="4">
+        <v>-157</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="W71" s="4">
+        <v>-4779</v>
+      </c>
+      <c r="X71" s="4">
+        <v>-5182</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="W72" s="4">
+        <v>4827</v>
+      </c>
+      <c r="X72" s="4">
+        <v>4933</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="W73" s="4">
+        <f>-7081+9242</f>
+        <v>2161</v>
+      </c>
+      <c r="X73" s="4">
+        <f>-8923+4999</f>
+        <v>-3924</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="W74" s="4">
+        <v>-1169</v>
+      </c>
+      <c r="X74" s="4">
+        <v>-198</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="W75" s="4">
+        <v>74</v>
+      </c>
+      <c r="X75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>52</v>
+      </c>
+      <c r="W76" s="4">
+        <v>20</v>
+      </c>
+      <c r="X76" s="4">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="W77" s="4">
+        <f>SUM(W70:W76)</f>
+        <v>980</v>
+      </c>
+      <c r="X77" s="4">
+        <f>SUM(X70:X76)</f>
+        <v>-4647</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X78" s="4"/>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="W79" s="4">
+        <v>0</v>
+      </c>
+      <c r="X79" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="W80" s="4">
+        <v>-1501</v>
+      </c>
+      <c r="X80" s="4">
+        <v>-1501</v>
+      </c>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="W81" s="4">
+        <v>-167</v>
+      </c>
+      <c r="X81" s="4">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+      <c r="W82" s="4">
+        <f>115-359</f>
+        <v>-244</v>
+      </c>
+      <c r="X82" s="4">
+        <f>1299-52</f>
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+      <c r="W83" s="4">
+        <v>-483</v>
+      </c>
+      <c r="X83" s="4">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>76</v>
+      </c>
+      <c r="W84" s="4">
+        <v>33</v>
+      </c>
+      <c r="X84" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>52</v>
+      </c>
+      <c r="W85" s="4">
+        <v>0</v>
+      </c>
+      <c r="X85" s="4">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+      <c r="W86" s="4">
+        <f>SUM(W79:W85)</f>
+        <v>-2362</v>
+      </c>
+      <c r="X86" s="4">
+        <f>SUM(X79:X85)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>84</v>
+      </c>
+      <c r="W87" s="4">
+        <v>-94</v>
+      </c>
+      <c r="X87" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>85</v>
+      </c>
+      <c r="W88" s="4">
+        <f>W87+W86+W77+W68</f>
+        <v>441</v>
+      </c>
+      <c r="X88" s="4">
+        <f>X87+X86+X77+X68</f>
+        <v>-2917</v>
       </c>
     </row>
   </sheetData>

--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69BA967-BD50-431C-9AFB-1E1BFBB65DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1345383E-4DCB-4039-A31F-15B419A4212D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51465" yWindow="1320" windowWidth="25050" windowHeight="18015" xr2:uid="{77457E1E-5BA7-4596-88BB-5A4DC9A1A351}"/>
+    <workbookView xWindow="-27195" yWindow="1725" windowWidth="21570" windowHeight="17925" xr2:uid="{77457E1E-5BA7-4596-88BB-5A4DC9A1A351}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="97">
   <si>
     <t>Price</t>
   </si>
@@ -328,6 +328,24 @@
   </si>
   <si>
     <t>L+SE</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TTM</t>
   </si>
 </sst>
 </file>
@@ -427,16 +445,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>39783</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>10018</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>29910</xdr:rowOff>
+      <xdr:rowOff>12051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>39783</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>5953</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>10018</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -451,8 +469,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14982127" y="29910"/>
-          <a:ext cx="0" cy="14924340"/>
+          <a:off x="16166799" y="12051"/>
+          <a:ext cx="0" cy="15567277"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -791,9 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E478C1F2-1B95-4A2D-94EF-7F01AC3D39CD}">
   <dimension ref="L2:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -802,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>71.81</v>
+        <v>79.12</v>
       </c>
     </row>
     <row r="3" spans="12:14" x14ac:dyDescent="0.2">
@@ -810,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="4">
-        <v>1047</v>
+        <v>1014</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>58</v>
@@ -822,7 +838,7 @@
       </c>
       <c r="M4" s="4">
         <f>M2*M3</f>
-        <v>75185.070000000007</v>
+        <v>80227.680000000008</v>
       </c>
     </row>
     <row r="5" spans="12:14" x14ac:dyDescent="0.2">
@@ -830,10 +846,10 @@
         <v>3</v>
       </c>
       <c r="M5" s="4">
-        <v>18269</v>
+        <v>15406</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="12:14" x14ac:dyDescent="0.2">
@@ -841,10 +857,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="4">
-        <v>9727</v>
+        <v>9879</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="12:14" x14ac:dyDescent="0.2">
@@ -853,7 +869,7 @@
       </c>
       <c r="M7" s="4">
         <f>M4-M5+M6</f>
-        <v>66643.070000000007</v>
+        <v>74700.680000000008</v>
       </c>
     </row>
   </sheetData>
@@ -863,13 +879,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A4DD04-3742-4652-B3CF-AD5D3283DE29}">
-  <dimension ref="A1:BA88"/>
+  <dimension ref="A1:BE91"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X21" sqref="X21"/>
+      <selection pane="bottomRight" activeCell="Z91" sqref="Z91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -879,12 +895,12 @@
     <col min="3" max="14" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -957,99 +973,111 @@
       <c r="Z2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AE2">
+      <c r="AA2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI2">
         <v>2020</v>
       </c>
-      <c r="AF2">
-        <f>+AE2+1</f>
+      <c r="AJ2">
+        <f>+AI2+1</f>
         <v>2021</v>
       </c>
-      <c r="AG2">
-        <f t="shared" ref="AG2:BA2" si="0">+AF2+1</f>
+      <c r="AK2">
+        <f t="shared" ref="AK2:BE2" si="0">+AJ2+1</f>
         <v>2022</v>
       </c>
-      <c r="AH2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AI2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AJ2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AK2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AL2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AM2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AN2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AO2">
+      <c r="AS2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AP2">
+      <c r="AT2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AQ2">
+      <c r="AU2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AR2">
+      <c r="AV2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AS2">
+      <c r="AW2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AT2">
+      <c r="AX2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="AU2">
+      <c r="AY2">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="AV2">
+      <c r="AZ2">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="AW2">
+      <c r="BA2">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="AX2">
+      <c r="BB2">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="AY2">
+      <c r="BC2">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-      <c r="AZ2">
+      <c r="BD2">
         <f t="shared" si="0"/>
         <v>2041</v>
       </c>
-      <c r="BA2">
+      <c r="BE2">
         <f t="shared" si="0"/>
         <v>2042</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>56</v>
       </c>
@@ -1093,11 +1121,20 @@
       <c r="V3" s="11">
         <v>409832</v>
       </c>
+      <c r="W3" s="4">
+        <v>403860</v>
+      </c>
       <c r="X3" s="4">
         <v>416814</v>
       </c>
-    </row>
-    <row r="4" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y3" s="4">
+        <v>422641</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>437836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -1119,7 +1156,7 @@
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
     </row>
-    <row r="5" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>89</v>
       </c>
@@ -1155,8 +1192,14 @@
       <c r="X5" s="4">
         <v>429</v>
       </c>
-    </row>
-    <row r="6" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y5" s="4">
+        <v>432</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>86</v>
       </c>
@@ -1192,8 +1235,14 @@
       <c r="X6" s="4">
         <v>6580</v>
       </c>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="Y6" s="4">
+        <v>6631</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>6619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1203,7 +1252,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>87</v>
       </c>
@@ -1239,8 +1288,14 @@
       <c r="X8" s="4">
         <v>7153</v>
       </c>
-    </row>
-    <row r="9" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y8" s="4">
+        <v>7067</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>7588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>88</v>
       </c>
@@ -1276,8 +1331,14 @@
       <c r="X9" s="11">
         <v>732</v>
       </c>
-    </row>
-    <row r="10" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y9" s="4">
+        <v>780</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
@@ -1329,8 +1390,32 @@
         <f>+X8+X9</f>
         <v>7885</v>
       </c>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="Y10" s="8">
+        <f>+Y8+Y9</f>
+        <v>7847</v>
+      </c>
+      <c r="Z10" s="8">
+        <f>+Z8+Z9</f>
+        <v>8366</v>
+      </c>
+      <c r="AA10" s="8">
+        <f>+AA8+AA9</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="8">
+        <f>+AB8+AB9</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="8">
+        <f>+AC8+AC9</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="8">
+        <f>+AD8+AD9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -1355,16 +1440,26 @@
       <c r="T11" s="4">
         <v>3541</v>
       </c>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
+      <c r="U11" s="4">
+        <v>3603</v>
+      </c>
+      <c r="V11" s="4">
+        <v>3958</v>
+      </c>
       <c r="W11" s="4">
         <v>3917</v>
       </c>
       <c r="X11" s="4">
         <v>3942</v>
       </c>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="Y11" s="4">
+        <v>3841</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>31</v>
       </c>
@@ -1389,16 +1484,26 @@
       <c r="T12" s="4">
         <v>398</v>
       </c>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
+      <c r="U12" s="4">
+        <v>446</v>
+      </c>
+      <c r="V12" s="4">
+        <v>396</v>
+      </c>
       <c r="W12" s="4">
         <v>321</v>
       </c>
       <c r="X12" s="4">
         <v>335</v>
       </c>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="Y12" s="4">
+        <v>352</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -1432,11 +1537,11 @@
       </c>
       <c r="U13" s="4">
         <f t="shared" si="1"/>
-        <v>7418</v>
+        <v>3369</v>
       </c>
       <c r="V13" s="4">
         <f t="shared" si="1"/>
-        <v>8026</v>
+        <v>3672</v>
       </c>
       <c r="W13" s="4">
         <f t="shared" si="1"/>
@@ -1446,8 +1551,16 @@
         <f>+X10-X11-X12</f>
         <v>3608</v>
       </c>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="Y13" s="4">
+        <f>+Y10-Y11-Y12</f>
+        <v>3654</v>
+      </c>
+      <c r="Z13" s="4">
+        <f>+Z10-Z11-Z12</f>
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -1472,16 +1585,26 @@
       <c r="T14" s="4">
         <v>492</v>
       </c>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+      <c r="U14" s="4">
+        <v>474</v>
+      </c>
+      <c r="V14" s="4">
+        <v>465</v>
+      </c>
       <c r="W14" s="4">
         <v>454</v>
       </c>
       <c r="X14" s="4">
         <v>436</v>
       </c>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="Y14" s="4">
+        <v>427</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -1506,16 +1629,26 @@
       <c r="T15" s="4">
         <v>465</v>
       </c>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
+      <c r="U15" s="4">
+        <v>442</v>
+      </c>
+      <c r="V15" s="4">
+        <v>466</v>
+      </c>
       <c r="W15" s="4">
         <v>421</v>
       </c>
       <c r="X15" s="4">
         <v>446</v>
       </c>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="Y15" s="4">
+        <v>508</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>36</v>
       </c>
@@ -1540,16 +1673,26 @@
       <c r="T16" s="4">
         <v>743</v>
       </c>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
+      <c r="U16" s="4">
+        <v>739</v>
+      </c>
+      <c r="V16" s="4">
+        <v>770</v>
+      </c>
       <c r="W16" s="4">
         <v>742</v>
       </c>
       <c r="X16" s="4">
         <v>718</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="4">
+        <v>746</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>37</v>
       </c>
@@ -1574,16 +1717,26 @@
       <c r="T17" s="4">
         <v>491</v>
       </c>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
+      <c r="U17" s="4">
+        <v>507</v>
+      </c>
+      <c r="V17" s="4">
+        <v>554</v>
+      </c>
       <c r="W17" s="4">
         <v>464</v>
       </c>
       <c r="X17" s="4">
         <v>570</v>
       </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="4">
+        <v>519</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -1612,16 +1765,16 @@
         <v>2152</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" ref="T18:X18" si="2">SUM(T14:T17)</f>
+        <f t="shared" ref="T18:Y18" si="2">SUM(T14:T17)</f>
         <v>2191</v>
       </c>
       <c r="U18" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2162</v>
       </c>
       <c r="V18" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2255</v>
       </c>
       <c r="W18" s="4">
         <f t="shared" si="2"/>
@@ -1631,8 +1784,16 @@
         <f t="shared" si="2"/>
         <v>2170</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="4">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="Z18" s="4">
+        <f t="shared" ref="Z18" si="3">SUM(Z14:Z17)</f>
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>33</v>
       </c>
@@ -1661,27 +1822,35 @@
         <v>1163</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" ref="T19:X19" si="3">T13-T18</f>
+        <f t="shared" ref="T19:Y19" si="4">T13-T18</f>
         <v>1157</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" si="3"/>
-        <v>7418</v>
+        <f t="shared" si="4"/>
+        <v>1207</v>
       </c>
       <c r="V19" s="4">
-        <f t="shared" si="3"/>
-        <v>8026</v>
+        <f t="shared" si="4"/>
+        <v>1417</v>
       </c>
       <c r="W19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1380</v>
       </c>
       <c r="X19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1438</v>
       </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="4">
+        <f t="shared" si="4"/>
+        <v>1454</v>
+      </c>
+      <c r="Z19" s="4">
+        <f t="shared" ref="Z19" si="5">Z13-Z18</f>
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -1706,16 +1875,26 @@
       <c r="T20" s="4">
         <v>170</v>
       </c>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
+      <c r="U20" s="4">
+        <v>73</v>
+      </c>
+      <c r="V20" s="4">
+        <v>65</v>
+      </c>
       <c r="W20" s="4">
         <v>41</v>
       </c>
       <c r="X20" s="4">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="4">
+        <v>-80</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>42</v>
       </c>
@@ -1744,27 +1923,35 @@
         <v>1238</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" ref="T21:W21" si="4">+T19+T20</f>
+        <f t="shared" ref="T21:W21" si="6">+T19+T20</f>
         <v>1327</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="4"/>
-        <v>7418</v>
+        <f t="shared" si="6"/>
+        <v>1280</v>
       </c>
       <c r="V21" s="4">
-        <f t="shared" si="4"/>
-        <v>8026</v>
+        <f t="shared" si="6"/>
+        <v>1482</v>
       </c>
       <c r="W21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1421</v>
       </c>
       <c r="X21" s="4">
         <f>+X19+X20</f>
         <v>1512</v>
       </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="4">
+        <f>+Y19+Y20</f>
+        <v>1374</v>
+      </c>
+      <c r="Z21" s="4">
+        <f>+Z19+Z20</f>
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>41</v>
       </c>
@@ -1789,16 +1976,26 @@
       <c r="T22" s="4">
         <v>274</v>
       </c>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
+      <c r="U22" s="4">
+        <v>221</v>
+      </c>
+      <c r="V22" s="4">
+        <v>391</v>
+      </c>
       <c r="W22" s="4">
         <v>321</v>
       </c>
       <c r="X22" s="4">
         <v>271</v>
       </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="4">
+        <v>301</v>
+      </c>
+      <c r="Z22">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>40</v>
       </c>
@@ -1827,27 +2024,35 @@
         <v>959</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" ref="T23:W23" si="5">+T21-T22</f>
+        <f t="shared" ref="T23:W23" si="7">+T21-T22</f>
         <v>1053</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="5"/>
-        <v>7418</v>
+        <f t="shared" si="7"/>
+        <v>1059</v>
       </c>
       <c r="V23" s="4">
-        <f t="shared" si="5"/>
-        <v>8026</v>
+        <f t="shared" si="7"/>
+        <v>1091</v>
       </c>
       <c r="W23" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1100</v>
       </c>
       <c r="X23" s="4">
         <f>+X21-X22</f>
         <v>1241</v>
       </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="4">
+        <f>+Y21-Y22</f>
+        <v>1073</v>
+      </c>
+      <c r="Z23" s="4">
+        <f>+Z21-Z22</f>
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -1876,27 +2081,35 @@
         <v>0.84567901234567899</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" ref="T24:W24" si="6">T23/T25</f>
+        <f t="shared" ref="T24:W24" si="8">T23/T25</f>
         <v>0.94524236983842014</v>
       </c>
-      <c r="U24" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V24" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="U24" s="5">
+        <f t="shared" si="8"/>
+        <v>0.96448087431693985</v>
+      </c>
+      <c r="V24" s="5">
+        <f t="shared" si="8"/>
+        <v>1.0064575645756457</v>
       </c>
       <c r="W24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0261194029850746</v>
       </c>
       <c r="X24" s="5">
         <f>X23/X25</f>
         <v>1.1852913085004775</v>
       </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="5">
+        <f>Y23/Y25</f>
+        <v>1.0478515625</v>
+      </c>
+      <c r="Z24" s="5">
+        <f>Z23/Z25</f>
+        <v>1.1548323471400395</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>1</v>
       </c>
@@ -1921,14 +2134,26 @@
       <c r="T25" s="4">
         <v>1114</v>
       </c>
+      <c r="U25" s="4">
+        <v>1098</v>
+      </c>
+      <c r="V25" s="4">
+        <v>1084</v>
+      </c>
       <c r="W25" s="4">
         <v>1072</v>
       </c>
       <c r="X25" s="4">
         <v>1047</v>
       </c>
-    </row>
-    <row r="29" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y25" s="4">
+        <v>1024</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
         <v>28</v>
       </c>
@@ -1961,23 +2186,31 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U29" s="10">
-        <f t="shared" ref="U29:W29" si="7">+U10/Q10-1</f>
+        <f t="shared" ref="U29:W29" si="9">+U10/Q10-1</f>
         <v>8.3552439380660148E-2</v>
       </c>
       <c r="V29" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.7091968034674228E-2</v>
       </c>
       <c r="W29" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.3607954545454453E-2</v>
       </c>
       <c r="X29" s="10">
         <f>+X10/T10-1</f>
         <v>8.2063949499108002E-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y29" s="10">
+        <f>+Y10/U10-1</f>
+        <v>5.7832299811269916E-2</v>
+      </c>
+      <c r="Z29" s="10">
+        <f>+Z10/V10-1</f>
+        <v>4.2362322452030865E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>61</v>
       </c>
@@ -1994,39 +2227,47 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="Q30" s="10">
-        <f t="shared" ref="Q30:W30" si="8">+Q3/M3-1</f>
+        <f t="shared" ref="Q30:W30" si="10">+Q3/M3-1</f>
         <v>8.7325352521699928E-2</v>
       </c>
       <c r="R30" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.2566783494831126E-2</v>
       </c>
       <c r="S30" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.7612553060396845E-2</v>
       </c>
       <c r="T30" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.10814588967924399</v>
       </c>
       <c r="U30" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.15054025099933832</v>
       </c>
       <c r="V30" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14677456362730767</v>
       </c>
       <c r="W30" s="10">
-        <f t="shared" si="8"/>
-        <v>-1</v>
+        <f t="shared" si="10"/>
+        <v>0.1392126552856352</v>
       </c>
       <c r="X30" s="10">
         <f>+X3/T3-1</f>
         <v>0.10696397176380601</v>
       </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="10">
+        <f>+Y3/U3-1</f>
+        <v>9.0120995303081486E-2</v>
+      </c>
+      <c r="Z30" s="10">
+        <f>+Z3/V3-1</f>
+        <v>6.8330437837943458E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -2047,15 +2288,43 @@
         <v>0.50993280747881975</v>
       </c>
       <c r="R31" s="3">
-        <f>R13/R10</f>
+        <f t="shared" ref="R31:Z31" si="11">+R13/R10</f>
         <v>0.49722335094135173</v>
       </c>
       <c r="S31" s="3">
-        <f>S13/S10</f>
+        <f t="shared" si="11"/>
         <v>0.47088068181818182</v>
       </c>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <f t="shared" si="11"/>
+        <v>0.45944833264717994</v>
+      </c>
+      <c r="U31" s="3">
+        <f t="shared" si="11"/>
+        <v>0.45416554327311942</v>
+      </c>
+      <c r="V31" s="3">
+        <f t="shared" si="11"/>
+        <v>0.45751308248193373</v>
+      </c>
+      <c r="W31" s="3">
+        <f t="shared" si="11"/>
+        <v>0.44953890115599426</v>
+      </c>
+      <c r="X31" s="3">
+        <f t="shared" si="11"/>
+        <v>0.45757767913760306</v>
+      </c>
+      <c r="Y31" s="3">
+        <f t="shared" si="11"/>
+        <v>0.46565566458519181</v>
+      </c>
+      <c r="Z31" s="3">
+        <f>+Z13/Z10</f>
+        <v>0.47035620368156827</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>43</v>
       </c>
@@ -2083,8 +2352,36 @@
         <f>S19/S10</f>
         <v>0.16519886363636363</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="T32" s="9">
+        <f t="shared" ref="T32:Z32" si="12">T19/T10</f>
+        <v>0.15877590229175242</v>
+      </c>
+      <c r="U32" s="9">
+        <f t="shared" si="12"/>
+        <v>0.16271232138042599</v>
+      </c>
+      <c r="V32" s="9">
+        <f t="shared" si="12"/>
+        <v>0.17655120857214054</v>
+      </c>
+      <c r="W32" s="9">
+        <f t="shared" si="12"/>
+        <v>0.17924405766982726</v>
+      </c>
+      <c r="X32" s="9">
+        <f t="shared" si="12"/>
+        <v>0.18237159162967659</v>
+      </c>
+      <c r="Y32" s="9">
+        <f t="shared" si="12"/>
+        <v>0.18529374283165542</v>
+      </c>
+      <c r="Z32" s="9">
+        <f t="shared" si="12"/>
+        <v>0.1782213722208941</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>44</v>
       </c>
@@ -2112,8 +2409,36 @@
         <f>S22/S21</f>
         <v>0.22536348949919224</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <f t="shared" ref="T33:Z33" si="13">T22/T21</f>
+        <v>0.20648078372268275</v>
+      </c>
+      <c r="U33" s="3">
+        <f t="shared" si="13"/>
+        <v>0.17265625000000001</v>
+      </c>
+      <c r="V33" s="3">
+        <f t="shared" si="13"/>
+        <v>0.26383265856950067</v>
+      </c>
+      <c r="W33" s="3">
+        <f t="shared" si="13"/>
+        <v>0.22589725545390571</v>
+      </c>
+      <c r="X33" s="3">
+        <f t="shared" si="13"/>
+        <v>0.17923280423280424</v>
+      </c>
+      <c r="Y33" s="3">
+        <f t="shared" si="13"/>
+        <v>0.2190684133915575</v>
+      </c>
+      <c r="Z33" s="3">
+        <f t="shared" si="13"/>
+        <v>0.19794520547945205</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>53</v>
       </c>
@@ -2129,8 +2454,16 @@
         <f>X36-X49</f>
         <v>8542</v>
       </c>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="4">
+        <f>Y36-Y49</f>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="4">
+        <f>Z36-Z49</f>
+        <v>5527</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>3</v>
       </c>
@@ -2142,8 +2475,12 @@
         <f>7701+5915+4653</f>
         <v>18269</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z36" s="4">
+        <f>6561+4262+4583</f>
+        <v>15406</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>46</v>
       </c>
@@ -2153,8 +2490,11 @@
       <c r="X37" s="4">
         <v>987</v>
       </c>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z37" s="4">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>47</v>
       </c>
@@ -2165,8 +2505,12 @@
         <f>369+5319</f>
         <v>5688</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z38" s="4">
+        <f>541+6422</f>
+        <v>6963</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>48</v>
       </c>
@@ -2176,8 +2520,11 @@
       <c r="X39" s="4">
         <v>38727</v>
       </c>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z39" s="4">
+        <v>37671</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>49</v>
       </c>
@@ -2187,8 +2534,11 @@
       <c r="X40" s="4">
         <v>3954</v>
       </c>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z40" s="4">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>50</v>
       </c>
@@ -2198,8 +2548,11 @@
       <c r="X41" s="4">
         <v>1459</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z41" s="4">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>51</v>
       </c>
@@ -2211,8 +2564,12 @@
         <f>10816+403</f>
         <v>11219</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z42" s="4">
+        <f>10837+326</f>
+        <v>11163</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>52</v>
       </c>
@@ -2222,8 +2579,11 @@
       <c r="X43" s="4">
         <v>3713</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z43" s="4">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>45</v>
       </c>
@@ -2235,8 +2595,16 @@
         <f>SUM(X36:X43)</f>
         <v>84016</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="4">
+        <f>SUM(Y36:Y43)</f>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="4">
+        <f>SUM(Z36:Z43)</f>
+        <v>81611</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>54</v>
       </c>
@@ -2248,8 +2616,12 @@
         <f>133+8853</f>
         <v>8986</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z46" s="4">
+        <f>227+8478</f>
+        <v>8705</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>48</v>
       </c>
@@ -2259,8 +2631,11 @@
       <c r="X47" s="4">
         <v>41727</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z47" s="4">
+        <v>39671</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>41</v>
       </c>
@@ -2271,8 +2646,11 @@
       <c r="X48" s="4">
         <v>2954</v>
       </c>
-    </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z48" s="4">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -2282,8 +2660,11 @@
       <c r="X49" s="4">
         <v>9727</v>
       </c>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z49" s="4">
+        <v>9879</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>55</v>
       </c>
@@ -2293,8 +2674,11 @@
       <c r="X50" s="4">
         <v>20622</v>
       </c>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z50" s="4">
+        <v>20417</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>90</v>
       </c>
@@ -2306,8 +2690,16 @@
         <f>SUM(X46:X50)</f>
         <v>84016</v>
       </c>
-    </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="4">
+        <f>SUM(Y46:Y50)</f>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="4">
+        <f>SUM(Z46:Z50)</f>
+        <v>81611</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>62</v>
       </c>
@@ -2319,8 +2711,16 @@
         <f>+X23</f>
         <v>1241</v>
       </c>
-    </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="4">
+        <f>+Y23</f>
+        <v>1073</v>
+      </c>
+      <c r="Z53" s="4">
+        <f>+Z23</f>
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>63</v>
       </c>
@@ -2330,8 +2730,14 @@
       <c r="X54" s="4">
         <v>1128</v>
       </c>
-    </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="4">
+        <v>1010</v>
+      </c>
+      <c r="Z54" s="4">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>64</v>
       </c>
@@ -2341,8 +2747,14 @@
       <c r="X55" s="4">
         <v>335</v>
       </c>
-    </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="4">
+        <v>352</v>
+      </c>
+      <c r="Z55" s="4">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>65</v>
       </c>
@@ -2352,8 +2764,14 @@
       <c r="X56" s="4">
         <v>263</v>
       </c>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="4">
+        <v>255</v>
+      </c>
+      <c r="Z56" s="4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>66</v>
       </c>
@@ -2363,8 +2781,14 @@
       <c r="X57" s="4">
         <v>298</v>
       </c>
-    </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="4">
+        <v>284</v>
+      </c>
+      <c r="Z57" s="4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>67</v>
       </c>
@@ -2374,8 +2798,14 @@
       <c r="X58" s="4">
         <v>-23</v>
       </c>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="4">
+        <v>-21</v>
+      </c>
+      <c r="Z58" s="4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>68</v>
       </c>
@@ -2385,8 +2815,14 @@
       <c r="X59" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="4">
+        <v>171</v>
+      </c>
+      <c r="Z59" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>69</v>
       </c>
@@ -2396,8 +2832,14 @@
       <c r="X60" s="4">
         <v>-122</v>
       </c>
-    </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="4">
+        <v>-93</v>
+      </c>
+      <c r="Z60" s="4">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>70</v>
       </c>
@@ -2407,8 +2849,14 @@
       <c r="X61" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="4">
+        <v>28</v>
+      </c>
+      <c r="Z61" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>52</v>
       </c>
@@ -2418,8 +2866,14 @@
       <c r="X62" s="4">
         <v>-55</v>
       </c>
-    </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="4">
+        <v>-96</v>
+      </c>
+      <c r="Z62" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>71</v>
       </c>
@@ -2429,8 +2883,14 @@
       <c r="X63" s="4">
         <v>-5720</v>
       </c>
-    </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="4">
+        <v>-6108</v>
+      </c>
+      <c r="Z63" s="4">
+        <v>-7325</v>
+      </c>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>72</v>
       </c>
@@ -2440,8 +2900,14 @@
       <c r="X64" s="4">
         <v>5943</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="4">
+        <v>5984</v>
+      </c>
+      <c r="Z64" s="4">
+        <v>7193</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>46</v>
       </c>
@@ -2451,8 +2917,14 @@
       <c r="X65" s="4">
         <v>121</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="4">
+        <v>-51</v>
+      </c>
+      <c r="Z65" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>54</v>
       </c>
@@ -2462,8 +2934,14 @@
       <c r="X66" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="4">
+        <v>35</v>
+      </c>
+      <c r="Z66" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>52</v>
       </c>
@@ -2473,8 +2951,14 @@
       <c r="X67" s="4">
         <v>-687</v>
       </c>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="4">
+        <v>-136</v>
+      </c>
+      <c r="Z67" s="4">
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>73</v>
       </c>
@@ -2486,12 +2970,20 @@
         <f>SUM(X54:X67)</f>
         <v>1525</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="4">
+        <f>SUM(Y54:Y67)</f>
+        <v>1614</v>
+      </c>
+      <c r="Z68" s="4">
+        <f>SUM(Z54:Z67)</f>
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>50</v>
       </c>
@@ -2501,8 +2993,15 @@
       <c r="X70" s="4">
         <v>-157</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="4">
+        <v>-169</v>
+      </c>
+      <c r="Z70" s="4">
+        <f>-203+1</f>
+        <v>-202</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>71</v>
       </c>
@@ -2512,8 +3011,14 @@
       <c r="X71" s="4">
         <v>-5182</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="4">
+        <v>-5413</v>
+      </c>
+      <c r="Z71" s="4">
+        <v>-6433</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>72</v>
       </c>
@@ -2523,8 +3028,14 @@
       <c r="X72" s="4">
         <v>4933</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="4">
+        <v>4945</v>
+      </c>
+      <c r="Z72" s="4">
+        <v>5567</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>74</v>
       </c>
@@ -2536,8 +3047,16 @@
         <f>-8923+4999</f>
         <v>-3924</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="4">
+        <f t="shared" ref="Y73:Z73" si="14">-4815+6938</f>
+        <v>2123</v>
+      </c>
+      <c r="Z73" s="4">
+        <f>-5390+5783</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>75</v>
       </c>
@@ -2547,8 +3066,14 @@
       <c r="X74" s="4">
         <v>-198</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="4">
+        <v>1519</v>
+      </c>
+      <c r="Z74" s="4">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>76</v>
       </c>
@@ -2558,8 +3083,14 @@
       <c r="X75" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="4">
+        <v>-133</v>
+      </c>
+      <c r="Z75" s="4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>52</v>
       </c>
@@ -2569,8 +3100,16 @@
       <c r="X76" s="4">
         <v>-120</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="4">
+        <f t="shared" ref="Y76:Z76" si="15">-148+75</f>
+        <v>-73</v>
+      </c>
+      <c r="Z76" s="4">
+        <f>259-125+111</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>77</v>
       </c>
@@ -2582,11 +3121,19 @@
         <f>SUM(X70:X76)</f>
         <v>-4647</v>
       </c>
-    </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="4">
+        <f t="shared" ref="Y77" si="16">SUM(Y70:Y76)</f>
+        <v>2799</v>
+      </c>
+      <c r="Z77" s="4">
+        <f>SUM(Z70:Z76)</f>
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="78" spans="2:26" x14ac:dyDescent="0.2">
       <c r="X78" s="4"/>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>78</v>
       </c>
@@ -2596,8 +3143,14 @@
       <c r="X79" s="4">
         <v>55</v>
       </c>
-    </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y79" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>79</v>
       </c>
@@ -2607,8 +3160,14 @@
       <c r="X80" s="4">
         <v>-1501</v>
       </c>
-    </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="4">
+        <v>-1776</v>
+      </c>
+      <c r="Z80" s="4">
+        <v>-1269</v>
+      </c>
+    </row>
+    <row r="81" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>80</v>
       </c>
@@ -2618,8 +3177,14 @@
       <c r="X81" s="4">
         <v>-63</v>
       </c>
-    </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="4">
+        <v>-41</v>
+      </c>
+      <c r="Z81" s="4">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="82" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>81</v>
       </c>
@@ -2631,8 +3196,14 @@
         <f>1299-52</f>
         <v>1247</v>
       </c>
-    </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="4">
+        <v>132</v>
+      </c>
+      <c r="Z82" s="4">
+        <v>-1250</v>
+      </c>
+    </row>
+    <row r="83" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>82</v>
       </c>
@@ -2642,8 +3213,14 @@
       <c r="X83" s="4">
         <v>445</v>
       </c>
-    </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="4">
+        <v>-733</v>
+      </c>
+      <c r="Z83" s="4">
+        <v>-1183</v>
+      </c>
+    </row>
+    <row r="84" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>76</v>
       </c>
@@ -2653,8 +3230,14 @@
       <c r="X84" s="4">
         <v>37</v>
       </c>
-    </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="4">
+        <v>-71</v>
+      </c>
+      <c r="Z84" s="4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>52</v>
       </c>
@@ -2664,8 +3247,14 @@
       <c r="X85" s="4">
         <v>-20</v>
       </c>
-    </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="4">
+        <v>-40</v>
+      </c>
+      <c r="Z85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>83</v>
       </c>
@@ -2677,8 +3266,16 @@
         <f>SUM(X79:X85)</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="4">
+        <f t="shared" ref="Y86" si="17">SUM(Y79:Y85)</f>
+        <v>-2529</v>
+      </c>
+      <c r="Z86" s="4">
+        <f>SUM(Z79:Z85)</f>
+        <v>-3585</v>
+      </c>
+    </row>
+    <row r="87" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>84</v>
       </c>
@@ -2688,8 +3285,14 @@
       <c r="X87" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="4">
+        <v>192</v>
+      </c>
+      <c r="Z87" s="4">
+        <v>-310</v>
+      </c>
+    </row>
+    <row r="88" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>85</v>
       </c>
@@ -2700,6 +3303,44 @@
       <c r="X88" s="4">
         <f>X87+X86+X77+X68</f>
         <v>-2917</v>
+      </c>
+      <c r="Y88" s="4">
+        <f t="shared" ref="Y88" si="18">Y87+Y86+Y77+Y68</f>
+        <v>2076</v>
+      </c>
+      <c r="Z88" s="4">
+        <f>Z87+Z86+Z77+Z68</f>
+        <v>956</v>
+      </c>
+    </row>
+    <row r="90" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>95</v>
+      </c>
+      <c r="W90" s="4">
+        <f>+W70+W68</f>
+        <v>1763</v>
+      </c>
+      <c r="X90" s="4">
+        <f>+X70+X68</f>
+        <v>1368</v>
+      </c>
+      <c r="Y90" s="4">
+        <f>+Y70+Y68</f>
+        <v>1445</v>
+      </c>
+      <c r="Z90" s="4">
+        <f>+Z70+Z68</f>
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="91" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z91" s="4">
+        <f>SUM(W90:Z90)</f>
+        <v>6768</v>
       </c>
     </row>
   </sheetData>

--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1345383E-4DCB-4039-A31F-15B419A4212D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E14A13-1425-41B8-A6A7-F914C7AB05B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27195" yWindow="1725" windowWidth="21570" windowHeight="17925" xr2:uid="{77457E1E-5BA7-4596-88BB-5A4DC9A1A351}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15370" xr2:uid="{77457E1E-5BA7-4596-88BB-5A4DC9A1A351}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -809,11 +809,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E478C1F2-1B95-4A2D-94EF-7F01AC3D39CD}">
   <dimension ref="L2:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>0</v>
       </c>
@@ -821,7 +823,7 @@
         <v>79.12</v>
       </c>
     </row>
-    <row r="3" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>1</v>
       </c>
@@ -829,10 +831,10 @@
         <v>1014</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="12:14" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>2</v>
       </c>
@@ -841,7 +843,7 @@
         <v>80227.680000000008</v>
       </c>
     </row>
-    <row r="5" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>3</v>
       </c>
@@ -852,7 +854,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
         <v>4</v>
       </c>
@@ -863,7 +865,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>5</v>
       </c>
@@ -882,25 +884,25 @@
   <dimension ref="A1:BE91"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z91" sqref="Z91"/>
+      <selection pane="bottomRight" activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+    <col min="3" max="14" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1079,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="3" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>56</v>
       </c>
@@ -1134,7 +1136,7 @@
         <v>437836</v>
       </c>
     </row>
-    <row r="4" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -1156,7 +1158,7 @@
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
     </row>
-    <row r="5" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>89</v>
       </c>
@@ -1199,7 +1201,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>86</v>
       </c>
@@ -1242,7 +1244,7 @@
         <v>6619</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1252,7 +1254,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>87</v>
       </c>
@@ -1295,7 +1297,7 @@
         <v>7588</v>
       </c>
     </row>
-    <row r="9" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>88</v>
       </c>
@@ -1338,7 +1340,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="10" spans="1:57" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
@@ -1371,51 +1373,51 @@
         <v>7040</v>
       </c>
       <c r="T10" s="8">
-        <f>+T8+T9</f>
+        <f t="shared" ref="T10:AD10" si="1">+T8+T9</f>
         <v>7287</v>
       </c>
       <c r="U10" s="8">
-        <f>+U8+U9</f>
+        <f t="shared" si="1"/>
         <v>7418</v>
       </c>
       <c r="V10" s="8">
-        <f>+V8+V9</f>
+        <f t="shared" si="1"/>
         <v>8026</v>
       </c>
       <c r="W10" s="8">
-        <f>+W8+W9</f>
+        <f t="shared" si="1"/>
         <v>7699</v>
       </c>
       <c r="X10" s="8">
-        <f>+X8+X9</f>
+        <f t="shared" si="1"/>
         <v>7885</v>
       </c>
       <c r="Y10" s="8">
-        <f>+Y8+Y9</f>
+        <f t="shared" si="1"/>
         <v>7847</v>
       </c>
       <c r="Z10" s="8">
-        <f>+Z8+Z9</f>
+        <f t="shared" si="1"/>
         <v>8366</v>
       </c>
       <c r="AA10" s="8">
-        <f>+AA8+AA9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB10" s="8">
-        <f>+AB8+AB9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC10" s="8">
-        <f>+AC8+AC9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD10" s="8">
-        <f>+AD8+AD9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -1459,7 +1461,7 @@
         <v>3997</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>31</v>
       </c>
@@ -1503,7 +1505,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -1532,19 +1534,19 @@
         <v>3315</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" ref="T13:W13" si="1">+T10-T11-T12</f>
+        <f t="shared" ref="T13:W13" si="2">+T10-T11-T12</f>
         <v>3348</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3369</v>
       </c>
       <c r="V13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3672</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3461</v>
       </c>
       <c r="X13" s="4">
@@ -1560,7 +1562,7 @@
         <v>3935</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -1604,7 +1606,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -1648,7 +1650,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>36</v>
       </c>
@@ -1692,7 +1694,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>37</v>
       </c>
@@ -1736,7 +1738,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -1765,35 +1767,35 @@
         <v>2152</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" ref="T18:Y18" si="2">SUM(T14:T17)</f>
+        <f t="shared" ref="T18:Y18" si="3">SUM(T14:T17)</f>
         <v>2191</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2162</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2255</v>
       </c>
       <c r="W18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2081</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2170</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2200</v>
       </c>
       <c r="Z18" s="4">
-        <f t="shared" ref="Z18" si="3">SUM(Z14:Z17)</f>
+        <f t="shared" ref="Z18" si="4">SUM(Z14:Z17)</f>
         <v>2444</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>33</v>
       </c>
@@ -1822,35 +1824,35 @@
         <v>1163</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" ref="T19:Y19" si="4">T13-T18</f>
+        <f t="shared" ref="T19:Y19" si="5">T13-T18</f>
         <v>1157</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1207</v>
       </c>
       <c r="V19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1417</v>
       </c>
       <c r="W19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1380</v>
       </c>
       <c r="X19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1438</v>
       </c>
       <c r="Y19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1454</v>
       </c>
       <c r="Z19" s="4">
-        <f t="shared" ref="Z19" si="5">Z13-Z18</f>
+        <f t="shared" ref="Z19" si="6">Z13-Z18</f>
         <v>1491</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -1894,7 +1896,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>42</v>
       </c>
@@ -1923,19 +1925,19 @@
         <v>1238</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" ref="T21:W21" si="6">+T19+T20</f>
+        <f t="shared" ref="T21:W21" si="7">+T19+T20</f>
         <v>1327</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1280</v>
       </c>
       <c r="V21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1482</v>
       </c>
       <c r="W21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1421</v>
       </c>
       <c r="X21" s="4">
@@ -1951,7 +1953,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>41</v>
       </c>
@@ -1995,7 +1997,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>40</v>
       </c>
@@ -2024,19 +2026,19 @@
         <v>959</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" ref="T23:W23" si="7">+T21-T22</f>
+        <f t="shared" ref="T23:W23" si="8">+T21-T22</f>
         <v>1053</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1059</v>
       </c>
       <c r="V23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1091</v>
       </c>
       <c r="W23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1100</v>
       </c>
       <c r="X23" s="4">
@@ -2052,7 +2054,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -2081,19 +2083,19 @@
         <v>0.84567901234567899</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" ref="T24:W24" si="8">T23/T25</f>
+        <f t="shared" ref="T24:W24" si="9">T23/T25</f>
         <v>0.94524236983842014</v>
       </c>
       <c r="U24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.96448087431693985</v>
       </c>
       <c r="V24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0064575645756457</v>
       </c>
       <c r="W24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0261194029850746</v>
       </c>
       <c r="X24" s="5">
@@ -2109,7 +2111,7 @@
         <v>1.1548323471400395</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>1</v>
       </c>
@@ -2153,7 +2155,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="29" spans="2:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:26" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>28</v>
       </c>
@@ -2186,15 +2188,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U29" s="10">
-        <f t="shared" ref="U29:W29" si="9">+U10/Q10-1</f>
+        <f t="shared" ref="U29:W29" si="10">+U10/Q10-1</f>
         <v>8.3552439380660148E-2</v>
       </c>
       <c r="V29" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.7091968034674228E-2</v>
       </c>
       <c r="W29" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.3607954545454453E-2</v>
       </c>
       <c r="X29" s="10">
@@ -2210,7 +2212,7 @@
         <v>4.2362322452030865E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:26" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>61</v>
       </c>
@@ -2227,31 +2229,31 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="Q30" s="10">
-        <f t="shared" ref="Q30:W30" si="10">+Q3/M3-1</f>
+        <f t="shared" ref="Q30:W30" si="11">+Q3/M3-1</f>
         <v>8.7325352521699928E-2</v>
       </c>
       <c r="R30" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.2566783494831126E-2</v>
       </c>
       <c r="S30" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.7612553060396845E-2</v>
       </c>
       <c r="T30" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10814588967924399</v>
       </c>
       <c r="U30" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15054025099933832</v>
       </c>
       <c r="V30" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.14677456362730767</v>
       </c>
       <c r="W30" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1392126552856352</v>
       </c>
       <c r="X30" s="10">
@@ -2267,7 +2269,7 @@
         <v>6.8330437837943458E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -2288,35 +2290,35 @@
         <v>0.50993280747881975</v>
       </c>
       <c r="R31" s="3">
-        <f t="shared" ref="R31:Z31" si="11">+R13/R10</f>
+        <f t="shared" ref="R31:Y31" si="12">+R13/R10</f>
         <v>0.49722335094135173</v>
       </c>
       <c r="S31" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.47088068181818182</v>
       </c>
       <c r="T31" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.45944833264717994</v>
       </c>
       <c r="U31" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.45416554327311942</v>
       </c>
       <c r="V31" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.45751308248193373</v>
       </c>
       <c r="W31" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.44953890115599426</v>
       </c>
       <c r="X31" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.45757767913760306</v>
       </c>
       <c r="Y31" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.46565566458519181</v>
       </c>
       <c r="Z31" s="3">
@@ -2324,7 +2326,7 @@
         <v>0.47035620368156827</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>43</v>
       </c>
@@ -2353,35 +2355,35 @@
         <v>0.16519886363636363</v>
       </c>
       <c r="T32" s="9">
-        <f t="shared" ref="T32:Z32" si="12">T19/T10</f>
+        <f t="shared" ref="T32:Z32" si="13">T19/T10</f>
         <v>0.15877590229175242</v>
       </c>
       <c r="U32" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.16271232138042599</v>
       </c>
       <c r="V32" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.17655120857214054</v>
       </c>
       <c r="W32" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.17924405766982726</v>
       </c>
       <c r="X32" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.18237159162967659</v>
       </c>
       <c r="Y32" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.18529374283165542</v>
       </c>
       <c r="Z32" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.1782213722208941</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>44</v>
       </c>
@@ -2410,35 +2412,35 @@
         <v>0.22536348949919224</v>
       </c>
       <c r="T33" s="3">
-        <f t="shared" ref="T33:Z33" si="13">T22/T21</f>
+        <f t="shared" ref="T33:Z33" si="14">T22/T21</f>
         <v>0.20648078372268275</v>
       </c>
       <c r="U33" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.17265625000000001</v>
       </c>
       <c r="V33" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.26383265856950067</v>
       </c>
       <c r="W33" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.22589725545390571</v>
       </c>
       <c r="X33" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.17923280423280424</v>
       </c>
       <c r="Y33" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.2190684133915575</v>
       </c>
       <c r="Z33" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.19794520547945205</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>53</v>
       </c>
@@ -2463,7 +2465,7 @@
         <v>5527</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>3</v>
       </c>
@@ -2480,7 +2482,7 @@
         <v>15406</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>46</v>
       </c>
@@ -2494,7 +2496,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>47</v>
       </c>
@@ -2510,7 +2512,7 @@
         <v>6963</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>48</v>
       </c>
@@ -2524,7 +2526,7 @@
         <v>37671</v>
       </c>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>49</v>
       </c>
@@ -2538,7 +2540,7 @@
         <v>4651</v>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>50</v>
       </c>
@@ -2552,7 +2554,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>51</v>
       </c>
@@ -2569,7 +2571,7 @@
         <v>11163</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>52</v>
       </c>
@@ -2583,7 +2585,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>45</v>
       </c>
@@ -2604,7 +2606,7 @@
         <v>81611</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>54</v>
       </c>
@@ -2621,7 +2623,7 @@
         <v>8705</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>48</v>
       </c>
@@ -2635,7 +2637,7 @@
         <v>39671</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>41</v>
       </c>
@@ -2650,7 +2652,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -2664,7 +2666,7 @@
         <v>9879</v>
       </c>
     </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>55</v>
       </c>
@@ -2678,7 +2680,7 @@
         <v>20417</v>
       </c>
     </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>90</v>
       </c>
@@ -2699,7 +2701,7 @@
         <v>81611</v>
       </c>
     </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>62</v>
       </c>
@@ -2720,7 +2722,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>63</v>
       </c>
@@ -2737,7 +2739,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="55" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>64</v>
       </c>
@@ -2754,7 +2756,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>65</v>
       </c>
@@ -2771,7 +2773,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>66</v>
       </c>
@@ -2788,7 +2790,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="58" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>67</v>
       </c>
@@ -2805,7 +2807,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>68</v>
       </c>
@@ -2822,7 +2824,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>69</v>
       </c>
@@ -2839,7 +2841,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>70</v>
       </c>
@@ -2856,7 +2858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>52</v>
       </c>
@@ -2873,7 +2875,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>71</v>
       </c>
@@ -2890,7 +2892,7 @@
         <v>-7325</v>
       </c>
     </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>72</v>
       </c>
@@ -2907,7 +2909,7 @@
         <v>7193</v>
       </c>
     </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>46</v>
       </c>
@@ -2924,7 +2926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>54</v>
       </c>
@@ -2941,7 +2943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>52</v>
       </c>
@@ -2958,7 +2960,7 @@
         <v>-79</v>
       </c>
     </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>73</v>
       </c>
@@ -2979,11 +2981,11 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:26" x14ac:dyDescent="0.25">
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
     </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>50</v>
       </c>
@@ -3001,7 +3003,7 @@
         <v>-202</v>
       </c>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>71</v>
       </c>
@@ -3018,7 +3020,7 @@
         <v>-6433</v>
       </c>
     </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>72</v>
       </c>
@@ -3035,7 +3037,7 @@
         <v>5567</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>74</v>
       </c>
@@ -3048,7 +3050,7 @@
         <v>-3924</v>
       </c>
       <c r="Y73" s="4">
-        <f t="shared" ref="Y73:Z73" si="14">-4815+6938</f>
+        <f t="shared" ref="Y73" si="15">-4815+6938</f>
         <v>2123</v>
       </c>
       <c r="Z73" s="4">
@@ -3056,7 +3058,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>75</v>
       </c>
@@ -3073,7 +3075,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>76</v>
       </c>
@@ -3090,7 +3092,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>52</v>
       </c>
@@ -3101,7 +3103,7 @@
         <v>-120</v>
       </c>
       <c r="Y76" s="4">
-        <f t="shared" ref="Y76:Z76" si="15">-148+75</f>
+        <f t="shared" ref="Y76" si="16">-148+75</f>
         <v>-73</v>
       </c>
       <c r="Z76" s="4">
@@ -3109,7 +3111,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>77</v>
       </c>
@@ -3122,7 +3124,7 @@
         <v>-4647</v>
       </c>
       <c r="Y77" s="4">
-        <f t="shared" ref="Y77" si="16">SUM(Y70:Y76)</f>
+        <f t="shared" ref="Y77" si="17">SUM(Y70:Y76)</f>
         <v>2799</v>
       </c>
       <c r="Z77" s="4">
@@ -3130,10 +3132,10 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:26" x14ac:dyDescent="0.25">
       <c r="X78" s="4"/>
     </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>78</v>
       </c>
@@ -3150,7 +3152,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>79</v>
       </c>
@@ -3167,7 +3169,7 @@
         <v>-1269</v>
       </c>
     </row>
-    <row r="81" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>80</v>
       </c>
@@ -3184,7 +3186,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="82" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>81</v>
       </c>
@@ -3203,7 +3205,7 @@
         <v>-1250</v>
       </c>
     </row>
-    <row r="83" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>82</v>
       </c>
@@ -3220,7 +3222,7 @@
         <v>-1183</v>
       </c>
     </row>
-    <row r="84" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>76</v>
       </c>
@@ -3237,7 +3239,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>52</v>
       </c>
@@ -3254,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>83</v>
       </c>
@@ -3267,7 +3269,7 @@
         <v>200</v>
       </c>
       <c r="Y86" s="4">
-        <f t="shared" ref="Y86" si="17">SUM(Y79:Y85)</f>
+        <f t="shared" ref="Y86" si="18">SUM(Y79:Y85)</f>
         <v>-2529</v>
       </c>
       <c r="Z86" s="4">
@@ -3275,7 +3277,7 @@
         <v>-3585</v>
       </c>
     </row>
-    <row r="87" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>84</v>
       </c>
@@ -3292,7 +3294,7 @@
         <v>-310</v>
       </c>
     </row>
-    <row r="88" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>85</v>
       </c>
@@ -3305,7 +3307,7 @@
         <v>-2917</v>
       </c>
       <c r="Y88" s="4">
-        <f t="shared" ref="Y88" si="18">Y87+Y86+Y77+Y68</f>
+        <f t="shared" ref="Y88" si="19">Y87+Y86+Y77+Y68</f>
         <v>2076</v>
       </c>
       <c r="Z88" s="4">
@@ -3313,7 +3315,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="90" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>95</v>
       </c>
@@ -3334,7 +3336,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="91" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>96</v>
       </c>

--- a/PYPL.xlsx
+++ b/PYPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E14A13-1425-41B8-A6A7-F914C7AB05B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBAE95D-763F-41E0-A88E-08ADC558B0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15370" xr2:uid="{77457E1E-5BA7-4596-88BB-5A4DC9A1A351}"/>
+    <workbookView xWindow="10215" yWindow="540" windowWidth="16350" windowHeight="12510" activeTab="1" xr2:uid="{77457E1E-5BA7-4596-88BB-5A4DC9A1A351}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,28 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={631F4B86-28C4-43E7-BDA4-9DCD59AED65B}</author>
+    <author>tc={A46AF43E-396F-43E0-BB4B-89235AB925C5}</author>
     <author>tc={774D2F1E-BB2E-4780-A52B-4E03D3C621F7}</author>
   </authors>
   <commentList>
-    <comment ref="T29" authorId="0" shapeId="0" xr:uid="{774D2F1E-BB2E-4780-A52B-4E03D3C621F7}">
+    <comment ref="AA13" authorId="0" shapeId="0" xr:uid="{631F4B86-28C4-43E7-BDA4-9DCD59AED65B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q424: 3.6-3.65B guidance</t>
+      </text>
+    </comment>
+    <comment ref="AA24" authorId="1" shapeId="0" xr:uid="{A46AF43E-396F-43E0-BB4B-89235AB925C5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q4 guidance: 1.11-1.13</t>
+      </text>
+    </comment>
+    <comment ref="T27" authorId="2" shapeId="0" xr:uid="{774D2F1E-BB2E-4780-A52B-4E03D3C621F7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="108">
   <si>
     <t>Price</t>
   </si>
@@ -171,9 +189,6 @@
     <t>G&amp;A</t>
   </si>
   <si>
-    <t>Interst Expense</t>
-  </si>
-  <si>
     <t>EPS</t>
   </si>
   <si>
@@ -346,6 +361,42 @@
   </si>
   <si>
     <t xml:space="preserve">  TTM</t>
+  </si>
+  <si>
+    <t>PayPal Everywhere</t>
+  </si>
+  <si>
+    <t>PSP (unbranded card processing) (35% of TPV)</t>
+  </si>
+  <si>
+    <t>Branded Checkout (30% of TPV)</t>
+  </si>
+  <si>
+    <t>Venmo (17% of TPV)</t>
+  </si>
+  <si>
+    <t>P2P ex-Venmo (8% of TPV)</t>
+  </si>
+  <si>
+    <t>eBay (2% of TPV)</t>
+  </si>
+  <si>
+    <t>Other Merchant (9% of TPV)</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
   </si>
 </sst>
 </file>
@@ -395,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -421,6 +472,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -453,7 +505,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>10018</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -799,7 +851,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="T29" dT="2023-05-11T02:04:41.45" personId="{F638F1B7-E2AF-467F-B83C-DE23294646CE}" id="{774D2F1E-BB2E-4780-A52B-4E03D3C621F7}">
+  <threadedComment ref="AA13" dT="2025-04-08T17:47:20.86" personId="{F638F1B7-E2AF-467F-B83C-DE23294646CE}" id="{631F4B86-28C4-43E7-BDA4-9DCD59AED65B}">
+    <text>Q424: 3.6-3.65B guidance</text>
+  </threadedComment>
+  <threadedComment ref="AA24" dT="2025-04-08T17:47:52.99" personId="{F638F1B7-E2AF-467F-B83C-DE23294646CE}" id="{A46AF43E-396F-43E0-BB4B-89235AB925C5}">
+    <text>Q4 guidance: 1.11-1.13</text>
+  </threadedComment>
+  <threadedComment ref="T27" dT="2023-05-11T02:04:41.45" personId="{F638F1B7-E2AF-467F-B83C-DE23294646CE}" id="{774D2F1E-BB2E-4780-A52B-4E03D3C621F7}">
     <text>+7.5-8.0% FXN</text>
   </threadedComment>
 </ThreadedComments>
@@ -807,23 +865,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E478C1F2-1B95-4A2D-94EF-7F01AC3D39CD}">
-  <dimension ref="L2:N7"/>
+  <dimension ref="B2:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>79.12</v>
-      </c>
-    </row>
-    <row r="3" spans="12:14" x14ac:dyDescent="0.25">
+        <v>59.35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
       <c r="L3" t="s">
         <v>1</v>
       </c>
@@ -831,19 +895,25 @@
         <v>1014</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="12:14" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
       <c r="L4" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="4">
         <f>M2*M3</f>
-        <v>80227.680000000008</v>
-      </c>
-    </row>
-    <row r="5" spans="12:14" x14ac:dyDescent="0.25">
+        <v>60180.9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
       <c r="L5" t="s">
         <v>3</v>
       </c>
@@ -851,10 +921,13 @@
         <v>15406</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="12:14" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
       <c r="L6" t="s">
         <v>4</v>
       </c>
@@ -862,16 +935,24 @@
         <v>9879</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="12:14" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
       <c r="L7" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="4">
         <f>M4-M5+M6</f>
-        <v>74700.680000000008</v>
+        <v>54653.9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -881,28 +962,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A4DD04-3742-4652-B3CF-AD5D3283DE29}">
-  <dimension ref="A1:BE91"/>
+  <dimension ref="A1:DL89"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD26" sqref="AD26"/>
+      <selection pane="bottomRight" activeCell="AN10" sqref="AN10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" customWidth="1"/>
-    <col min="3" max="14" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="1"/>
+    <col min="52" max="52" width="9.42578125" customWidth="1"/>
+    <col min="53" max="53" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,28 +1047,28 @@
         <v>26</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="AA2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="AI2">
         <v>2020</v>
@@ -1079,9 +1162,9 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="3" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1092,7 +1175,9 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="L3" s="11">
+        <v>310992</v>
+      </c>
       <c r="M3" s="11">
         <v>309910</v>
       </c>
@@ -1135,8 +1220,20 @@
       <c r="Z3" s="4">
         <v>437836</v>
       </c>
-    </row>
-    <row r="4" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK3" s="4">
+        <f>SUM(O3:R3)</f>
+        <v>1357123</v>
+      </c>
+      <c r="AL3" s="4">
+        <f>SUM(S3:V3)</f>
+        <v>1528579</v>
+      </c>
+      <c r="AM3" s="4">
+        <f>SUM(W3:Z3)</f>
+        <v>1681151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -1158,9 +1255,9 @@
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
     </row>
-    <row r="5" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1174,11 +1271,21 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
+      <c r="O5" s="11">
+        <v>429</v>
+      </c>
+      <c r="P5" s="11">
+        <v>429</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>432</v>
+      </c>
+      <c r="R5" s="11">
+        <v>435</v>
+      </c>
+      <c r="S5" s="11">
+        <v>433</v>
+      </c>
       <c r="T5" s="11">
         <v>431</v>
       </c>
@@ -1201,9 +1308,9 @@
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1217,11 +1324,21 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
+      <c r="O6" s="11">
+        <v>5161</v>
+      </c>
+      <c r="P6" s="11">
+        <v>5513</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>5643</v>
+      </c>
+      <c r="R6" s="11">
+        <v>6032</v>
+      </c>
+      <c r="S6" s="11">
+        <v>5835</v>
+      </c>
       <c r="T6" s="11">
         <v>6074</v>
       </c>
@@ -1244,7 +1361,7 @@
         <v>6619</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1254,9 +1371,9 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1296,10 +1413,14 @@
       <c r="Z8" s="4">
         <v>7588</v>
       </c>
-    </row>
-    <row r="9" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN8" s="4">
+        <f>SUM(AA8:AD8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1339,8 +1460,12 @@
       <c r="Z9" s="4">
         <v>778</v>
       </c>
-    </row>
-    <row r="10" spans="1:57" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="AN9" s="4">
+        <f>SUM(AA9:AD9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
@@ -1353,7 +1478,9 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="L10" s="12">
+        <v>6238</v>
+      </c>
       <c r="M10" s="12">
         <v>6182</v>
       </c>
@@ -1363,6 +1490,9 @@
       <c r="O10" s="8">
         <v>6483</v>
       </c>
+      <c r="P10" s="8">
+        <v>6806</v>
+      </c>
       <c r="Q10" s="8">
         <v>6846</v>
       </c>
@@ -1373,7 +1503,7 @@
         <v>7040</v>
       </c>
       <c r="T10" s="8">
-        <f t="shared" ref="T10:AD10" si="1">+T8+T9</f>
+        <f t="shared" ref="T10:Z10" si="1">+T8+T9</f>
         <v>7287</v>
       </c>
       <c r="U10" s="8">
@@ -1401,25 +1531,81 @@
         <v>8366</v>
       </c>
       <c r="AA10" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>+W10*1.05</f>
+        <v>8083.9500000000007</v>
       </c>
       <c r="AB10" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>+X10*1.05</f>
+        <v>8279.25</v>
       </c>
       <c r="AC10" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>+Y10*1.05</f>
+        <v>8239.35</v>
       </c>
       <c r="AD10" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+        <f>+Z10*1.05</f>
+        <v>8784.3000000000011</v>
+      </c>
+      <c r="AN10" s="8">
+        <f>SUM(AA10:AD10)</f>
+        <v>33386.850000000006</v>
+      </c>
+      <c r="AO10" s="8">
+        <f>+AN10*1.03</f>
+        <v>34388.455500000004</v>
+      </c>
+      <c r="AP10" s="8">
+        <f t="shared" ref="AP10:AX10" si="2">+AO10*1.03</f>
+        <v>35420.109165000002</v>
+      </c>
+      <c r="AQ10" s="8">
+        <f t="shared" si="2"/>
+        <v>36482.712439950003</v>
+      </c>
+      <c r="AR10" s="8">
+        <f t="shared" si="2"/>
+        <v>37577.1938131485</v>
+      </c>
+      <c r="AS10" s="8">
+        <f t="shared" si="2"/>
+        <v>38704.509627542953</v>
+      </c>
+      <c r="AT10" s="8">
+        <f t="shared" si="2"/>
+        <v>39865.644916369245</v>
+      </c>
+      <c r="AU10" s="8">
+        <f t="shared" si="2"/>
+        <v>41061.614263860327</v>
+      </c>
+      <c r="AV10" s="8">
+        <f t="shared" si="2"/>
+        <v>42293.462691776134</v>
+      </c>
+      <c r="AW10" s="8">
+        <f t="shared" si="2"/>
+        <v>43562.266572529421</v>
+      </c>
+      <c r="AX10" s="8">
+        <f t="shared" si="2"/>
+        <v>44869.134569705304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11">
+        <v>2524</v>
       </c>
       <c r="M11" s="4">
         <v>2564</v>
@@ -1430,6 +1616,9 @@
       <c r="O11" s="4">
         <v>2817</v>
       </c>
+      <c r="P11" s="4">
+        <v>3044</v>
+      </c>
       <c r="Q11" s="4">
         <v>2988</v>
       </c>
@@ -1461,9 +1650,21 @@
         <v>3997</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11">
+        <v>169</v>
       </c>
       <c r="M12" s="4">
         <v>268</v>
@@ -1474,13 +1675,16 @@
       <c r="O12" s="4">
         <v>369</v>
       </c>
+      <c r="P12" s="4">
+        <v>448</v>
+      </c>
       <c r="Q12" s="4">
         <v>367</v>
       </c>
       <c r="R12" s="4">
         <v>388</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="11">
         <v>442</v>
       </c>
       <c r="T12" s="4">
@@ -1505,48 +1709,56 @@
         <v>434</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>29</v>
       </c>
+      <c r="L13" s="4">
+        <f t="shared" ref="L13:S13" si="3">L10-L11-L12</f>
+        <v>3545</v>
+      </c>
       <c r="M13" s="4">
-        <f>M10-M11-M12</f>
+        <f t="shared" si="3"/>
         <v>3350</v>
       </c>
       <c r="N13" s="4">
-        <f>N10-N11-N12</f>
+        <f t="shared" si="3"/>
         <v>3616</v>
       </c>
       <c r="O13" s="4">
-        <f>O10-O11-O12</f>
+        <f t="shared" si="3"/>
         <v>3297</v>
       </c>
+      <c r="P13" s="4">
+        <f t="shared" si="3"/>
+        <v>3314</v>
+      </c>
       <c r="Q13" s="4">
-        <f>Q10-Q11-Q12</f>
+        <f t="shared" si="3"/>
         <v>3491</v>
       </c>
       <c r="R13" s="4">
-        <f>R10-R11-R12</f>
+        <f t="shared" si="3"/>
         <v>3671</v>
       </c>
       <c r="S13" s="4">
-        <f>S10-S11-S12</f>
+        <f t="shared" si="3"/>
         <v>3315</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" ref="T13:W13" si="2">+T10-T11-T12</f>
+        <f t="shared" ref="T13:W13" si="4">+T10-T11-T12</f>
         <v>3348</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3369</v>
       </c>
       <c r="V13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3672</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3461</v>
       </c>
       <c r="X13" s="4">
@@ -1561,11 +1773,73 @@
         <f>+Z10-Z11-Z12</f>
         <v>3935</v>
       </c>
-    </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AA13" s="4">
+        <v>3625</v>
+      </c>
+      <c r="AB13" s="4">
+        <f>+X13*1.05</f>
+        <v>3788.4</v>
+      </c>
+      <c r="AC13" s="4">
+        <f>+Y13*1.05</f>
+        <v>3836.7000000000003</v>
+      </c>
+      <c r="AD13" s="4">
+        <f>+Z13*1.05</f>
+        <v>4131.75</v>
+      </c>
+      <c r="AN13" s="4">
+        <f>SUM(AA13:AD13)</f>
+        <v>15381.85</v>
+      </c>
+      <c r="AO13" s="4">
+        <f t="shared" ref="AO13:AX13" si="5">+AO10*0.46</f>
+        <v>15818.689530000001</v>
+      </c>
+      <c r="AP13" s="4">
+        <f t="shared" si="5"/>
+        <v>16293.250215900001</v>
+      </c>
+      <c r="AQ13" s="4">
+        <f t="shared" si="5"/>
+        <v>16782.047722377003</v>
+      </c>
+      <c r="AR13" s="4">
+        <f t="shared" si="5"/>
+        <v>17285.509154048312</v>
+      </c>
+      <c r="AS13" s="4">
+        <f t="shared" si="5"/>
+        <v>17804.074428669759</v>
+      </c>
+      <c r="AT13" s="4">
+        <f t="shared" si="5"/>
+        <v>18338.196661529855</v>
+      </c>
+      <c r="AU13" s="4">
+        <f t="shared" si="5"/>
+        <v>18888.34256137575</v>
+      </c>
+      <c r="AV13" s="4">
+        <f t="shared" si="5"/>
+        <v>19454.992838217022</v>
+      </c>
+      <c r="AW13" s="4">
+        <f t="shared" si="5"/>
+        <v>20038.642623363536</v>
+      </c>
+      <c r="AX13" s="4">
+        <f t="shared" si="5"/>
+        <v>20639.801902064442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>34</v>
       </c>
+      <c r="L14" s="1">
+        <v>521</v>
+      </c>
       <c r="M14" s="4">
         <v>504</v>
       </c>
@@ -1575,6 +1849,9 @@
       <c r="O14" s="4">
         <v>534</v>
       </c>
+      <c r="P14" s="4">
+        <v>536</v>
+      </c>
       <c r="Q14" s="4">
         <v>509</v>
       </c>
@@ -1605,11 +1882,74 @@
       <c r="Z14" s="4">
         <v>451</v>
       </c>
-    </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AA14" s="4">
+        <f>+W14</f>
+        <v>454</v>
+      </c>
+      <c r="AB14" s="4">
+        <f t="shared" ref="AB14:AD17" si="6">+X14</f>
+        <v>436</v>
+      </c>
+      <c r="AC14" s="4">
+        <f t="shared" si="6"/>
+        <v>427</v>
+      </c>
+      <c r="AD14" s="4">
+        <f t="shared" si="6"/>
+        <v>451</v>
+      </c>
+      <c r="AN14" s="4">
+        <f>SUM(AA14:AD14)</f>
+        <v>1768</v>
+      </c>
+      <c r="AO14" s="4">
+        <f>+AN14*1.01</f>
+        <v>1785.68</v>
+      </c>
+      <c r="AP14" s="4">
+        <f t="shared" ref="AP14:AX14" si="7">+AO14*1.01</f>
+        <v>1803.5368000000001</v>
+      </c>
+      <c r="AQ14" s="4">
+        <f t="shared" si="7"/>
+        <v>1821.5721680000001</v>
+      </c>
+      <c r="AR14" s="4">
+        <f t="shared" si="7"/>
+        <v>1839.7878896800003</v>
+      </c>
+      <c r="AS14" s="4">
+        <f t="shared" si="7"/>
+        <v>1858.1857685768002</v>
+      </c>
+      <c r="AT14" s="4">
+        <f t="shared" si="7"/>
+        <v>1876.7676262625682</v>
+      </c>
+      <c r="AU14" s="4">
+        <f t="shared" si="7"/>
+        <v>1895.5353025251939</v>
+      </c>
+      <c r="AV14" s="4">
+        <f t="shared" si="7"/>
+        <v>1914.4906555504458</v>
+      </c>
+      <c r="AW14" s="4">
+        <f t="shared" si="7"/>
+        <v>1933.6355621059504</v>
+      </c>
+      <c r="AX14" s="4">
+        <f t="shared" si="7"/>
+        <v>1952.9719177270099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>35</v>
       </c>
+      <c r="L15" s="1">
+        <v>628</v>
+      </c>
       <c r="M15" s="4">
         <v>549</v>
       </c>
@@ -1619,6 +1959,9 @@
       <c r="O15" s="4">
         <v>594</v>
       </c>
+      <c r="P15" s="4">
+        <v>595</v>
+      </c>
       <c r="Q15" s="4">
         <v>544</v>
       </c>
@@ -1649,11 +1992,74 @@
       <c r="Z15" s="4">
         <v>626</v>
       </c>
-    </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AA15" s="4">
+        <f>+W15</f>
+        <v>421</v>
+      </c>
+      <c r="AB15" s="4">
+        <f t="shared" si="6"/>
+        <v>446</v>
+      </c>
+      <c r="AC15" s="4">
+        <f t="shared" si="6"/>
+        <v>508</v>
+      </c>
+      <c r="AD15" s="4">
+        <f t="shared" si="6"/>
+        <v>626</v>
+      </c>
+      <c r="AN15" s="4">
+        <f>SUM(AA15:AD15)</f>
+        <v>2001</v>
+      </c>
+      <c r="AO15" s="4">
+        <f t="shared" ref="AO15:AX15" si="8">+AN15*1.01</f>
+        <v>2021.01</v>
+      </c>
+      <c r="AP15" s="4">
+        <f t="shared" si="8"/>
+        <v>2041.2201</v>
+      </c>
+      <c r="AQ15" s="4">
+        <f t="shared" si="8"/>
+        <v>2061.6323010000001</v>
+      </c>
+      <c r="AR15" s="4">
+        <f t="shared" si="8"/>
+        <v>2082.2486240100002</v>
+      </c>
+      <c r="AS15" s="4">
+        <f t="shared" si="8"/>
+        <v>2103.0711102501</v>
+      </c>
+      <c r="AT15" s="4">
+        <f t="shared" si="8"/>
+        <v>2124.1018213526008</v>
+      </c>
+      <c r="AU15" s="4">
+        <f t="shared" si="8"/>
+        <v>2145.3428395661267</v>
+      </c>
+      <c r="AV15" s="4">
+        <f t="shared" si="8"/>
+        <v>2166.7962679617881</v>
+      </c>
+      <c r="AW15" s="4">
+        <f t="shared" si="8"/>
+        <v>2188.4642306414062</v>
+      </c>
+      <c r="AX15" s="4">
+        <f t="shared" si="8"/>
+        <v>2210.3488729478204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>36</v>
       </c>
+      <c r="L16" s="1">
+        <v>746</v>
+      </c>
       <c r="M16" s="4">
         <v>755</v>
       </c>
@@ -1663,6 +2069,9 @@
       <c r="O16" s="4">
         <v>815</v>
       </c>
+      <c r="P16" s="4">
+        <v>815</v>
+      </c>
       <c r="Q16" s="4">
         <v>801</v>
       </c>
@@ -1693,11 +2102,74 @@
       <c r="Z16" s="4">
         <v>773</v>
       </c>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA16" s="4">
+        <f>+W16</f>
+        <v>742</v>
+      </c>
+      <c r="AB16" s="4">
+        <f t="shared" si="6"/>
+        <v>718</v>
+      </c>
+      <c r="AC16" s="4">
+        <f t="shared" si="6"/>
+        <v>746</v>
+      </c>
+      <c r="AD16" s="4">
+        <f t="shared" si="6"/>
+        <v>773</v>
+      </c>
+      <c r="AN16" s="4">
+        <f>SUM(AA16:AD16)</f>
+        <v>2979</v>
+      </c>
+      <c r="AO16" s="4">
+        <f t="shared" ref="AO16:AX16" si="9">+AN16*1.01</f>
+        <v>3008.79</v>
+      </c>
+      <c r="AP16" s="4">
+        <f t="shared" si="9"/>
+        <v>3038.8779</v>
+      </c>
+      <c r="AQ16" s="4">
+        <f t="shared" si="9"/>
+        <v>3069.2666789999998</v>
+      </c>
+      <c r="AR16" s="4">
+        <f t="shared" si="9"/>
+        <v>3099.95934579</v>
+      </c>
+      <c r="AS16" s="4">
+        <f t="shared" si="9"/>
+        <v>3130.9589392479002</v>
+      </c>
+      <c r="AT16" s="4">
+        <f t="shared" si="9"/>
+        <v>3162.2685286403794</v>
+      </c>
+      <c r="AU16" s="4">
+        <f t="shared" si="9"/>
+        <v>3193.8912139267832</v>
+      </c>
+      <c r="AV16" s="4">
+        <f t="shared" si="9"/>
+        <v>3225.830126066051</v>
+      </c>
+      <c r="AW16" s="4">
+        <f t="shared" si="9"/>
+        <v>3258.0884273267116</v>
+      </c>
+      <c r="AX16" s="4">
+        <f t="shared" si="9"/>
+        <v>3290.6693115999788</v>
+      </c>
+    </row>
+    <row r="17" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>37</v>
       </c>
+      <c r="L17" s="1">
+        <v>522</v>
+      </c>
       <c r="M17" s="4">
         <v>498</v>
       </c>
@@ -1707,6 +2179,9 @@
       <c r="O17" s="4">
         <v>607</v>
       </c>
+      <c r="P17" s="4">
+        <v>514</v>
+      </c>
       <c r="Q17" s="4">
         <v>463</v>
       </c>
@@ -1737,10 +2212,74 @@
       <c r="Z17" s="4">
         <v>594</v>
       </c>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA17" s="4">
+        <f>+W17</f>
+        <v>464</v>
+      </c>
+      <c r="AB17" s="4">
+        <f t="shared" si="6"/>
+        <v>570</v>
+      </c>
+      <c r="AC17" s="4">
+        <f t="shared" si="6"/>
+        <v>519</v>
+      </c>
+      <c r="AD17" s="4">
+        <f t="shared" si="6"/>
+        <v>594</v>
+      </c>
+      <c r="AN17" s="4">
+        <f>SUM(AA17:AD17)</f>
+        <v>2147</v>
+      </c>
+      <c r="AO17" s="4">
+        <f t="shared" ref="AO17:AX17" si="10">+AN17*1.01</f>
+        <v>2168.4699999999998</v>
+      </c>
+      <c r="AP17" s="4">
+        <f t="shared" si="10"/>
+        <v>2190.1546999999996</v>
+      </c>
+      <c r="AQ17" s="4">
+        <f t="shared" si="10"/>
+        <v>2212.0562469999995</v>
+      </c>
+      <c r="AR17" s="4">
+        <f t="shared" si="10"/>
+        <v>2234.1768094699996</v>
+      </c>
+      <c r="AS17" s="4">
+        <f t="shared" si="10"/>
+        <v>2256.5185775646996</v>
+      </c>
+      <c r="AT17" s="4">
+        <f t="shared" si="10"/>
+        <v>2279.0837633403466</v>
+      </c>
+      <c r="AU17" s="4">
+        <f t="shared" si="10"/>
+        <v>2301.8746009737501</v>
+      </c>
+      <c r="AV17" s="4">
+        <f t="shared" si="10"/>
+        <v>2324.8933469834878</v>
+      </c>
+      <c r="AW17" s="4">
+        <f t="shared" si="10"/>
+        <v>2348.1422804533227</v>
+      </c>
+      <c r="AX17" s="4">
+        <f t="shared" si="10"/>
+        <v>2371.6237032578561</v>
+      </c>
+    </row>
+    <row r="18" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>32</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" ref="L18" si="11">SUM(L14:L17)</f>
+        <v>2417</v>
       </c>
       <c r="M18" s="4">
         <f>SUM(M14:M17)</f>
@@ -1754,6 +2293,10 @@
         <f>SUM(O14:O17)</f>
         <v>2550</v>
       </c>
+      <c r="P18" s="4">
+        <f t="shared" ref="P18" si="12">SUM(P14:P17)</f>
+        <v>2460</v>
+      </c>
       <c r="Q18" s="4">
         <f>SUM(Q14:Q17)</f>
         <v>2317</v>
@@ -1767,37 +2310,101 @@
         <v>2152</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" ref="T18:Y18" si="3">SUM(T14:T17)</f>
+        <f t="shared" ref="T18:Y18" si="13">SUM(T14:T17)</f>
         <v>2191</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2162</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2255</v>
       </c>
       <c r="W18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2081</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2170</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2200</v>
       </c>
       <c r="Z18" s="4">
-        <f t="shared" ref="Z18" si="4">SUM(Z14:Z17)</f>
+        <f t="shared" ref="Z18:AA18" si="14">SUM(Z14:Z17)</f>
         <v>2444</v>
       </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA18" s="4">
+        <f t="shared" si="14"/>
+        <v>2081</v>
+      </c>
+      <c r="AB18" s="4">
+        <f t="shared" ref="AB18:AD18" si="15">SUM(AB14:AB17)</f>
+        <v>2170</v>
+      </c>
+      <c r="AC18" s="4">
+        <f t="shared" si="15"/>
+        <v>2200</v>
+      </c>
+      <c r="AD18" s="4">
+        <f t="shared" si="15"/>
+        <v>2444</v>
+      </c>
+      <c r="AN18" s="4">
+        <f>SUM(AN14:AN17)</f>
+        <v>8895</v>
+      </c>
+      <c r="AO18" s="4">
+        <f t="shared" ref="AO18:AX18" si="16">SUM(AO14:AO17)</f>
+        <v>8983.9499999999989</v>
+      </c>
+      <c r="AP18" s="4">
+        <f t="shared" si="16"/>
+        <v>9073.789499999999</v>
+      </c>
+      <c r="AQ18" s="4">
+        <f t="shared" si="16"/>
+        <v>9164.527395000001</v>
+      </c>
+      <c r="AR18" s="4">
+        <f t="shared" si="16"/>
+        <v>9256.172668950001</v>
+      </c>
+      <c r="AS18" s="4">
+        <f t="shared" si="16"/>
+        <v>9348.7343956394998</v>
+      </c>
+      <c r="AT18" s="4">
+        <f t="shared" si="16"/>
+        <v>9442.2217395958942</v>
+      </c>
+      <c r="AU18" s="4">
+        <f t="shared" si="16"/>
+        <v>9536.643956991853</v>
+      </c>
+      <c r="AV18" s="4">
+        <f t="shared" si="16"/>
+        <v>9632.0103965617727</v>
+      </c>
+      <c r="AW18" s="4">
+        <f t="shared" si="16"/>
+        <v>9728.3305005273905</v>
+      </c>
+      <c r="AX18" s="4">
+        <f t="shared" si="16"/>
+        <v>9825.6138055326646</v>
+      </c>
+    </row>
+    <row r="19" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>33</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" ref="L19" si="17">L13-L18</f>
+        <v>1128</v>
       </c>
       <c r="M19" s="4">
         <f>M13-M18</f>
@@ -1811,6 +2418,10 @@
         <f>O13-O18</f>
         <v>747</v>
       </c>
+      <c r="P19" s="4">
+        <f t="shared" ref="P19" si="18">P13-P18</f>
+        <v>854</v>
+      </c>
       <c r="Q19" s="4">
         <f>Q13-Q18</f>
         <v>1174</v>
@@ -1824,37 +2435,100 @@
         <v>1163</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" ref="T19:Y19" si="5">T13-T18</f>
+        <f t="shared" ref="T19:Y19" si="19">T13-T18</f>
         <v>1157</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>1207</v>
       </c>
       <c r="V19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>1417</v>
       </c>
       <c r="W19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>1380</v>
       </c>
       <c r="X19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>1438</v>
       </c>
       <c r="Y19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>1454</v>
       </c>
       <c r="Z19" s="4">
-        <f t="shared" ref="Z19" si="6">Z13-Z18</f>
+        <f t="shared" ref="Z19:AA19" si="20">Z13-Z18</f>
         <v>1491</v>
       </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA19" s="4">
+        <f t="shared" si="20"/>
+        <v>1544</v>
+      </c>
+      <c r="AB19" s="4">
+        <f t="shared" ref="AB19:AD19" si="21">AB13-AB18</f>
+        <v>1618.4</v>
+      </c>
+      <c r="AC19" s="4">
+        <f t="shared" si="21"/>
+        <v>1636.7000000000003</v>
+      </c>
+      <c r="AD19" s="4">
+        <f t="shared" si="21"/>
+        <v>1687.75</v>
+      </c>
+      <c r="AN19" s="4">
+        <f>AN13-AN18</f>
+        <v>6486.85</v>
+      </c>
+      <c r="AO19" s="4">
+        <f t="shared" ref="AO19:AX19" si="22">AO13-AO18</f>
+        <v>6834.7395300000026</v>
+      </c>
+      <c r="AP19" s="4">
+        <f t="shared" si="22"/>
+        <v>7219.4607159000025</v>
+      </c>
+      <c r="AQ19" s="4">
+        <f t="shared" si="22"/>
+        <v>7617.5203273770021</v>
+      </c>
+      <c r="AR19" s="4">
+        <f t="shared" si="22"/>
+        <v>8029.3364850983107</v>
+      </c>
+      <c r="AS19" s="4">
+        <f t="shared" si="22"/>
+        <v>8455.3400330302593</v>
+      </c>
+      <c r="AT19" s="4">
+        <f t="shared" si="22"/>
+        <v>8895.974921933961</v>
+      </c>
+      <c r="AU19" s="4">
+        <f t="shared" si="22"/>
+        <v>9351.698604383897</v>
+      </c>
+      <c r="AV19" s="4">
+        <f t="shared" si="22"/>
+        <v>9822.9824416552492</v>
+      </c>
+      <c r="AW19" s="4">
+        <f t="shared" si="22"/>
+        <v>10310.312122836145</v>
+      </c>
+      <c r="AX19" s="4">
+        <f t="shared" si="22"/>
+        <v>10814.188096531778</v>
+      </c>
+    </row>
+    <row r="20" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>38</v>
+        <v>103</v>
+      </c>
+      <c r="L20" s="1">
+        <v>229</v>
       </c>
       <c r="M20" s="1">
         <v>122</v>
@@ -1865,6 +2539,9 @@
       <c r="O20" s="4">
         <v>-82</v>
       </c>
+      <c r="P20" s="4">
+        <v>-715</v>
+      </c>
       <c r="Q20" s="4">
         <v>460</v>
       </c>
@@ -1895,49 +2572,117 @@
       <c r="Z20" s="4">
         <v>-31</v>
       </c>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA20" s="4">
+        <f>+Z20</f>
+        <v>-31</v>
+      </c>
+      <c r="AB20" s="4">
+        <f t="shared" ref="AB20:AD20" si="23">+AA20</f>
+        <v>-31</v>
+      </c>
+      <c r="AC20" s="4">
+        <f t="shared" si="23"/>
+        <v>-31</v>
+      </c>
+      <c r="AD20" s="4">
+        <f t="shared" si="23"/>
+        <v>-31</v>
+      </c>
+      <c r="AN20" s="4">
+        <f>SUM(AA20:AD20)</f>
+        <v>-124</v>
+      </c>
+      <c r="AO20" s="4">
+        <f>+AN33*$BA$29</f>
+        <v>318.51839999999999</v>
+      </c>
+      <c r="AP20" s="4">
+        <f t="shared" ref="AP20:AX20" si="24">+AO33*$BA$29</f>
+        <v>490.19659032000004</v>
+      </c>
+      <c r="AQ20" s="4">
+        <f t="shared" si="24"/>
+        <v>675.22836566928004</v>
+      </c>
+      <c r="AR20" s="4">
+        <f t="shared" si="24"/>
+        <v>874.25433430239082</v>
+      </c>
+      <c r="AS20" s="4">
+        <f t="shared" si="24"/>
+        <v>1087.9405139680077</v>
+      </c>
+      <c r="AT20" s="4">
+        <f t="shared" si="24"/>
+        <v>1316.979247095966</v>
+      </c>
+      <c r="AU20" s="4">
+        <f t="shared" si="24"/>
+        <v>1562.0901471526843</v>
+      </c>
+      <c r="AV20" s="4">
+        <f t="shared" si="24"/>
+        <v>1824.0210771895622</v>
+      </c>
+      <c r="AW20" s="4">
+        <f t="shared" si="24"/>
+        <v>2103.5491616418376</v>
+      </c>
+      <c r="AX20" s="4">
+        <f t="shared" si="24"/>
+        <v>2401.4818324693092</v>
+      </c>
+    </row>
+    <row r="21" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" ref="L21:S21" si="25">L19+L20</f>
+        <v>1357</v>
       </c>
       <c r="M21" s="4">
-        <f>M19+M20</f>
+        <f t="shared" si="25"/>
         <v>1166</v>
       </c>
       <c r="N21" s="4">
-        <f>N19+N20</f>
+        <f t="shared" si="25"/>
         <v>708</v>
       </c>
       <c r="O21" s="4">
-        <f>O19+O20</f>
+        <f t="shared" si="25"/>
         <v>665</v>
       </c>
+      <c r="P21" s="4">
+        <f t="shared" si="25"/>
+        <v>139</v>
+      </c>
       <c r="Q21" s="4">
-        <f>Q19+Q20</f>
+        <f t="shared" si="25"/>
         <v>1634</v>
       </c>
       <c r="R21" s="4">
-        <f>R19+R20</f>
+        <f t="shared" si="25"/>
         <v>1135</v>
       </c>
       <c r="S21" s="4">
-        <f>S19+S20</f>
+        <f t="shared" si="25"/>
         <v>1238</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" ref="T21:W21" si="7">+T19+T20</f>
+        <f t="shared" ref="T21:W21" si="26">+T19+T20</f>
         <v>1327</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>1280</v>
       </c>
       <c r="V21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>1482</v>
       </c>
       <c r="W21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>1421</v>
       </c>
       <c r="X21" s="4">
@@ -1952,10 +2697,73 @@
         <f>+Z19+Z20</f>
         <v>1460</v>
       </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA21" s="4">
+        <f>+AA19+AA20</f>
+        <v>1513</v>
+      </c>
+      <c r="AB21" s="4">
+        <f t="shared" ref="AB21:AD21" si="27">+AB19+AB20</f>
+        <v>1587.4</v>
+      </c>
+      <c r="AC21" s="4">
+        <f t="shared" si="27"/>
+        <v>1605.7000000000003</v>
+      </c>
+      <c r="AD21" s="4">
+        <f t="shared" si="27"/>
+        <v>1656.75</v>
+      </c>
+      <c r="AN21" s="4">
+        <f>+AN19+AN20</f>
+        <v>6362.85</v>
+      </c>
+      <c r="AO21" s="4">
+        <f t="shared" ref="AO21:AX21" si="28">+AO19+AO20</f>
+        <v>7153.2579300000025</v>
+      </c>
+      <c r="AP21" s="4">
+        <f t="shared" si="28"/>
+        <v>7709.6573062200023</v>
+      </c>
+      <c r="AQ21" s="4">
+        <f t="shared" si="28"/>
+        <v>8292.7486930462819</v>
+      </c>
+      <c r="AR21" s="4">
+        <f t="shared" si="28"/>
+        <v>8903.5908194007025</v>
+      </c>
+      <c r="AS21" s="4">
+        <f t="shared" si="28"/>
+        <v>9543.2805469982668</v>
+      </c>
+      <c r="AT21" s="4">
+        <f t="shared" si="28"/>
+        <v>10212.954169029927</v>
+      </c>
+      <c r="AU21" s="4">
+        <f t="shared" si="28"/>
+        <v>10913.788751536582</v>
+      </c>
+      <c r="AV21" s="4">
+        <f t="shared" si="28"/>
+        <v>11647.003518844811</v>
+      </c>
+      <c r="AW21" s="4">
+        <f t="shared" si="28"/>
+        <v>12413.861284477982</v>
+      </c>
+      <c r="AX21" s="4">
+        <f t="shared" si="28"/>
+        <v>13215.669929001087</v>
+      </c>
+    </row>
+    <row r="22" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="L22" s="1">
+        <v>172</v>
       </c>
       <c r="M22">
         <v>78</v>
@@ -1966,6 +2774,9 @@
       <c r="O22">
         <v>120</v>
       </c>
+      <c r="P22">
+        <v>390</v>
+      </c>
       <c r="Q22">
         <v>248</v>
       </c>
@@ -1996,125 +2807,597 @@
       <c r="Z22">
         <v>289</v>
       </c>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="M23" s="4">
-        <f>M21-M22</f>
+      <c r="AA22" s="4">
+        <f>+AA21*0.2</f>
+        <v>302.60000000000002</v>
+      </c>
+      <c r="AB22" s="4">
+        <f t="shared" ref="AB22:AD22" si="29">+AB21*0.2</f>
+        <v>317.48</v>
+      </c>
+      <c r="AC22" s="4">
+        <f t="shared" si="29"/>
+        <v>321.1400000000001</v>
+      </c>
+      <c r="AD22" s="4">
+        <f t="shared" si="29"/>
+        <v>331.35</v>
+      </c>
+      <c r="AN22" s="4">
+        <f>SUM(AA22:AD22)</f>
+        <v>1272.5700000000002</v>
+      </c>
+      <c r="AO22" s="4">
+        <f>+AO21*0.2</f>
+        <v>1430.6515860000006</v>
+      </c>
+      <c r="AP22" s="4">
+        <f t="shared" ref="AP22:AX22" si="30">+AP21*0.2</f>
+        <v>1541.9314612440005</v>
+      </c>
+      <c r="AQ22" s="4">
+        <f t="shared" si="30"/>
+        <v>1658.5497386092566</v>
+      </c>
+      <c r="AR22" s="4">
+        <f t="shared" si="30"/>
+        <v>1780.7181638801405</v>
+      </c>
+      <c r="AS22" s="4">
+        <f t="shared" si="30"/>
+        <v>1908.6561093996534</v>
+      </c>
+      <c r="AT22" s="4">
+        <f t="shared" si="30"/>
+        <v>2042.5908338059853</v>
+      </c>
+      <c r="AU22" s="4">
+        <f t="shared" si="30"/>
+        <v>2182.7577503073167</v>
+      </c>
+      <c r="AV22" s="4">
+        <f t="shared" si="30"/>
+        <v>2329.4007037689621</v>
+      </c>
+      <c r="AW22" s="4">
+        <f t="shared" si="30"/>
+        <v>2482.7722568955965</v>
+      </c>
+      <c r="AX22" s="4">
+        <f t="shared" si="30"/>
+        <v>2643.1339858002175</v>
+      </c>
+    </row>
+    <row r="23" spans="2:116" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="8">
+        <f t="shared" ref="L23:S23" si="31">L21-L22</f>
+        <v>1185</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="31"/>
         <v>1088</v>
       </c>
-      <c r="N23" s="4">
-        <f>N21-N22</f>
+      <c r="N23" s="8">
+        <f t="shared" si="31"/>
         <v>708</v>
       </c>
-      <c r="O23" s="4">
-        <f>O21-O22</f>
+      <c r="O23" s="8">
+        <f t="shared" si="31"/>
         <v>545</v>
       </c>
-      <c r="Q23" s="4">
-        <f>Q21-Q22</f>
+      <c r="P23" s="8">
+        <f t="shared" si="31"/>
+        <v>-251</v>
+      </c>
+      <c r="Q23" s="8">
+        <f t="shared" si="31"/>
         <v>1386</v>
       </c>
-      <c r="R23" s="4">
-        <f>R21-R22</f>
+      <c r="R23" s="8">
+        <f t="shared" si="31"/>
         <v>946</v>
       </c>
-      <c r="S23" s="4">
-        <f>S21-S22</f>
+      <c r="S23" s="8">
+        <f t="shared" si="31"/>
         <v>959</v>
       </c>
-      <c r="T23" s="4">
-        <f t="shared" ref="T23:W23" si="8">+T21-T22</f>
+      <c r="T23" s="8">
+        <f t="shared" ref="T23:W23" si="32">+T21-T22</f>
         <v>1053</v>
       </c>
-      <c r="U23" s="4">
-        <f t="shared" si="8"/>
+      <c r="U23" s="8">
+        <f t="shared" si="32"/>
         <v>1059</v>
       </c>
-      <c r="V23" s="4">
-        <f t="shared" si="8"/>
+      <c r="V23" s="8">
+        <f t="shared" si="32"/>
         <v>1091</v>
       </c>
-      <c r="W23" s="4">
-        <f t="shared" si="8"/>
+      <c r="W23" s="8">
+        <f t="shared" si="32"/>
         <v>1100</v>
       </c>
-      <c r="X23" s="4">
-        <f>+X21-X22</f>
+      <c r="X23" s="8">
+        <f t="shared" ref="X23:AD23" si="33">+X21-X22</f>
         <v>1241</v>
       </c>
-      <c r="Y23" s="4">
-        <f>+Y21-Y22</f>
+      <c r="Y23" s="8">
+        <f t="shared" si="33"/>
         <v>1073</v>
       </c>
-      <c r="Z23" s="4">
-        <f>+Z21-Z22</f>
+      <c r="Z23" s="8">
+        <f t="shared" si="33"/>
         <v>1171</v>
       </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA23" s="8">
+        <f t="shared" si="33"/>
+        <v>1210.4000000000001</v>
+      </c>
+      <c r="AB23" s="8">
+        <f t="shared" si="33"/>
+        <v>1269.92</v>
+      </c>
+      <c r="AC23" s="8">
+        <f t="shared" si="33"/>
+        <v>1284.5600000000002</v>
+      </c>
+      <c r="AD23" s="8">
+        <f t="shared" si="33"/>
+        <v>1325.4</v>
+      </c>
+      <c r="AN23" s="8">
+        <f>+AN21-AN22</f>
+        <v>5090.2800000000007</v>
+      </c>
+      <c r="AO23" s="8">
+        <f t="shared" ref="AO23:AX23" si="34">+AO21-AO22</f>
+        <v>5722.6063440000016</v>
+      </c>
+      <c r="AP23" s="8">
+        <f t="shared" si="34"/>
+        <v>6167.725844976002</v>
+      </c>
+      <c r="AQ23" s="8">
+        <f t="shared" si="34"/>
+        <v>6634.1989544370253</v>
+      </c>
+      <c r="AR23" s="8">
+        <f t="shared" si="34"/>
+        <v>7122.8726555205621</v>
+      </c>
+      <c r="AS23" s="8">
+        <f t="shared" si="34"/>
+        <v>7634.6244375986134</v>
+      </c>
+      <c r="AT23" s="8">
+        <f t="shared" si="34"/>
+        <v>8170.3633352239412</v>
+      </c>
+      <c r="AU23" s="8">
+        <f t="shared" si="34"/>
+        <v>8731.0310012292648</v>
+      </c>
+      <c r="AV23" s="8">
+        <f t="shared" si="34"/>
+        <v>9317.6028150758484</v>
+      </c>
+      <c r="AW23" s="8">
+        <f t="shared" si="34"/>
+        <v>9931.0890275823858</v>
+      </c>
+      <c r="AX23" s="8">
+        <f t="shared" si="34"/>
+        <v>10572.53594320087</v>
+      </c>
+      <c r="AY23" s="8">
+        <f>+AX23*(1+$BA$30)</f>
+        <v>10678.261302632878</v>
+      </c>
+      <c r="AZ23" s="8">
+        <f t="shared" ref="AZ23:DK23" si="35">+AY23*(1+$BA$30)</f>
+        <v>10785.043915659207</v>
+      </c>
+      <c r="BA23" s="8">
+        <f t="shared" si="35"/>
+        <v>10892.8943548158</v>
+      </c>
+      <c r="BB23" s="8">
+        <f t="shared" si="35"/>
+        <v>11001.823298363959</v>
+      </c>
+      <c r="BC23" s="8">
+        <f t="shared" si="35"/>
+        <v>11111.841531347598</v>
+      </c>
+      <c r="BD23" s="8">
+        <f t="shared" si="35"/>
+        <v>11222.959946661074</v>
+      </c>
+      <c r="BE23" s="8">
+        <f t="shared" si="35"/>
+        <v>11335.189546127685</v>
+      </c>
+      <c r="BF23" s="8">
+        <f t="shared" si="35"/>
+        <v>11448.541441588963</v>
+      </c>
+      <c r="BG23" s="8">
+        <f t="shared" si="35"/>
+        <v>11563.026856004852</v>
+      </c>
+      <c r="BH23" s="8">
+        <f t="shared" si="35"/>
+        <v>11678.657124564901</v>
+      </c>
+      <c r="BI23" s="8">
+        <f t="shared" si="35"/>
+        <v>11795.443695810551</v>
+      </c>
+      <c r="BJ23" s="8">
+        <f t="shared" si="35"/>
+        <v>11913.398132768656</v>
+      </c>
+      <c r="BK23" s="8">
+        <f t="shared" si="35"/>
+        <v>12032.532114096342</v>
+      </c>
+      <c r="BL23" s="8">
+        <f t="shared" si="35"/>
+        <v>12152.857435237305</v>
+      </c>
+      <c r="BM23" s="8">
+        <f t="shared" si="35"/>
+        <v>12274.386009589678</v>
+      </c>
+      <c r="BN23" s="8">
+        <f t="shared" si="35"/>
+        <v>12397.129869685576</v>
+      </c>
+      <c r="BO23" s="8">
+        <f t="shared" si="35"/>
+        <v>12521.101168382431</v>
+      </c>
+      <c r="BP23" s="8">
+        <f t="shared" si="35"/>
+        <v>12646.312180066256</v>
+      </c>
+      <c r="BQ23" s="8">
+        <f t="shared" si="35"/>
+        <v>12772.775301866919</v>
+      </c>
+      <c r="BR23" s="8">
+        <f t="shared" si="35"/>
+        <v>12900.503054885588</v>
+      </c>
+      <c r="BS23" s="8">
+        <f t="shared" si="35"/>
+        <v>13029.508085434445</v>
+      </c>
+      <c r="BT23" s="8">
+        <f t="shared" si="35"/>
+        <v>13159.80316628879</v>
+      </c>
+      <c r="BU23" s="8">
+        <f t="shared" si="35"/>
+        <v>13291.401197951678</v>
+      </c>
+      <c r="BV23" s="8">
+        <f t="shared" si="35"/>
+        <v>13424.315209931196</v>
+      </c>
+      <c r="BW23" s="8">
+        <f t="shared" si="35"/>
+        <v>13558.558362030508</v>
+      </c>
+      <c r="BX23" s="8">
+        <f t="shared" si="35"/>
+        <v>13694.143945650812</v>
+      </c>
+      <c r="BY23" s="8">
+        <f t="shared" si="35"/>
+        <v>13831.085385107321</v>
+      </c>
+      <c r="BZ23" s="8">
+        <f t="shared" si="35"/>
+        <v>13969.396238958394</v>
+      </c>
+      <c r="CA23" s="8">
+        <f t="shared" si="35"/>
+        <v>14109.090201347977</v>
+      </c>
+      <c r="CB23" s="8">
+        <f t="shared" si="35"/>
+        <v>14250.181103361458</v>
+      </c>
+      <c r="CC23" s="8">
+        <f t="shared" si="35"/>
+        <v>14392.682914395073</v>
+      </c>
+      <c r="CD23" s="8">
+        <f t="shared" si="35"/>
+        <v>14536.609743539024</v>
+      </c>
+      <c r="CE23" s="8">
+        <f t="shared" si="35"/>
+        <v>14681.975840974414</v>
+      </c>
+      <c r="CF23" s="8">
+        <f t="shared" si="35"/>
+        <v>14828.795599384157</v>
+      </c>
+      <c r="CG23" s="8">
+        <f t="shared" si="35"/>
+        <v>14977.083555377998</v>
+      </c>
+      <c r="CH23" s="8">
+        <f t="shared" si="35"/>
+        <v>15126.854390931778</v>
+      </c>
+      <c r="CI23" s="8">
+        <f t="shared" si="35"/>
+        <v>15278.122934841096</v>
+      </c>
+      <c r="CJ23" s="8">
+        <f t="shared" si="35"/>
+        <v>15430.904164189507</v>
+      </c>
+      <c r="CK23" s="8">
+        <f t="shared" si="35"/>
+        <v>15585.213205831402</v>
+      </c>
+      <c r="CL23" s="8">
+        <f t="shared" si="35"/>
+        <v>15741.065337889717</v>
+      </c>
+      <c r="CM23" s="8">
+        <f t="shared" si="35"/>
+        <v>15898.475991268615</v>
+      </c>
+      <c r="CN23" s="8">
+        <f t="shared" si="35"/>
+        <v>16057.460751181301</v>
+      </c>
+      <c r="CO23" s="8">
+        <f t="shared" si="35"/>
+        <v>16218.035358693114</v>
+      </c>
+      <c r="CP23" s="8">
+        <f t="shared" si="35"/>
+        <v>16380.215712280045</v>
+      </c>
+      <c r="CQ23" s="8">
+        <f t="shared" si="35"/>
+        <v>16544.017869402847</v>
+      </c>
+      <c r="CR23" s="8">
+        <f t="shared" si="35"/>
+        <v>16709.458048096876</v>
+      </c>
+      <c r="CS23" s="8">
+        <f t="shared" si="35"/>
+        <v>16876.552628577843</v>
+      </c>
+      <c r="CT23" s="8">
+        <f t="shared" si="35"/>
+        <v>17045.31815486362</v>
+      </c>
+      <c r="CU23" s="8">
+        <f t="shared" si="35"/>
+        <v>17215.771336412257</v>
+      </c>
+      <c r="CV23" s="8">
+        <f t="shared" si="35"/>
+        <v>17387.92904977638</v>
+      </c>
+      <c r="CW23" s="8">
+        <f t="shared" si="35"/>
+        <v>17561.808340274143</v>
+      </c>
+      <c r="CX23" s="8">
+        <f t="shared" si="35"/>
+        <v>17737.426423676883</v>
+      </c>
+      <c r="CY23" s="8">
+        <f t="shared" si="35"/>
+        <v>17914.800687913652</v>
+      </c>
+      <c r="CZ23" s="8">
+        <f t="shared" si="35"/>
+        <v>18093.948694792787</v>
+      </c>
+      <c r="DA23" s="8">
+        <f t="shared" si="35"/>
+        <v>18274.888181740716</v>
+      </c>
+      <c r="DB23" s="8">
+        <f t="shared" si="35"/>
+        <v>18457.637063558122</v>
+      </c>
+      <c r="DC23" s="8">
+        <f t="shared" si="35"/>
+        <v>18642.213434193705</v>
+      </c>
+      <c r="DD23" s="8">
+        <f t="shared" si="35"/>
+        <v>18828.635568535643</v>
+      </c>
+      <c r="DE23" s="8">
+        <f t="shared" si="35"/>
+        <v>19016.921924220998</v>
+      </c>
+      <c r="DF23" s="8">
+        <f t="shared" si="35"/>
+        <v>19207.091143463207</v>
+      </c>
+      <c r="DG23" s="8">
+        <f t="shared" si="35"/>
+        <v>19399.162054897839</v>
+      </c>
+      <c r="DH23" s="8">
+        <f t="shared" si="35"/>
+        <v>19593.153675446818</v>
+      </c>
+      <c r="DI23" s="8">
+        <f t="shared" si="35"/>
+        <v>19789.085212201288</v>
+      </c>
+      <c r="DJ23" s="8">
+        <f t="shared" si="35"/>
+        <v>19986.976064323302</v>
+      </c>
+      <c r="DK23" s="8">
+        <f t="shared" si="35"/>
+        <v>20186.845824966535</v>
+      </c>
+      <c r="DL23" s="8">
+        <f t="shared" ref="DL23" si="36">+DK23*(1+$BA$30)</f>
+        <v>20388.714283216199</v>
+      </c>
+    </row>
+    <row r="24" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" ref="L24:S24" si="37">L23/L25</f>
+        <v>0.99915682967959529</v>
       </c>
       <c r="M24" s="5">
-        <f>M23/M25</f>
+        <f t="shared" si="37"/>
         <v>0.91659646166807074</v>
       </c>
       <c r="N24" s="5">
-        <f>N23/N25</f>
+        <f t="shared" si="37"/>
         <v>0.59847844463229083</v>
       </c>
       <c r="O24" s="5">
-        <f>O23/O25</f>
+        <f t="shared" si="37"/>
         <v>0.46501706484641636</v>
       </c>
+      <c r="P24" s="5">
+        <f t="shared" si="37"/>
+        <v>-0.21675302245250433</v>
+      </c>
       <c r="Q24" s="5">
-        <f>Q23/Q25</f>
+        <f t="shared" si="37"/>
         <v>1.1979256698357823</v>
       </c>
       <c r="R24" s="5">
-        <f>R23/R25</f>
+        <f t="shared" si="37"/>
         <v>0.82692307692307687</v>
       </c>
       <c r="S24" s="5">
-        <f>S23/S25</f>
+        <f t="shared" si="37"/>
         <v>0.84567901234567899</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" ref="T24:W24" si="9">T23/T25</f>
+        <f t="shared" ref="T24:W24" si="38">T23/T25</f>
         <v>0.94524236983842014</v>
       </c>
       <c r="U24" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="38"/>
         <v>0.96448087431693985</v>
       </c>
       <c r="V24" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="38"/>
         <v>1.0064575645756457</v>
       </c>
       <c r="W24" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="38"/>
         <v>1.0261194029850746</v>
       </c>
       <c r="X24" s="5">
-        <f>X23/X25</f>
+        <f t="shared" ref="X24:AD24" si="39">X23/X25</f>
         <v>1.1852913085004775</v>
       </c>
       <c r="Y24" s="5">
-        <f>Y23/Y25</f>
+        <f t="shared" si="39"/>
         <v>1.0478515625</v>
       </c>
       <c r="Z24" s="5">
-        <f>Z23/Z25</f>
+        <f t="shared" si="39"/>
         <v>1.1548323471400395</v>
       </c>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA24" s="5">
+        <f t="shared" si="39"/>
+        <v>1.1936883629191322</v>
+      </c>
+      <c r="AB24" s="5">
+        <f t="shared" si="39"/>
+        <v>1.2523865877712033</v>
+      </c>
+      <c r="AC24" s="5">
+        <f t="shared" si="39"/>
+        <v>1.2668244575936884</v>
+      </c>
+      <c r="AD24" s="5">
+        <f t="shared" si="39"/>
+        <v>1.3071005917159764</v>
+      </c>
+      <c r="AN24">
+        <f>+AN23/AN25</f>
+        <v>5.0200000000000005</v>
+      </c>
+      <c r="AO24" s="13">
+        <f>+AO23/AO25</f>
+        <v>5.6435960000000014</v>
+      </c>
+      <c r="AP24" s="13">
+        <f t="shared" ref="AP24:AX24" si="40">+AP23/AP25</f>
+        <v>6.082569866840239</v>
+      </c>
+      <c r="AQ24" s="13">
+        <f t="shared" si="40"/>
+        <v>6.5426025191686641</v>
+      </c>
+      <c r="AR24" s="13">
+        <f t="shared" si="40"/>
+        <v>7.0245292460755051</v>
+      </c>
+      <c r="AS24" s="13">
+        <f t="shared" si="40"/>
+        <v>7.529215421694885</v>
+      </c>
+      <c r="AT24" s="13">
+        <f t="shared" si="40"/>
+        <v>8.0575575298066475</v>
+      </c>
+      <c r="AU24" s="13">
+        <f t="shared" si="40"/>
+        <v>8.6104842221195899</v>
+      </c>
+      <c r="AV24" s="13">
+        <f t="shared" si="40"/>
+        <v>9.1889574113174053</v>
+      </c>
+      <c r="AW24" s="13">
+        <f t="shared" si="40"/>
+        <v>9.7939733999826295</v>
+      </c>
+      <c r="AX24" s="13">
+        <f t="shared" si="40"/>
+        <v>10.426564046549181</v>
+      </c>
+    </row>
+    <row r="25" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>1</v>
       </c>
+      <c r="L25" s="1">
+        <v>1186</v>
+      </c>
       <c r="M25" s="4">
         <v>1187</v>
       </c>
@@ -2124,6 +3407,9 @@
       <c r="O25" s="4">
         <v>1172</v>
       </c>
+      <c r="P25" s="4">
+        <v>1158</v>
+      </c>
       <c r="Q25" s="4">
         <v>1157</v>
       </c>
@@ -2154,1194 +3440,2755 @@
       <c r="Z25" s="4">
         <v>1014</v>
       </c>
-    </row>
-    <row r="29" spans="2:26" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
+      <c r="AA25" s="4">
+        <f>+Z25</f>
+        <v>1014</v>
+      </c>
+      <c r="AB25" s="4">
+        <f>+AA25</f>
+        <v>1014</v>
+      </c>
+      <c r="AC25" s="4">
+        <f>+AB25</f>
+        <v>1014</v>
+      </c>
+      <c r="AD25" s="4">
+        <f>+AC25</f>
+        <v>1014</v>
+      </c>
+      <c r="AN25" s="4">
+        <f>AVERAGE(AA25:AD25)</f>
+        <v>1014</v>
+      </c>
+      <c r="AO25" s="4">
+        <f>+AN25</f>
+        <v>1014</v>
+      </c>
+      <c r="AP25" s="4">
+        <f t="shared" ref="AP25:AX25" si="41">+AO25</f>
+        <v>1014</v>
+      </c>
+      <c r="AQ25" s="4">
+        <f t="shared" si="41"/>
+        <v>1014</v>
+      </c>
+      <c r="AR25" s="4">
+        <f t="shared" si="41"/>
+        <v>1014</v>
+      </c>
+      <c r="AS25" s="4">
+        <f t="shared" si="41"/>
+        <v>1014</v>
+      </c>
+      <c r="AT25" s="4">
+        <f t="shared" si="41"/>
+        <v>1014</v>
+      </c>
+      <c r="AU25" s="4">
+        <f t="shared" si="41"/>
+        <v>1014</v>
+      </c>
+      <c r="AV25" s="4">
+        <f t="shared" si="41"/>
+        <v>1014</v>
+      </c>
+      <c r="AW25" s="4">
+        <f t="shared" si="41"/>
+        <v>1014</v>
+      </c>
+      <c r="AX25" s="4">
+        <f t="shared" si="41"/>
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="27" spans="2:116" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="Q29" s="10">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="P27" s="10">
+        <f>P10/L10-1</f>
+        <v>9.105482526450781E-2</v>
+      </c>
+      <c r="Q27" s="10">
         <f>Q10/M10-1</f>
         <v>0.10740860562924626</v>
       </c>
-      <c r="R29" s="10">
+      <c r="R27" s="10">
         <f>R10/N10-1</f>
         <v>6.7215958369470918E-2</v>
       </c>
-      <c r="S29" s="10">
+      <c r="S27" s="10">
         <f>S10/O10-1</f>
         <v>8.5917013728212144E-2</v>
       </c>
-      <c r="T29" s="10" t="e">
+      <c r="T27" s="10">
         <f>T10/P10-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U29" s="10">
-        <f t="shared" ref="U29:W29" si="10">+U10/Q10-1</f>
+        <v>7.0672935645019086E-2</v>
+      </c>
+      <c r="U27" s="10">
+        <f t="shared" ref="U27:Z27" si="42">+U10/Q10-1</f>
         <v>8.3552439380660148E-2</v>
       </c>
-      <c r="V29" s="10">
-        <f t="shared" si="10"/>
+      <c r="V27" s="10">
+        <f t="shared" si="42"/>
         <v>8.7091968034674228E-2</v>
       </c>
-      <c r="W29" s="10">
-        <f t="shared" si="10"/>
+      <c r="W27" s="10">
+        <f t="shared" si="42"/>
         <v>9.3607954545454453E-2</v>
       </c>
-      <c r="X29" s="10">
-        <f>+X10/T10-1</f>
+      <c r="X27" s="10">
+        <f t="shared" si="42"/>
         <v>8.2063949499108002E-2</v>
       </c>
-      <c r="Y29" s="10">
-        <f>+Y10/U10-1</f>
+      <c r="Y27" s="10">
+        <f t="shared" si="42"/>
         <v>5.7832299811269916E-2</v>
       </c>
-      <c r="Z29" s="10">
-        <f>+Z10/V10-1</f>
+      <c r="Z27" s="10">
+        <f t="shared" si="42"/>
         <v>4.2362322452030865E-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:26" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="Q30" s="10">
-        <f t="shared" ref="Q30:W30" si="11">+Q3/M3-1</f>
+      <c r="AA27" s="10"/>
+    </row>
+    <row r="28" spans="2:116" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="P28" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="Q28" s="10">
+        <f t="shared" ref="Q28:Z28" si="43">+Q3/M3-1</f>
         <v>8.7325352521699928E-2</v>
       </c>
-      <c r="R30" s="10">
-        <f t="shared" si="11"/>
+      <c r="R28" s="10">
+        <f t="shared" si="43"/>
         <v>5.2566783494831126E-2</v>
       </c>
-      <c r="S30" s="10">
-        <f t="shared" si="11"/>
+      <c r="S28" s="10">
+        <f t="shared" si="43"/>
         <v>9.7612553060396845E-2</v>
       </c>
-      <c r="T30" s="10">
-        <f t="shared" si="11"/>
+      <c r="T28" s="10">
+        <f t="shared" si="43"/>
         <v>0.10814588967924399</v>
       </c>
-      <c r="U30" s="10">
-        <f t="shared" si="11"/>
+      <c r="U28" s="10">
+        <f t="shared" si="43"/>
         <v>0.15054025099933832</v>
       </c>
-      <c r="V30" s="10">
-        <f t="shared" si="11"/>
+      <c r="V28" s="10">
+        <f t="shared" si="43"/>
         <v>0.14677456362730767</v>
       </c>
-      <c r="W30" s="10">
-        <f t="shared" si="11"/>
+      <c r="W28" s="10">
+        <f t="shared" si="43"/>
         <v>0.1392126552856352</v>
       </c>
-      <c r="X30" s="10">
-        <f>+X3/T3-1</f>
+      <c r="X28" s="10">
+        <f t="shared" si="43"/>
         <v>0.10696397176380601</v>
       </c>
-      <c r="Y30" s="10">
-        <f>+Y3/U3-1</f>
+      <c r="Y28" s="10">
+        <f t="shared" si="43"/>
         <v>9.0120995303081486E-2</v>
       </c>
-      <c r="Z30" s="10">
-        <f>+Z3/V3-1</f>
+      <c r="Z28" s="10">
+        <f t="shared" si="43"/>
         <v>6.8330437837943458E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:116" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" ref="L29:Q29" si="44">L13/L10</f>
+        <v>0.56829111894838091</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="44"/>
+        <v>0.54189582659333546</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="44"/>
+        <v>0.52269442035270308</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="44"/>
+        <v>0.5085608514576585</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="44"/>
+        <v>0.48692330296796943</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" si="44"/>
+        <v>0.50993280747881975</v>
+      </c>
+      <c r="R29" s="3">
+        <f t="shared" ref="R29:Z29" si="45">+R13/R10</f>
+        <v>0.49722335094135173</v>
+      </c>
+      <c r="S29" s="3">
+        <f t="shared" si="45"/>
+        <v>0.47088068181818182</v>
+      </c>
+      <c r="T29" s="3">
+        <f t="shared" si="45"/>
+        <v>0.45944833264717994</v>
+      </c>
+      <c r="U29" s="3">
+        <f t="shared" si="45"/>
+        <v>0.45416554327311942</v>
+      </c>
+      <c r="V29" s="3">
+        <f t="shared" si="45"/>
+        <v>0.45751308248193373</v>
+      </c>
+      <c r="W29" s="3">
+        <f t="shared" si="45"/>
+        <v>0.44953890115599426</v>
+      </c>
+      <c r="X29" s="3">
+        <f t="shared" si="45"/>
+        <v>0.45757767913760306</v>
+      </c>
+      <c r="Y29" s="3">
+        <f t="shared" si="45"/>
+        <v>0.46565566458519181</v>
+      </c>
+      <c r="Z29" s="3">
+        <f t="shared" si="45"/>
+        <v>0.47035620368156827</v>
+      </c>
+      <c r="AA29" s="3"/>
+      <c r="AN29" s="3">
+        <f>+AN13/AN10</f>
+        <v>0.46071582074978618</v>
+      </c>
+      <c r="AO29" s="3">
+        <f>+AO13/AO10</f>
+        <v>0.46</v>
+      </c>
+      <c r="AP29" s="3">
+        <f t="shared" ref="AP29:AX29" si="46">+AP13/AP10</f>
+        <v>0.46</v>
+      </c>
+      <c r="AQ29" s="3">
+        <f t="shared" si="46"/>
+        <v>0.46000000000000008</v>
+      </c>
+      <c r="AR29" s="3">
+        <f t="shared" si="46"/>
+        <v>0.46</v>
+      </c>
+      <c r="AS29" s="3">
+        <f t="shared" si="46"/>
+        <v>0.46</v>
+      </c>
+      <c r="AT29" s="3">
+        <f t="shared" si="46"/>
+        <v>0.46000000000000008</v>
+      </c>
+      <c r="AU29" s="3">
+        <f t="shared" si="46"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="AV29" s="3">
+        <f t="shared" si="46"/>
+        <v>0.46</v>
+      </c>
+      <c r="AW29" s="3">
+        <f t="shared" si="46"/>
+        <v>0.46</v>
+      </c>
+      <c r="AX29" s="3">
+        <f t="shared" si="46"/>
+        <v>0.46000000000000008</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA29" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="30" spans="2:116" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30" s="9">
+        <f t="shared" ref="L30:Z30" si="47">L19/L10</f>
+        <v>0.18082718820134658</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="47"/>
+        <v>0.16887738595923649</v>
+      </c>
+      <c r="N30" s="9">
+        <f t="shared" si="47"/>
+        <v>0.15206707140792136</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" si="47"/>
+        <v>0.11522443313280889</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" si="47"/>
+        <v>0.12547751983543931</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="47"/>
+        <v>0.17148699970785861</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" si="47"/>
+        <v>0.1718813490451036</v>
+      </c>
+      <c r="S30" s="9">
+        <f t="shared" si="47"/>
+        <v>0.16519886363636363</v>
+      </c>
+      <c r="T30" s="9">
+        <f t="shared" si="47"/>
+        <v>0.15877590229175242</v>
+      </c>
+      <c r="U30" s="9">
+        <f t="shared" si="47"/>
+        <v>0.16271232138042599</v>
+      </c>
+      <c r="V30" s="9">
+        <f t="shared" si="47"/>
+        <v>0.17655120857214054</v>
+      </c>
+      <c r="W30" s="9">
+        <f t="shared" si="47"/>
+        <v>0.17924405766982726</v>
+      </c>
+      <c r="X30" s="9">
+        <f t="shared" si="47"/>
+        <v>0.18237159162967659</v>
+      </c>
+      <c r="Y30" s="9">
+        <f t="shared" si="47"/>
+        <v>0.18529374283165542</v>
+      </c>
+      <c r="Z30" s="9">
+        <f t="shared" si="47"/>
+        <v>0.1782213722208941</v>
+      </c>
+      <c r="AA30" s="9"/>
+      <c r="AZ30" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA30" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" ref="L31:Z31" si="48">L22/L21</f>
+        <v>0.12675018422991893</v>
       </c>
       <c r="M31" s="3">
-        <f>M13/M10</f>
-        <v>0.54189582659333546</v>
+        <f t="shared" si="48"/>
+        <v>6.6895368782161235E-2</v>
       </c>
       <c r="N31" s="3">
-        <f>N13/N10</f>
-        <v>0.52269442035270308</v>
+        <f t="shared" si="48"/>
+        <v>0</v>
       </c>
       <c r="O31" s="3">
-        <f>O13/O10</f>
-        <v>0.5085608514576585</v>
+        <f t="shared" si="48"/>
+        <v>0.18045112781954886</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="48"/>
+        <v>2.8057553956834531</v>
       </c>
       <c r="Q31" s="3">
-        <f>Q13/Q10</f>
-        <v>0.50993280747881975</v>
+        <f t="shared" si="48"/>
+        <v>0.15177478580171358</v>
       </c>
       <c r="R31" s="3">
-        <f t="shared" ref="R31:Y31" si="12">+R13/R10</f>
-        <v>0.49722335094135173</v>
+        <f t="shared" si="48"/>
+        <v>0.16651982378854627</v>
       </c>
       <c r="S31" s="3">
-        <f t="shared" si="12"/>
-        <v>0.47088068181818182</v>
+        <f t="shared" si="48"/>
+        <v>0.22536348949919224</v>
       </c>
       <c r="T31" s="3">
-        <f t="shared" si="12"/>
-        <v>0.45944833264717994</v>
+        <f t="shared" si="48"/>
+        <v>0.20648078372268275</v>
       </c>
       <c r="U31" s="3">
-        <f t="shared" si="12"/>
-        <v>0.45416554327311942</v>
+        <f t="shared" si="48"/>
+        <v>0.17265625000000001</v>
       </c>
       <c r="V31" s="3">
-        <f t="shared" si="12"/>
-        <v>0.45751308248193373</v>
+        <f t="shared" si="48"/>
+        <v>0.26383265856950067</v>
       </c>
       <c r="W31" s="3">
-        <f t="shared" si="12"/>
-        <v>0.44953890115599426</v>
+        <f t="shared" si="48"/>
+        <v>0.22589725545390571</v>
       </c>
       <c r="X31" s="3">
-        <f t="shared" si="12"/>
-        <v>0.45757767913760306</v>
+        <f t="shared" si="48"/>
+        <v>0.17923280423280424</v>
       </c>
       <c r="Y31" s="3">
-        <f t="shared" si="12"/>
-        <v>0.46565566458519181</v>
+        <f t="shared" si="48"/>
+        <v>0.2190684133915575</v>
       </c>
       <c r="Z31" s="3">
-        <f>+Z13/Z10</f>
-        <v>0.47035620368156827</v>
-      </c>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="M32" s="9">
-        <f>M19/M10</f>
-        <v>0.16887738595923649</v>
-      </c>
-      <c r="N32" s="9">
-        <f>N19/N10</f>
-        <v>0.15206707140792136</v>
-      </c>
-      <c r="O32" s="9">
-        <f>O19/O10</f>
-        <v>0.11522443313280889</v>
-      </c>
-      <c r="Q32" s="9">
-        <f>Q19/Q10</f>
-        <v>0.17148699970785861</v>
-      </c>
-      <c r="R32" s="9">
-        <f>R19/R10</f>
-        <v>0.1718813490451036</v>
-      </c>
-      <c r="S32" s="9">
-        <f>S19/S10</f>
-        <v>0.16519886363636363</v>
-      </c>
-      <c r="T32" s="9">
-        <f t="shared" ref="T32:Z32" si="13">T19/T10</f>
-        <v>0.15877590229175242</v>
-      </c>
-      <c r="U32" s="9">
-        <f t="shared" si="13"/>
-        <v>0.16271232138042599</v>
-      </c>
-      <c r="V32" s="9">
-        <f t="shared" si="13"/>
-        <v>0.17655120857214054</v>
-      </c>
-      <c r="W32" s="9">
-        <f t="shared" si="13"/>
-        <v>0.17924405766982726</v>
-      </c>
-      <c r="X32" s="9">
-        <f t="shared" si="13"/>
-        <v>0.18237159162967659</v>
-      </c>
-      <c r="Y32" s="9">
-        <f t="shared" si="13"/>
-        <v>0.18529374283165542</v>
-      </c>
-      <c r="Z32" s="9">
-        <f t="shared" si="13"/>
-        <v>0.1782213722208941</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="M33" s="3">
-        <f>M22/M21</f>
-        <v>6.6895368782161235E-2</v>
-      </c>
-      <c r="N33" s="3">
-        <f>N22/N21</f>
+        <f t="shared" si="48"/>
+        <v>0.19794520547945205</v>
+      </c>
+      <c r="AN31" s="3">
+        <f>+AN22/AN21</f>
+        <v>0.2</v>
+      </c>
+      <c r="AO31" s="3">
+        <f t="shared" ref="AO31:AX31" si="49">+AO22/AO21</f>
+        <v>0.2</v>
+      </c>
+      <c r="AP31" s="3">
+        <f t="shared" si="49"/>
+        <v>0.2</v>
+      </c>
+      <c r="AQ31" s="3">
+        <f t="shared" si="49"/>
+        <v>0.2</v>
+      </c>
+      <c r="AR31" s="3">
+        <f t="shared" si="49"/>
+        <v>0.2</v>
+      </c>
+      <c r="AS31" s="3">
+        <f t="shared" si="49"/>
+        <v>0.2</v>
+      </c>
+      <c r="AT31" s="3">
+        <f t="shared" si="49"/>
+        <v>0.2</v>
+      </c>
+      <c r="AU31" s="3">
+        <f t="shared" si="49"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AV31" s="3">
+        <f t="shared" si="49"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="AW31" s="3">
+        <f t="shared" si="49"/>
+        <v>0.2</v>
+      </c>
+      <c r="AX31" s="3">
+        <f t="shared" si="49"/>
+        <v>0.2</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA31" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="32" spans="2:116" x14ac:dyDescent="0.2">
+      <c r="AZ32" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA32" s="8">
+        <f>NPV(BA31,AO23:DL23)</f>
+        <v>121237.41169202272</v>
+      </c>
+    </row>
+    <row r="33" spans="2:116" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="R33" s="4">
+        <f>R34-R47</f>
+        <v>5469</v>
+      </c>
+      <c r="S33" s="4">
+        <f>S34-S47</f>
         <v>0</v>
       </c>
-      <c r="O33" s="3">
-        <f>O22/O21</f>
-        <v>0.18045112781954886</v>
-      </c>
-      <c r="Q33" s="3">
-        <f>Q22/Q21</f>
-        <v>0.15177478580171358</v>
-      </c>
-      <c r="R33" s="3">
-        <f>R22/R21</f>
-        <v>0.16651982378854627</v>
-      </c>
-      <c r="S33" s="3">
-        <f>S22/S21</f>
-        <v>0.22536348949919224</v>
-      </c>
-      <c r="T33" s="3">
-        <f t="shared" ref="T33:Z33" si="14">T22/T21</f>
-        <v>0.20648078372268275</v>
-      </c>
-      <c r="U33" s="3">
-        <f t="shared" si="14"/>
-        <v>0.17265625000000001</v>
-      </c>
-      <c r="V33" s="3">
-        <f t="shared" si="14"/>
-        <v>0.26383265856950067</v>
-      </c>
-      <c r="W33" s="3">
-        <f t="shared" si="14"/>
-        <v>0.22589725545390571</v>
-      </c>
-      <c r="X33" s="3">
-        <f t="shared" si="14"/>
-        <v>0.17923280423280424</v>
-      </c>
-      <c r="Y33" s="3">
-        <f t="shared" si="14"/>
-        <v>0.2190684133915575</v>
-      </c>
-      <c r="Z33" s="3">
-        <f t="shared" si="14"/>
-        <v>0.19794520547945205</v>
-      </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="R35" s="4">
-        <f>R36-R49</f>
-        <v>5469</v>
-      </c>
-      <c r="S35" s="4">
-        <f>S36-S49</f>
+      <c r="T33" s="4">
+        <f t="shared" ref="T33:U33" si="50">T34-T47</f>
         <v>0</v>
       </c>
-      <c r="X35" s="4">
-        <f>X36-X49</f>
+      <c r="U33" s="4">
+        <f t="shared" si="50"/>
+        <v>4762</v>
+      </c>
+      <c r="V33" s="4">
+        <f>V34-V47</f>
+        <v>7657</v>
+      </c>
+      <c r="W33" s="4">
+        <f>W34-W47</f>
+        <v>8044</v>
+      </c>
+      <c r="X33" s="4">
+        <f>X34-X47</f>
         <v>8542</v>
       </c>
-      <c r="Y35" s="4">
-        <f>Y36-Y49</f>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="4">
-        <f>Z36-Z49</f>
+      <c r="Y33" s="4">
+        <f>Y34-Y47</f>
+        <v>6225</v>
+      </c>
+      <c r="Z33" s="4">
+        <f>Z34-Z47</f>
         <v>5527</v>
       </c>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="AM33" s="4">
+        <f>+Z33</f>
+        <v>5527</v>
+      </c>
+      <c r="AN33" s="4">
+        <f>+AM33+AN23</f>
+        <v>10617.28</v>
+      </c>
+      <c r="AO33" s="4">
+        <f t="shared" ref="AO33:AX33" si="51">+AN33+AO23</f>
+        <v>16339.886344000002</v>
+      </c>
+      <c r="AP33" s="4">
+        <f t="shared" si="51"/>
+        <v>22507.612188976003</v>
+      </c>
+      <c r="AQ33" s="4">
+        <f t="shared" si="51"/>
+        <v>29141.81114341303</v>
+      </c>
+      <c r="AR33" s="4">
+        <f t="shared" si="51"/>
+        <v>36264.683798933591</v>
+      </c>
+      <c r="AS33" s="4">
+        <f t="shared" si="51"/>
+        <v>43899.308236532204</v>
+      </c>
+      <c r="AT33" s="4">
+        <f t="shared" si="51"/>
+        <v>52069.671571756146</v>
+      </c>
+      <c r="AU33" s="4">
+        <f t="shared" si="51"/>
+        <v>60800.702572985407</v>
+      </c>
+      <c r="AV33" s="4">
+        <f t="shared" si="51"/>
+        <v>70118.305388061257</v>
+      </c>
+      <c r="AW33" s="4">
+        <f t="shared" si="51"/>
+        <v>80049.394415643648</v>
+      </c>
+      <c r="AX33" s="4">
+        <f t="shared" si="51"/>
+        <v>90621.930358844518</v>
+      </c>
+      <c r="AZ33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA33" s="8">
+        <f>NPV(BA31,AN35:DL35)</f>
+        <v>107274.13054769285</v>
+      </c>
+    </row>
+    <row r="34" spans="2:116" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R36" s="4">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="R34" s="4">
         <f>7776+3092+5018</f>
         <v>15886</v>
       </c>
-      <c r="X36" s="4">
+      <c r="U34" s="4">
+        <f>6816+4731+3855</f>
+        <v>15402</v>
+      </c>
+      <c r="V34" s="4">
+        <f>9081+4979+3273</f>
+        <v>17333</v>
+      </c>
+      <c r="W34" s="4">
+        <f>9693+4625+3409</f>
+        <v>17727</v>
+      </c>
+      <c r="X34" s="4">
         <f>7701+5915+4653</f>
         <v>18269</v>
       </c>
-      <c r="Z36" s="4">
+      <c r="Y34" s="4">
+        <f>7272+4647+4282</f>
+        <v>16201</v>
+      </c>
+      <c r="Z34" s="4">
         <f>6561+4262+4583</f>
         <v>15406</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="35" spans="2:116" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="R35" s="4">
+        <v>963</v>
+      </c>
+      <c r="U35" s="4">
+        <v>988</v>
+      </c>
+      <c r="V35" s="4">
+        <v>1069</v>
+      </c>
+      <c r="W35" s="4">
+        <v>1108</v>
+      </c>
+      <c r="X35" s="4">
+        <v>987</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>1038</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>984</v>
+      </c>
+      <c r="AN35" s="4">
+        <f>5090.28/2</f>
+        <v>2545.14</v>
+      </c>
+      <c r="AO35" s="4">
+        <f>5722.606344/2</f>
+        <v>2861.3031719999999</v>
+      </c>
+      <c r="AP35" s="4">
+        <f>6167.725844976/2</f>
+        <v>3083.8629224880001</v>
+      </c>
+      <c r="AQ35" s="4">
+        <f>6634.19895443703/2</f>
+        <v>3317.0994772185149</v>
+      </c>
+      <c r="AR35" s="4">
+        <v>7122.8726555205621</v>
+      </c>
+      <c r="AS35" s="4">
+        <v>7634.6244375986134</v>
+      </c>
+      <c r="AT35" s="4">
+        <v>8170.3633352239412</v>
+      </c>
+      <c r="AU35" s="4">
+        <v>8731.0310012292648</v>
+      </c>
+      <c r="AV35" s="4">
+        <v>9317.6028150758484</v>
+      </c>
+      <c r="AW35" s="4">
+        <v>9931.0890275823858</v>
+      </c>
+      <c r="AX35" s="4">
+        <v>10572.53594320087</v>
+      </c>
+      <c r="AY35" s="4">
+        <v>10678.261302632878</v>
+      </c>
+      <c r="AZ35" s="4">
+        <v>10785.043915659207</v>
+      </c>
+      <c r="BA35" s="4">
+        <v>10892.8943548158</v>
+      </c>
+      <c r="BB35" s="4">
+        <v>11001.823298363959</v>
+      </c>
+      <c r="BC35" s="4">
+        <v>11111.841531347598</v>
+      </c>
+      <c r="BD35" s="4">
+        <v>11222.959946661074</v>
+      </c>
+      <c r="BE35" s="4">
+        <v>11335.189546127685</v>
+      </c>
+      <c r="BF35" s="4">
+        <v>11448.541441588963</v>
+      </c>
+      <c r="BG35" s="4">
+        <v>11563.026856004852</v>
+      </c>
+      <c r="BH35" s="4">
+        <v>11678.657124564901</v>
+      </c>
+      <c r="BI35" s="4">
+        <v>11795.443695810551</v>
+      </c>
+      <c r="BJ35" s="4">
+        <v>11913.398132768656</v>
+      </c>
+      <c r="BK35" s="4">
+        <v>12032.532114096342</v>
+      </c>
+      <c r="BL35" s="4">
+        <v>12152.857435237305</v>
+      </c>
+      <c r="BM35" s="4">
+        <v>12274.386009589678</v>
+      </c>
+      <c r="BN35" s="4">
+        <v>12397.129869685576</v>
+      </c>
+      <c r="BO35" s="4">
+        <v>12521.101168382431</v>
+      </c>
+      <c r="BP35" s="4">
+        <v>12646.312180066256</v>
+      </c>
+      <c r="BQ35" s="4">
+        <v>12772.775301866919</v>
+      </c>
+      <c r="BR35" s="4">
+        <v>12900.503054885588</v>
+      </c>
+      <c r="BS35" s="4">
+        <v>13029.508085434445</v>
+      </c>
+      <c r="BT35" s="4">
+        <v>13159.80316628879</v>
+      </c>
+      <c r="BU35" s="4">
+        <v>13291.401197951678</v>
+      </c>
+      <c r="BV35" s="4">
+        <v>13424.315209931196</v>
+      </c>
+      <c r="BW35" s="4">
+        <v>13558.558362030508</v>
+      </c>
+      <c r="BX35" s="4">
+        <v>13694.143945650812</v>
+      </c>
+      <c r="BY35" s="4">
+        <v>13831.085385107321</v>
+      </c>
+      <c r="BZ35" s="4">
+        <v>13969.396238958394</v>
+      </c>
+      <c r="CA35" s="4">
+        <v>14109.090201347977</v>
+      </c>
+      <c r="CB35" s="4">
+        <v>14250.181103361458</v>
+      </c>
+      <c r="CC35" s="4">
+        <v>14392.682914395073</v>
+      </c>
+      <c r="CD35" s="4">
+        <v>14536.609743539024</v>
+      </c>
+      <c r="CE35" s="4">
+        <v>14681.975840974414</v>
+      </c>
+      <c r="CF35" s="4">
+        <v>14828.795599384157</v>
+      </c>
+      <c r="CG35" s="4">
+        <v>14977.083555377998</v>
+      </c>
+      <c r="CH35" s="4">
+        <v>15126.854390931778</v>
+      </c>
+      <c r="CI35" s="4">
+        <v>15278.122934841096</v>
+      </c>
+      <c r="CJ35" s="4">
+        <v>15430.904164189507</v>
+      </c>
+      <c r="CK35" s="4">
+        <v>15585.213205831402</v>
+      </c>
+      <c r="CL35" s="4">
+        <v>15741.065337889717</v>
+      </c>
+      <c r="CM35" s="4">
+        <v>15898.475991268615</v>
+      </c>
+      <c r="CN35" s="4">
+        <v>16057.460751181301</v>
+      </c>
+      <c r="CO35" s="4">
+        <v>16218.035358693114</v>
+      </c>
+      <c r="CP35" s="4">
+        <v>16380.215712280045</v>
+      </c>
+      <c r="CQ35" s="4">
+        <v>16544.017869402847</v>
+      </c>
+      <c r="CR35" s="4">
+        <v>16709.458048096876</v>
+      </c>
+      <c r="CS35" s="4">
+        <v>16876.552628577843</v>
+      </c>
+      <c r="CT35" s="4">
+        <v>17045.31815486362</v>
+      </c>
+      <c r="CU35" s="4">
+        <v>17215.771336412257</v>
+      </c>
+      <c r="CV35" s="4">
+        <v>17387.92904977638</v>
+      </c>
+      <c r="CW35" s="4">
+        <v>17561.808340274143</v>
+      </c>
+      <c r="CX35" s="4">
+        <v>17737.426423676883</v>
+      </c>
+      <c r="CY35" s="4">
+        <v>17914.800687913652</v>
+      </c>
+      <c r="CZ35" s="4">
+        <v>18093.948694792787</v>
+      </c>
+      <c r="DA35" s="4">
+        <v>18274.888181740716</v>
+      </c>
+      <c r="DB35" s="4">
+        <v>18457.637063558122</v>
+      </c>
+      <c r="DC35" s="4">
+        <v>18642.213434193705</v>
+      </c>
+      <c r="DD35" s="4">
+        <v>18828.635568535643</v>
+      </c>
+      <c r="DE35" s="4">
+        <v>19016.921924220998</v>
+      </c>
+      <c r="DF35" s="4">
+        <v>19207.091143463207</v>
+      </c>
+      <c r="DG35" s="4">
+        <v>19399.162054897839</v>
+      </c>
+      <c r="DH35" s="4">
+        <v>19593.153675446818</v>
+      </c>
+      <c r="DI35" s="4">
+        <v>19789.085212201288</v>
+      </c>
+      <c r="DJ35" s="4">
+        <v>19986.976064323302</v>
+      </c>
+      <c r="DK35" s="4">
+        <v>20186.845824966535</v>
+      </c>
+      <c r="DL35" s="4">
+        <v>20388.714283216199</v>
+      </c>
+    </row>
+    <row r="36" spans="2:116" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="4">
-        <v>963</v>
-      </c>
-      <c r="X37" s="4">
-        <v>987</v>
-      </c>
-      <c r="Z37" s="4">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="R38" s="4">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="R36" s="4">
         <v>7431</v>
       </c>
-      <c r="X38" s="4">
+      <c r="U36" s="4">
+        <f>2165+5066</f>
+        <v>7231</v>
+      </c>
+      <c r="V36" s="4">
+        <f>563+5433</f>
+        <v>5996</v>
+      </c>
+      <c r="W36" s="4">
+        <f>307+5202</f>
+        <v>5509</v>
+      </c>
+      <c r="X36" s="4">
         <f>369+5319</f>
         <v>5688</v>
       </c>
-      <c r="Z38" s="4">
+      <c r="Y36" s="4">
+        <f>471+6003</f>
+        <v>6474</v>
+      </c>
+      <c r="Z36" s="4">
         <f>541+6422</f>
         <v>6963</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="37" spans="2:116" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="R37" s="4">
+        <v>36357</v>
+      </c>
+      <c r="U37" s="4">
+        <v>34641</v>
+      </c>
+      <c r="V37" s="4">
+        <v>38935</v>
+      </c>
+      <c r="W37" s="4">
+        <v>38353</v>
+      </c>
+      <c r="X37" s="4">
+        <v>38727</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>39182</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>37671</v>
+      </c>
+    </row>
+    <row r="38" spans="2:116" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="R38" s="4">
+        <v>1898</v>
+      </c>
+      <c r="U38" s="4">
+        <v>2228</v>
+      </c>
+      <c r="V38" s="4">
+        <v>2509</v>
+      </c>
+      <c r="W38" s="4">
+        <v>4418</v>
+      </c>
+      <c r="X38" s="4">
+        <v>3954</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>4060</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="39" spans="2:116" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
       <c r="R39" s="4">
-        <v>36357</v>
+        <v>1730</v>
+      </c>
+      <c r="U39" s="4">
+        <v>1529</v>
+      </c>
+      <c r="V39" s="4">
+        <v>1488</v>
+      </c>
+      <c r="W39" s="4">
+        <v>1426</v>
       </c>
       <c r="X39" s="4">
-        <v>38727</v>
+        <v>1459</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>1496</v>
       </c>
       <c r="Z39" s="4">
-        <v>37671</v>
-      </c>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>49</v>
-      </c>
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="40" spans="2:116" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
       <c r="R40" s="4">
-        <v>1898</v>
-      </c>
-      <c r="X40" s="4">
-        <v>3954</v>
-      </c>
-      <c r="Z40" s="4">
-        <v>4651</v>
-      </c>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="R41" s="4">
-        <v>1730</v>
-      </c>
-      <c r="X41" s="4">
-        <v>1459</v>
-      </c>
-      <c r="Z41" s="4">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>51</v>
-      </c>
-      <c r="R42" s="4">
         <f>11209+788</f>
         <v>11997</v>
       </c>
-      <c r="X42" s="4">
+      <c r="U40" s="4">
+        <f>10935+564</f>
+        <v>11499</v>
+      </c>
+      <c r="V40" s="4">
+        <f>11026+537</f>
+        <v>11563</v>
+      </c>
+      <c r="W40" s="4">
+        <f>10916+465</f>
+        <v>11381</v>
+      </c>
+      <c r="X40" s="4">
         <f>10816+403</f>
         <v>11219</v>
       </c>
-      <c r="Z42" s="4">
+      <c r="Y40" s="4">
+        <f>10996+393</f>
+        <v>11389</v>
+      </c>
+      <c r="Z40" s="4">
         <f>10837+326</f>
         <v>11163</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="R43" s="4">
+    <row r="41" spans="2:116" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="R41" s="4">
         <v>2455</v>
       </c>
-      <c r="X43" s="4">
+      <c r="U41" s="4">
+        <v>2922</v>
+      </c>
+      <c r="V41" s="4">
+        <v>3273</v>
+      </c>
+      <c r="W41" s="4">
+        <v>3425</v>
+      </c>
+      <c r="X41" s="4">
         <v>3713</v>
       </c>
-      <c r="Z43" s="4">
+      <c r="Y41" s="4">
+        <v>3671</v>
+      </c>
+      <c r="Z41" s="4">
         <v>3265</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>45</v>
-      </c>
+    <row r="42" spans="2:116" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="R42" s="4">
+        <f>SUM(R34:R41)</f>
+        <v>78717</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" ref="U42:Z42" si="52">SUM(U34:U41)</f>
+        <v>76440</v>
+      </c>
+      <c r="V42" s="4">
+        <f t="shared" si="52"/>
+        <v>82166</v>
+      </c>
+      <c r="W42" s="4">
+        <f t="shared" si="52"/>
+        <v>83347</v>
+      </c>
+      <c r="X42" s="4">
+        <f t="shared" si="52"/>
+        <v>84016</v>
+      </c>
+      <c r="Y42" s="4">
+        <f t="shared" si="52"/>
+        <v>83511</v>
+      </c>
+      <c r="Z42" s="4">
+        <f t="shared" si="52"/>
+        <v>81611</v>
+      </c>
+    </row>
+    <row r="44" spans="2:116" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
       <c r="R44" s="4">
-        <f>SUM(R36:R43)</f>
-        <v>78717</v>
-      </c>
-      <c r="X44" s="4">
-        <f>SUM(X36:X43)</f>
-        <v>84016</v>
-      </c>
-      <c r="Y44" s="4">
-        <f>SUM(Y36:Y43)</f>
-        <v>0</v>
-      </c>
-      <c r="Z44" s="4">
-        <f>SUM(Z36:Z43)</f>
-        <v>81611</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>54</v>
-      </c>
-      <c r="R46" s="4">
         <f>126+4055</f>
         <v>4181</v>
       </c>
-      <c r="X46" s="4">
+      <c r="U44" s="4">
+        <f>131+3533</f>
+        <v>3664</v>
+      </c>
+      <c r="V44" s="4">
+        <f>139+6392</f>
+        <v>6531</v>
+      </c>
+      <c r="W44" s="4">
+        <f>108+8385</f>
+        <v>8493</v>
+      </c>
+      <c r="X44" s="4">
         <f>133+8853</f>
         <v>8986</v>
       </c>
-      <c r="Z46" s="4">
+      <c r="Y44" s="4">
+        <f>165+8921</f>
+        <v>9086</v>
+      </c>
+      <c r="Z44" s="4">
         <f>227+8478</f>
         <v>8705</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>48</v>
-      </c>
-      <c r="R47" s="4">
+    <row r="45" spans="2:116" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="R45" s="4">
         <v>40107</v>
       </c>
-      <c r="X47" s="4">
+      <c r="U45" s="4">
+        <v>38641</v>
+      </c>
+      <c r="V45" s="4">
+        <v>41935</v>
+      </c>
+      <c r="W45" s="4">
+        <v>41353</v>
+      </c>
+      <c r="X45" s="4">
         <v>41727</v>
       </c>
-      <c r="Z47" s="4">
+      <c r="Y45" s="4">
+        <v>41182</v>
+      </c>
+      <c r="Z45" s="4">
         <v>39671</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>41</v>
-      </c>
-      <c r="R48" s="4">
+    <row r="46" spans="2:116" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="R46" s="4">
         <f>813+2925</f>
         <v>3738</v>
       </c>
+      <c r="U46" s="4">
+        <f>2618+1137</f>
+        <v>3755</v>
+      </c>
+      <c r="V46" s="4">
+        <v>2973</v>
+      </c>
+      <c r="W46" s="4">
+        <v>3116</v>
+      </c>
+      <c r="X46" s="4">
+        <v>2954</v>
+      </c>
+      <c r="Y46" s="4">
+        <v>3093</v>
+      </c>
+      <c r="Z46" s="4">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="47" spans="2:116" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="R47" s="4">
+        <v>10417</v>
+      </c>
+      <c r="U47" s="4">
+        <v>10640</v>
+      </c>
+      <c r="V47" s="4">
+        <v>9676</v>
+      </c>
+      <c r="W47" s="4">
+        <v>9683</v>
+      </c>
+      <c r="X47" s="4">
+        <v>9727</v>
+      </c>
+      <c r="Y47" s="4">
+        <v>9976</v>
+      </c>
+      <c r="Z47" s="4">
+        <v>9879</v>
+      </c>
+    </row>
+    <row r="48" spans="2:116" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="R48" s="4">
+        <v>20274</v>
+      </c>
+      <c r="U48" s="4">
+        <v>19740</v>
+      </c>
+      <c r="V48" s="4">
+        <v>21051</v>
+      </c>
+      <c r="W48" s="4">
+        <v>20702</v>
+      </c>
       <c r="X48" s="4">
-        <v>2954</v>
+        <v>20622</v>
+      </c>
+      <c r="Y48" s="4">
+        <v>20174</v>
       </c>
       <c r="Z48" s="4">
-        <v>2939</v>
-      </c>
-    </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
+        <v>20417</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
       <c r="R49" s="4">
-        <v>10417</v>
+        <f>SUM(R44:R48)</f>
+        <v>78717</v>
+      </c>
+      <c r="U49" s="4">
+        <f t="shared" ref="U49:Z49" si="53">SUM(U44:U48)</f>
+        <v>76440</v>
+      </c>
+      <c r="V49" s="4">
+        <f t="shared" si="53"/>
+        <v>82166</v>
+      </c>
+      <c r="W49" s="4">
+        <f t="shared" si="53"/>
+        <v>83347</v>
       </c>
       <c r="X49" s="4">
-        <v>9727</v>
+        <f t="shared" si="53"/>
+        <v>84016</v>
+      </c>
+      <c r="Y49" s="4">
+        <f t="shared" si="53"/>
+        <v>83511</v>
       </c>
       <c r="Z49" s="4">
-        <v>9879</v>
-      </c>
-    </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>55</v>
-      </c>
-      <c r="R50" s="4">
-        <v>20274</v>
-      </c>
-      <c r="X50" s="4">
-        <v>20622</v>
-      </c>
-      <c r="Z50" s="4">
-        <v>20417</v>
-      </c>
-    </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>90</v>
-      </c>
-      <c r="R51" s="4">
-        <f>SUM(R46:R50)</f>
-        <v>78717</v>
-      </c>
-      <c r="X51" s="4">
-        <f>SUM(X46:X50)</f>
-        <v>84016</v>
-      </c>
-      <c r="Y51" s="4">
-        <f>SUM(Y46:Y50)</f>
-        <v>0</v>
-      </c>
-      <c r="Z51" s="4">
-        <f>SUM(Z46:Z50)</f>
+        <f t="shared" si="53"/>
         <v>81611</v>
       </c>
     </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>62</v>
-      </c>
-      <c r="W53" s="4">
+    <row r="51" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="U51" s="4">
+        <f t="shared" ref="U51" si="54">+U23</f>
+        <v>1059</v>
+      </c>
+      <c r="V51" s="4">
+        <f>+V23</f>
+        <v>1091</v>
+      </c>
+      <c r="W51" s="4">
         <f>+W23</f>
         <v>1100</v>
       </c>
-      <c r="X53" s="4">
+      <c r="X51" s="4">
         <f>+X23</f>
         <v>1241</v>
       </c>
-      <c r="Y53" s="4">
+      <c r="Y51" s="4">
         <f>+Y23</f>
         <v>1073</v>
       </c>
-      <c r="Z53" s="4">
+      <c r="Z51" s="4">
         <f>+Z23</f>
         <v>1171</v>
       </c>
     </row>
-    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="52" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="U52" s="4">
+        <v>1020</v>
+      </c>
+      <c r="V52" s="4">
+        <v>1402</v>
+      </c>
+      <c r="W52" s="4">
+        <v>888</v>
+      </c>
+      <c r="X52" s="4">
+        <v>1128</v>
+      </c>
+      <c r="Y52" s="4">
+        <v>1010</v>
+      </c>
+      <c r="Z52" s="4">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="U53" s="4">
+        <v>446</v>
+      </c>
+      <c r="V53" s="4">
+        <v>396</v>
+      </c>
+      <c r="W53" s="4">
+        <v>321</v>
+      </c>
+      <c r="X53" s="4">
+        <v>335</v>
+      </c>
+      <c r="Y53" s="4">
+        <v>352</v>
+      </c>
+      <c r="Z53" s="4">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="54" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="U54" s="4">
+        <v>270</v>
+      </c>
+      <c r="V54" s="4">
+        <v>263</v>
+      </c>
       <c r="W54" s="4">
-        <v>888</v>
+        <v>265</v>
       </c>
       <c r="X54" s="4">
-        <v>1128</v>
+        <v>263</v>
       </c>
       <c r="Y54" s="4">
-        <v>1010</v>
+        <v>255</v>
       </c>
       <c r="Z54" s="4">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="55" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>64</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="U55" s="4">
+        <v>379</v>
+      </c>
+      <c r="V55" s="4">
+        <v>388</v>
       </c>
       <c r="W55" s="4">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="X55" s="4">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="Y55" s="4">
-        <v>352</v>
+        <v>284</v>
       </c>
       <c r="Z55" s="4">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="56" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>65</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="U56" s="4">
+        <v>-293</v>
+      </c>
+      <c r="V56" s="4">
+        <v>-229</v>
       </c>
       <c r="W56" s="4">
-        <v>265</v>
+        <v>52</v>
       </c>
       <c r="X56" s="4">
-        <v>263</v>
+        <v>-23</v>
       </c>
       <c r="Y56" s="4">
-        <v>255</v>
+        <v>-21</v>
       </c>
       <c r="Z56" s="4">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>66</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="U57" s="4">
+        <v>-24</v>
+      </c>
+      <c r="V57" s="4">
+        <f>4-356</f>
+        <v>-352</v>
       </c>
       <c r="W57" s="4">
-        <v>365</v>
+        <v>49</v>
       </c>
       <c r="X57" s="4">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="Y57" s="4">
-        <v>284</v>
+        <v>171</v>
       </c>
       <c r="Z57" s="4">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="58" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="U58" s="4">
+        <v>0</v>
+      </c>
+      <c r="V58" s="4">
+        <v>-102</v>
       </c>
       <c r="W58" s="4">
-        <v>52</v>
+        <v>-75</v>
       </c>
       <c r="X58" s="4">
-        <v>-23</v>
+        <v>-122</v>
       </c>
       <c r="Y58" s="4">
-        <v>-21</v>
+        <v>-93</v>
       </c>
       <c r="Z58" s="4">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>68</v>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="59" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="U59" s="4">
+        <v>15</v>
+      </c>
+      <c r="V59" s="4">
+        <v>4</v>
       </c>
       <c r="W59" s="4">
+        <v>37</v>
+      </c>
+      <c r="X59" s="4">
+        <v>27</v>
+      </c>
+      <c r="Y59" s="4">
+        <v>28</v>
+      </c>
+      <c r="Z59" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="U60" s="4">
+        <v>9</v>
+      </c>
+      <c r="V60" s="4">
+        <v>-102</v>
+      </c>
+      <c r="W60" s="4">
+        <v>13</v>
+      </c>
+      <c r="X60" s="4">
+        <v>-55</v>
+      </c>
+      <c r="Y60" s="4">
+        <v>-96</v>
+      </c>
+      <c r="Z60" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="U61" s="4">
+        <v>-4184</v>
+      </c>
+      <c r="V61" s="4">
+        <v>-5765</v>
+      </c>
+      <c r="W61" s="4">
+        <v>-5345</v>
+      </c>
+      <c r="X61" s="4">
+        <v>-5720</v>
+      </c>
+      <c r="Y61" s="4">
+        <v>-6108</v>
+      </c>
+      <c r="Z61" s="4">
+        <v>-7325</v>
+      </c>
+    </row>
+    <row r="62" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="U62" s="4">
+        <v>3374</v>
+      </c>
+      <c r="V62" s="4">
+        <v>7119</v>
+      </c>
+      <c r="W62" s="4">
+        <v>5232</v>
+      </c>
+      <c r="X62" s="4">
+        <v>5943</v>
+      </c>
+      <c r="Y62" s="4">
+        <v>5984</v>
+      </c>
+      <c r="Z62" s="4">
+        <v>7193</v>
+      </c>
+    </row>
+    <row r="63" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="U63" s="4">
+        <v>-71</v>
+      </c>
+      <c r="V63" s="4">
+        <v>-79</v>
+      </c>
+      <c r="W63" s="4">
+        <v>-39</v>
+      </c>
+      <c r="X63" s="4">
+        <v>121</v>
+      </c>
+      <c r="Y63" s="4">
+        <v>-51</v>
+      </c>
+      <c r="Z63" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="U64" s="4">
+        <v>6</v>
+      </c>
+      <c r="V64" s="4">
+        <v>13</v>
+      </c>
+      <c r="W64" s="4">
+        <v>-22</v>
+      </c>
+      <c r="X64" s="4">
+        <v>11</v>
+      </c>
+      <c r="Y64" s="4">
+        <v>35</v>
+      </c>
+      <c r="Z64" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="U65" s="4">
+        <f>295+17</f>
+        <v>312</v>
+      </c>
+      <c r="V65" s="4">
+        <v>-342</v>
+      </c>
+      <c r="W65" s="4">
+        <v>176</v>
+      </c>
+      <c r="X65" s="4">
+        <v>-687</v>
+      </c>
+      <c r="Y65" s="4">
+        <v>-136</v>
+      </c>
+      <c r="Z65" s="4">
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="U66" s="4">
+        <f t="shared" ref="U66" si="55">SUM(U52:U65)</f>
+        <v>1259</v>
+      </c>
+      <c r="V66" s="4">
+        <f>SUM(V52:V65)</f>
+        <v>2614</v>
+      </c>
+      <c r="W66" s="4">
+        <f>SUM(W52:W65)</f>
+        <v>1917</v>
+      </c>
+      <c r="X66" s="4">
+        <f>SUM(X52:X65)</f>
+        <v>1525</v>
+      </c>
+      <c r="Y66" s="4">
+        <f>SUM(Y52:Y65)</f>
+        <v>1614</v>
+      </c>
+      <c r="Z66" s="4">
+        <f>SUM(Z52:Z65)</f>
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+    </row>
+    <row r="68" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="X59" s="4">
-        <v>6</v>
-      </c>
-      <c r="Y59" s="4">
-        <v>171</v>
-      </c>
-      <c r="Z59" s="4">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>69</v>
-      </c>
-      <c r="W60" s="4">
-        <v>-75</v>
-      </c>
-      <c r="X60" s="4">
-        <v>-122</v>
-      </c>
-      <c r="Y60" s="4">
-        <v>-93</v>
-      </c>
-      <c r="Z60" s="4">
-        <v>-45</v>
-      </c>
-    </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>70</v>
-      </c>
-      <c r="W61" s="4">
-        <v>37</v>
-      </c>
-      <c r="X61" s="4">
-        <v>27</v>
-      </c>
-      <c r="Y61" s="4">
-        <v>28</v>
-      </c>
-      <c r="Z61" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>52</v>
-      </c>
-      <c r="W62" s="4">
-        <v>13</v>
-      </c>
-      <c r="X62" s="4">
-        <v>-55</v>
-      </c>
-      <c r="Y62" s="4">
-        <v>-96</v>
-      </c>
-      <c r="Z62" s="4">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>71</v>
-      </c>
-      <c r="W63" s="4">
-        <v>-5345</v>
-      </c>
-      <c r="X63" s="4">
-        <v>-5720</v>
-      </c>
-      <c r="Y63" s="4">
-        <v>-6108</v>
-      </c>
-      <c r="Z63" s="4">
-        <v>-7325</v>
-      </c>
-    </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>72</v>
-      </c>
-      <c r="W64" s="4">
-        <v>5232</v>
-      </c>
-      <c r="X64" s="4">
-        <v>5943</v>
-      </c>
-      <c r="Y64" s="4">
-        <v>5984</v>
-      </c>
-      <c r="Z64" s="4">
-        <v>7193</v>
-      </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>46</v>
-      </c>
-      <c r="W65" s="4">
-        <v>-39</v>
-      </c>
-      <c r="X65" s="4">
-        <v>121</v>
-      </c>
-      <c r="Y65" s="4">
-        <v>-51</v>
-      </c>
-      <c r="Z65" s="4">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>54</v>
-      </c>
-      <c r="W66" s="4">
-        <v>-22</v>
-      </c>
-      <c r="X66" s="4">
-        <v>11</v>
-      </c>
-      <c r="Y66" s="4">
-        <v>35</v>
-      </c>
-      <c r="Z66" s="4">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>52</v>
-      </c>
-      <c r="W67" s="4">
-        <v>176</v>
-      </c>
-      <c r="X67" s="4">
-        <v>-687</v>
-      </c>
-      <c r="Y67" s="4">
-        <v>-136</v>
-      </c>
-      <c r="Z67" s="4">
-        <v>-79</v>
-      </c>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>73</v>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="U68" s="4">
+        <f>-158+4</f>
+        <v>-154</v>
+      </c>
+      <c r="V68" s="4">
+        <f>-145+1</f>
+        <v>-144</v>
       </c>
       <c r="W68" s="4">
-        <f>SUM(W54:W67)</f>
-        <v>1917</v>
+        <v>-154</v>
       </c>
       <c r="X68" s="4">
-        <f>SUM(X54:X67)</f>
-        <v>1525</v>
+        <v>-157</v>
       </c>
       <c r="Y68" s="4">
-        <f>SUM(Y54:Y67)</f>
-        <v>1614</v>
+        <v>-169</v>
       </c>
       <c r="Z68" s="4">
-        <f>SUM(Z54:Z67)</f>
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>50</v>
-      </c>
-      <c r="W70" s="4">
-        <v>-154</v>
-      </c>
-      <c r="X70" s="4">
-        <v>-157</v>
-      </c>
-      <c r="Y70" s="4">
-        <v>-169</v>
-      </c>
-      <c r="Z70" s="4">
         <f>-203+1</f>
         <v>-202</v>
       </c>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="69" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="U69" s="4">
+        <v>-4635</v>
+      </c>
+      <c r="V69" s="4">
+        <v>-5396</v>
+      </c>
+      <c r="W69" s="4">
+        <v>-4779</v>
+      </c>
+      <c r="X69" s="4">
+        <v>-5182</v>
+      </c>
+      <c r="Y69" s="4">
+        <v>-5413</v>
+      </c>
+      <c r="Z69" s="4">
+        <v>-6433</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="U70" s="4">
+        <v>5329</v>
+      </c>
+      <c r="V70" s="4">
+        <v>5341</v>
+      </c>
+      <c r="W70" s="4">
+        <v>4827</v>
+      </c>
+      <c r="X70" s="4">
+        <v>4933</v>
+      </c>
+      <c r="Y70" s="4">
+        <v>4945</v>
+      </c>
+      <c r="Z70" s="4">
+        <v>5567</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="U71" s="4">
+        <f>-4452+5368</f>
+        <v>916</v>
+      </c>
+      <c r="V71" s="4">
+        <f>-7005+8185</f>
+        <v>1180</v>
+      </c>
       <c r="W71" s="4">
-        <v>-4779</v>
-      </c>
-      <c r="X71" s="4">
-        <v>-5182</v>
-      </c>
-      <c r="Y71" s="4">
-        <v>-5413</v>
-      </c>
-      <c r="Z71" s="4">
-        <v>-6433</v>
-      </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>72</v>
-      </c>
-      <c r="W72" s="4">
-        <v>4827</v>
-      </c>
-      <c r="X72" s="4">
-        <v>4933</v>
-      </c>
-      <c r="Y72" s="4">
-        <v>4945</v>
-      </c>
-      <c r="Z72" s="4">
-        <v>5567</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>74</v>
-      </c>
-      <c r="W73" s="4">
         <f>-7081+9242</f>
         <v>2161</v>
       </c>
-      <c r="X73" s="4">
+      <c r="X71" s="4">
         <f>-8923+4999</f>
         <v>-3924</v>
       </c>
-      <c r="Y73" s="4">
-        <f t="shared" ref="Y73" si="15">-4815+6938</f>
+      <c r="Y71" s="4">
+        <f t="shared" ref="Y71" si="56">-4815+6938</f>
         <v>2123</v>
       </c>
-      <c r="Z73" s="4">
+      <c r="Z71" s="4">
         <f>-5390+5783</f>
         <v>393</v>
       </c>
     </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="72" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="U72" s="4">
+        <v>-1775</v>
+      </c>
+      <c r="V72" s="4">
+        <v>-1927</v>
+      </c>
+      <c r="W72" s="4">
+        <v>-1169</v>
+      </c>
+      <c r="X72" s="4">
+        <v>-198</v>
+      </c>
+      <c r="Y72" s="4">
+        <v>1519</v>
+      </c>
+      <c r="Z72" s="4">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="U73" s="4">
+        <v>19</v>
+      </c>
+      <c r="V73" s="4">
+        <v>-64</v>
+      </c>
+      <c r="W73" s="4">
+        <v>74</v>
+      </c>
+      <c r="X73" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="4">
+        <v>-133</v>
+      </c>
+      <c r="Z73" s="4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="U74" s="4">
+        <v>-7</v>
+      </c>
+      <c r="V74" s="4">
+        <f>466+10</f>
+        <v>476</v>
+      </c>
       <c r="W74" s="4">
-        <v>-1169</v>
+        <v>20</v>
       </c>
       <c r="X74" s="4">
-        <v>-198</v>
+        <v>-120</v>
       </c>
       <c r="Y74" s="4">
-        <v>1519</v>
+        <f t="shared" ref="Y74" si="57">-148+75</f>
+        <v>-73</v>
       </c>
       <c r="Z74" s="4">
-        <v>2756</v>
-      </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>76</v>
-      </c>
-      <c r="W75" s="4">
-        <v>74</v>
-      </c>
-      <c r="X75" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y75" s="4">
-        <v>-133</v>
-      </c>
-      <c r="Z75" s="4">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>52</v>
-      </c>
-      <c r="W76" s="4">
-        <v>20</v>
-      </c>
-      <c r="X76" s="4">
-        <v>-120</v>
-      </c>
-      <c r="Y76" s="4">
-        <f t="shared" ref="Y76" si="16">-148+75</f>
-        <v>-73</v>
-      </c>
-      <c r="Z76" s="4">
         <f>259-125+111</f>
         <v>245</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="75" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="U75" s="4">
+        <f>SUM(U68:U74)</f>
+        <v>-307</v>
+      </c>
+      <c r="V75" s="4">
+        <f>SUM(V68:V74)</f>
+        <v>-534</v>
+      </c>
+      <c r="W75" s="4">
+        <f>SUM(W68:W74)</f>
+        <v>980</v>
+      </c>
+      <c r="X75" s="4">
+        <f>SUM(X68:X74)</f>
+        <v>-4647</v>
+      </c>
+      <c r="Y75" s="4">
+        <f t="shared" ref="Y75" si="58">SUM(Y68:Y74)</f>
+        <v>2799</v>
+      </c>
+      <c r="Z75" s="4">
+        <f>SUM(Z68:Z74)</f>
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+    </row>
+    <row r="77" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="U77" s="4">
+        <v>0</v>
+      </c>
+      <c r="V77" s="4">
+        <v>45</v>
+      </c>
       <c r="W77" s="4">
-        <f>SUM(W70:W76)</f>
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="X77" s="4">
-        <f>SUM(X70:X76)</f>
-        <v>-4647</v>
+        <v>55</v>
       </c>
       <c r="Y77" s="4">
-        <f t="shared" ref="Y77" si="17">SUM(Y70:Y76)</f>
-        <v>2799</v>
+        <v>0</v>
       </c>
       <c r="Z77" s="4">
-        <f>SUM(Z70:Z76)</f>
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="X78" s="4"/>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="U78" s="4">
+        <v>-1434</v>
+      </c>
+      <c r="V78" s="4">
+        <v>-607</v>
+      </c>
+      <c r="W78" s="4">
+        <v>-1501</v>
+      </c>
+      <c r="X78" s="4">
+        <v>-1501</v>
+      </c>
+      <c r="Y78" s="4">
+        <v>-1776</v>
+      </c>
+      <c r="Z78" s="4">
+        <v>-1269</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="U79" s="4">
+        <v>-25</v>
+      </c>
+      <c r="V79" s="4">
+        <v>-32</v>
+      </c>
       <c r="W79" s="4">
-        <v>0</v>
+        <v>-167</v>
       </c>
       <c r="X79" s="4">
-        <v>55</v>
+        <v>-63</v>
       </c>
       <c r="Y79" s="4">
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="Z79" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>79</v>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="U80" s="4">
+        <v>109</v>
+      </c>
+      <c r="V80" s="4">
+        <f>699-111</f>
+        <v>588</v>
       </c>
       <c r="W80" s="4">
-        <v>-1501</v>
-      </c>
-      <c r="X80" s="4">
-        <v>-1501</v>
-      </c>
-      <c r="Y80" s="4">
-        <v>-1776</v>
-      </c>
-      <c r="Z80" s="4">
-        <v>-1269</v>
-      </c>
-    </row>
-    <row r="81" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>80</v>
-      </c>
-      <c r="W81" s="4">
-        <v>-167</v>
-      </c>
-      <c r="X81" s="4">
-        <v>-63</v>
-      </c>
-      <c r="Y81" s="4">
-        <v>-41</v>
-      </c>
-      <c r="Z81" s="4">
-        <v>-80</v>
-      </c>
-    </row>
-    <row r="82" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>81</v>
-      </c>
-      <c r="W82" s="4">
         <f>115-359</f>
         <v>-244</v>
       </c>
-      <c r="X82" s="4">
+      <c r="X80" s="4">
         <f>1299-52</f>
         <v>1247</v>
       </c>
+      <c r="Y80" s="4">
+        <v>132</v>
+      </c>
+      <c r="Z80" s="4">
+        <v>-1250</v>
+      </c>
+    </row>
+    <row r="81" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="U81" s="4">
+        <v>1301</v>
+      </c>
+      <c r="V81" s="4">
+        <v>3138</v>
+      </c>
+      <c r="W81" s="4">
+        <v>-483</v>
+      </c>
+      <c r="X81" s="4">
+        <v>445</v>
+      </c>
+      <c r="Y81" s="4">
+        <v>-733</v>
+      </c>
+      <c r="Z81" s="4">
+        <v>-1183</v>
+      </c>
+    </row>
+    <row r="82" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="U82" s="4">
+        <v>110</v>
+      </c>
+      <c r="V82" s="4">
+        <v>-132</v>
+      </c>
+      <c r="W82" s="4">
+        <v>33</v>
+      </c>
+      <c r="X82" s="4">
+        <v>37</v>
+      </c>
       <c r="Y82" s="4">
-        <v>132</v>
+        <v>-71</v>
       </c>
       <c r="Z82" s="4">
-        <v>-1250</v>
-      </c>
-    </row>
-    <row r="83" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="U83" s="4">
+        <v>0</v>
+      </c>
+      <c r="V83" s="4">
+        <v>0</v>
+      </c>
+      <c r="W83" s="4">
+        <v>0</v>
+      </c>
+      <c r="X83" s="4">
+        <v>-20</v>
+      </c>
+      <c r="Y83" s="4">
+        <v>-40</v>
+      </c>
+      <c r="Z83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="W83" s="4">
-        <v>-483</v>
-      </c>
-      <c r="X83" s="4">
-        <v>445</v>
-      </c>
-      <c r="Y83" s="4">
-        <v>-733</v>
-      </c>
-      <c r="Z83" s="4">
-        <v>-1183</v>
-      </c>
-    </row>
-    <row r="84" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>76</v>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="U84" s="4">
+        <f>SUM(U77:U83)</f>
+        <v>61</v>
+      </c>
+      <c r="V84" s="4">
+        <f>SUM(V77:V83)</f>
+        <v>3000</v>
       </c>
       <c r="W84" s="4">
-        <v>33</v>
+        <f>SUM(W77:W83)</f>
+        <v>-2362</v>
       </c>
       <c r="X84" s="4">
-        <v>37</v>
+        <f>SUM(X77:X83)</f>
+        <v>200</v>
       </c>
       <c r="Y84" s="4">
-        <v>-71</v>
+        <f t="shared" ref="Y84" si="59">SUM(Y77:Y83)</f>
+        <v>-2529</v>
       </c>
       <c r="Z84" s="4">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="85" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>52</v>
+        <f>SUM(Z77:Z83)</f>
+        <v>-3585</v>
+      </c>
+    </row>
+    <row r="85" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="U85" s="4">
+        <v>-45</v>
+      </c>
+      <c r="V85" s="4">
+        <v>171</v>
       </c>
       <c r="W85" s="4">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="X85" s="4">
-        <v>-20</v>
+        <v>5</v>
       </c>
       <c r="Y85" s="4">
-        <v>-40</v>
+        <v>192</v>
       </c>
       <c r="Z85" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>83</v>
+        <v>-310</v>
+      </c>
+    </row>
+    <row r="86" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="U86" s="4">
+        <f>U85+U84+U75+U66</f>
+        <v>968</v>
+      </c>
+      <c r="V86" s="4">
+        <f>V85+V84+V75+V66</f>
+        <v>5251</v>
       </c>
       <c r="W86" s="4">
-        <f>SUM(W79:W85)</f>
-        <v>-2362</v>
+        <f>W85+W84+W75+W66</f>
+        <v>441</v>
       </c>
       <c r="X86" s="4">
-        <f>SUM(X79:X85)</f>
-        <v>200</v>
+        <f>X85+X84+X75+X66</f>
+        <v>-2917</v>
       </c>
       <c r="Y86" s="4">
-        <f t="shared" ref="Y86" si="18">SUM(Y79:Y85)</f>
-        <v>-2529</v>
+        <f t="shared" ref="Y86" si="60">Y85+Y84+Y75+Y66</f>
+        <v>2076</v>
       </c>
       <c r="Z86" s="4">
-        <f>SUM(Z79:Z85)</f>
-        <v>-3585</v>
-      </c>
-    </row>
-    <row r="87" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>84</v>
-      </c>
-      <c r="W87" s="4">
-        <v>-94</v>
-      </c>
-      <c r="X87" s="4">
-        <v>5</v>
-      </c>
-      <c r="Y87" s="4">
-        <v>192</v>
-      </c>
-      <c r="Z87" s="4">
-        <v>-310</v>
-      </c>
-    </row>
-    <row r="88" spans="2:26" x14ac:dyDescent="0.25">
+        <f>Z85+Z84+Z75+Z66</f>
+        <v>956</v>
+      </c>
+    </row>
+    <row r="88" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="U88" s="4">
+        <f t="shared" ref="U88:Z88" si="61">+U68+U66</f>
+        <v>1105</v>
+      </c>
+      <c r="V88" s="4">
+        <f t="shared" si="61"/>
+        <v>2470</v>
       </c>
       <c r="W88" s="4">
-        <f>W87+W86+W77+W68</f>
-        <v>441</v>
+        <f t="shared" si="61"/>
+        <v>1763</v>
       </c>
       <c r="X88" s="4">
-        <f>X87+X86+X77+X68</f>
-        <v>-2917</v>
+        <f t="shared" si="61"/>
+        <v>1368</v>
       </c>
       <c r="Y88" s="4">
-        <f t="shared" ref="Y88" si="19">Y87+Y86+Y77+Y68</f>
-        <v>2076</v>
+        <f t="shared" si="61"/>
+        <v>1445</v>
       </c>
       <c r="Z88" s="4">
-        <f>Z87+Z86+Z77+Z68</f>
-        <v>956</v>
-      </c>
-    </row>
-    <row r="90" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+        <f t="shared" si="61"/>
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="89" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
         <v>95</v>
       </c>
-      <c r="W90" s="4">
-        <f>+W70+W68</f>
-        <v>1763</v>
-      </c>
-      <c r="X90" s="4">
-        <f>+X70+X68</f>
-        <v>1368</v>
-      </c>
-      <c r="Y90" s="4">
-        <f>+Y70+Y68</f>
-        <v>1445</v>
-      </c>
-      <c r="Z90" s="4">
-        <f>+Z70+Z68</f>
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="91" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z91" s="4">
-        <f>SUM(W90:Z90)</f>
+      <c r="X89" s="4">
+        <f>SUM(U88:X88)</f>
+        <v>6706</v>
+      </c>
+      <c r="Y89" s="4">
+        <f>SUM(V88:Y88)</f>
+        <v>7046</v>
+      </c>
+      <c r="Z89" s="4">
+        <f>SUM(W88:Z88)</f>
         <v>6768</v>
       </c>
     </row>
